--- a/src/app/__tests__/testcase.xlsx
+++ b/src/app/__tests__/testcase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1216">
   <si>
     <t>testCaseId</t>
   </si>
@@ -2137,6 +2137,1874 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_001</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang Chatbot Live Chat</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể truy cập trang Live Chat từ trang giới thiệu Chatbot.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang giới thiệu Chatbot (URL: /chatbot).</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Live Chat'.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang Live Chat của Chatbot (URL: /chatbot/livechat).</t>
+  </si>
+  <si>
+    <t>YC_CB_001_TruyCapLiveChat</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_002</t>
+  </si>
+  <si>
+    <t>Chọn chế độ 'Regular Chat'</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chọn chế độ 'Regular Chat'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).</t>
+  </si>
+  <si>
+    <t>1. Quan sát khu vực 'Chat Mode &amp; History'.
+2. Nhấp vào nút 'Regular Chat'.</t>
+  </si>
+  <si>
+    <t>Nút 'Regular Chat' được đánh dấu là đang chọn. Giao diện khu vực chat chính hiển thị trạng thái sẵn sàng nhập tin nhắn.</t>
+  </si>
+  <si>
+    <t>YC_CB_002_ChonRegularChat</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_003</t>
+  </si>
+  <si>
+    <t>Bắt đầu cuộc hội thoại mới ('New Chat')</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể xóa lịch sử chat hiện tại và bắt đầu một cuộc hội thoại mới.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'New Chat' trong phần 'Chat History'.</t>
+  </si>
+  <si>
+    <t>Nội dung khu vực chat chính bị xóa trống. Khu vực 'Chat History' hiển thị thêm 1 thẻ lịch sử chat mới.</t>
+  </si>
+  <si>
+    <t>YC_CB_003_NewChat</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_004</t>
+  </si>
+  <si>
+    <t>Gửi tin nhắn đến Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể nhập và gửi tin nhắn cho Chatbot.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đang ở chế độ 'Regular Chat'.</t>
+  </si>
+  <si>
+    <t>1. Nhập một tin nhắn (ví dụ: 'Hello') vào trường 'Nhập tin nhắn'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Tin nhắn của người dùng ('Hello') xuất hiện trong khu vực chat. Chatbot xử lý và hiển thị phản hồi.</t>
+  </si>
+  <si>
+    <t>YC_CB_004_GuiTinNhan</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_005</t>
+  </si>
+  <si>
+    <t>Nhận và hiển thị phản hồi từ Chatbot (Text)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot trả về phản hồi dạng văn bản cho một truy vấn cụ thể.</t>
+  </si>
+  <si>
+    <t>1. Nhập một truy vấn rõ ràng ('List some AI conferences in Asia.') vào trường 'Nhập tin nhắn'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot hiển thị phản hồi dạng văn bản trong khu vực chat, bao gồm danh sách các hội nghị liên quan đến truy vấn.</t>
+  </si>
+  <si>
+    <t>YC_CB_005_PhanHoiText</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_006</t>
+  </si>
+  <si>
+    <t>Nhấp vào một gợi ý câu hỏi ban đầu</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào một trong các câu hỏi gợi ý, câu hỏi đó được gửi đi.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đang ở chế độ 'Regular Chat'.
+Giao diện hiển thị các câu hỏi gợi ý ('Xin chào!', 'Liệt kê cho tôi...', 'Tìm các hội nghị...').</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào một câu hỏi gợi ý (ví dụ: 'Tôi muốn biết về các hội nghị blockchain tại châu Âu.').</t>
+  </si>
+  <si>
+    <t>Câu hỏi gợi ý đã nhấp xuất hiện dưới dạng tin nhắn của người dùng trong khu vực chat. Chatbot xử lý và hiển thị phản hồi cho câu hỏi đó.</t>
+  </si>
+  <si>
+    <t>YC_CB_006_ClickGoiY</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_007</t>
+  </si>
+  <si>
+    <t>Nhấp vào liên kết trong phản hồi của Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào một liên kết trong phản hồi của Chatbot, liên kết đó hoạt động.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đã nhận được phản hồi từ Chatbot có chứa liên kết (ví dụ: danh sách conference có URL Website).</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào một liên kết bất kỳ trong phản hồi của Chatbot (ví dụ: liên kết trang web của một conference).</t>
+  </si>
+  <si>
+    <t>Hệ thống mở một tab mới trên trình duyệt, điều hướng đến địa chỉ URL của liên kết đã nhấp.</t>
+  </si>
+  <si>
+    <t>YC_CB_007_ClickLink</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_008</t>
+  </si>
+  <si>
+    <t>Xem lịch sử Chat</t>
+  </si>
+  <si>
+    <t>Kiểm tra các cuộc hội thoại cũ hiển thị trong 'Chat History'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đã thực hiện ít nhất một cuộc hội thoại trước đó.</t>
+  </si>
+  <si>
+    <t>1. Quan sát khu vực 'Chat History'.</t>
+  </si>
+  <si>
+    <t>Các cuộc hội thoại trước đó được liệt kê trong danh sách 'Chat History', hiển thị tiêu đề và thời gian tương đối.</t>
+  </si>
+  <si>
+    <t>YC_CB_008_XemLichSu</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_009</t>
+  </si>
+  <si>
+    <t>Tải lại cuộc hội thoại từ lịch sử</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào một mục trong 'Chat History', nội dung hội thoại đó được tải và hiển thị.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Có ít nhất một mục trong 'Chat History'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào một mục trong danh sách 'Chat History'.</t>
+  </si>
+  <si>
+    <t>Nội dung của cuộc hội thoại đã chọn từ lịch sử được tải và hiển thị trong khu vực chat chính.</t>
+  </si>
+  <si>
+    <t>YC_CB_009_TaiLichSu</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_010</t>
+  </si>
+  <si>
+    <t>Thay đổi ngôn ngữ Chatbot (Settings)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi ngôn ngữ giao tiếp của Chatbot.</t>
+  </si>
+  <si>
+    <t>1. Quan sát khu vực 'Settings'.
+2. Nhấp vào dropdown 'Language'.
+3. Chọn một ngôn ngữ khác ngôn ngữ hiện tại (ví dụ: từ 'Tiếng Việt' sang 'English').
+4. Gửi một tin nhắn mới (ví dụ: 'List conferences in USA').</t>
+  </si>
+  <si>
+    <t>Giao diện Chatbot (ví dụ: câu chào, nhãn trường nhập liệu) được cập nhật sang ngôn ngữ đã chọn ('English'). Phản hồi của Chatbot cho tin nhắn mới cũng được hiển thị bằng ngôn ngữ đã chọn.</t>
+  </si>
+  <si>
+    <t>YC_CB_010_ThayDoiNgonNgu</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_011</t>
+  </si>
+  <si>
+    <t>Chọn định dạng Output là Text (Settings)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chọn định dạng phản hồi của Chatbot là Text.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Người dùng đang ở chế độ 'Live Chat'.</t>
+  </si>
+  <si>
+    <t>1. Quan sát khu vực 'Settings', phần 'Output Format'.
+2. Nhấp vào nút 'Text'.</t>
+  </si>
+  <si>
+    <t>Nút 'Text' được đánh dấu là đang chọn (ví dụ: màu xanh). Các phản hồi của Chatbot sẽ hiển thị dưới dạng văn bản.</t>
+  </si>
+  <si>
+    <t>YC_CB_011_ChonOutputText</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_012</t>
+  </si>
+  <si>
+    <t>Chọn định dạng Output là Audio (Settings)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chọn định dạng phản hồi của Chatbot là Audio.</t>
+  </si>
+  <si>
+    <t>1. Quan sát khu vực 'Settings', phần 'Output Format'.
+2. Nhấp vào nút 'Audio'.</t>
+  </si>
+  <si>
+    <t>Nút 'Audio' được đánh dấu là đang chọn (ví dụ: màu xanh). Phản hồi của Chatbot có thể hiển thị kèm theo trình phát âm thanh hoặc chỉ phát âm thanh.</t>
+  </si>
+  <si>
+    <t>YC_CB_012_ChonOutputAudio</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_013</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút 'Show Thought Process'</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào 'Show Thought Process', thông tin bổ sung hiển thị.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đã nhận được phản hồi từ Chatbot kèm theo liên kết 'Show Thought Process'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Show Thought Process'.</t>
+  </si>
+  <si>
+    <t>Một khu vực nội dung bổ sung (ví dụ: dropdown, popup, hoặc phần text mở rộng) xuất hiện dưới phản hồi của Chatbot, hiển thị các bước suy nghĩ của bot.</t>
+  </si>
+  <si>
+    <t>YC_CB_013_ShowThoughtProcess</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_014</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng Copy phản hồi</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút copy hoặc chức năng copy phản hồi hoạt động.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đã nhận được phản hồi từ Chatbot.</t>
+  </si>
+  <si>
+    <t>1. Tìm và nhấp vào biểu tượng/nút 'Copy' liên quan đến phản hồi của Chatbot.
+2. Kiểm tra nội dung clipboard (ví dụ: dán vào một trình soạn thảo khác).</t>
+  </si>
+  <si>
+    <t>Nội dung phản hồi của Chatbot được sao chép vào clipboard. Hệ thống hiển thị thông báo xác nhận 'Copied to clipboard!'.</t>
+  </si>
+  <si>
+    <t>YC_CB_014_CopyResponse</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_001</t>
+  </si>
+  <si>
+    <t>Chọn chế độ 'Live Stream'</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chọn chế độ 'Live Stream' cho Chatbot.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Chế độ 'Regular Chat' đang được chọn.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Live Stream' trong phần 'Chat Mode &amp; History'.</t>
+  </si>
+  <si>
+    <t>Nút 'Live Stream' được đánh dấu là đang chọn (ví dụ: màu xanh). Giao diện khu vực chat chính hiển thị trạng thái sẵn sàng nhận giọng nói ('Live Chat with Our Chatbot'). Biểu tượng microphone và loa xuất hiện ở trường nhập liệu. Status 'Connected' xuất hiện.</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_001_ChonLiveStream</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_002</t>
+  </si>
+  <si>
+    <t>Nhập liệu bằng giọng nói (Bắt đầu ghi âm)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể bắt đầu ghi âm giọng nói để nhập liệu.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Chế độ 'Live Stream' đang được chọn.
+Trình duyệt đã cấp quyền truy cập microphone.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào biểu tượng play ở trường nhập liệu.</t>
+  </si>
+  <si>
+    <t>Biểu tượng play thay đổi trạng thái. Hệ thống bắt đầu ghi âm giọng nói của người dùng. Hiển thị sóng giao động thể hiện đang ghi âm.</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_002_BatDauGhiAm</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_003</t>
+  </si>
+  <si>
+    <t>Nhập liệu bằng giọng nói (Dừng ghi âm)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể dừng ghi âm giọng nói.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Output Format đang chọn 'Audio'
+Đang trong quá trình ghi âm.</t>
+  </si>
+  <si>
+    <t>1. Nhấp lại vào biểu tượng microphone đang ghi âm.</t>
+  </si>
+  <si>
+    <t>Biểu tượng microphone dừng ghi âm, chuyển thành biểu tượng microphone bị gạch chéo. Hệ thống xử lý bản ghi âm và gửi nó đến Chatbot dưới dạng bản ghi âm.</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_003_DungGhiAm</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_004</t>
+  </si>
+  <si>
+    <t>Nhận và hiển thị phản hồi từ Chatbot (Audio)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot trả về phản hồi dạng âm thanh cho một truy vấn.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Chế độ 'Live Stream' đang được chọn.
+Output Format đang chọn 'Audio'.</t>
+  </si>
+  <si>
+    <t>1. Gửi một truy vấn bằng giọng nói hoặc văn bản.</t>
+  </si>
+  <si>
+    <t>Chatbot xử lý và hiển thị phản hồi dạng âm thanh trong khu vực chat (hiển thị trình phát audio với nút play, pause, thời lượng).</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_004_PhanHoiAudio</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_005</t>
+  </si>
+  <si>
+    <t>Phát lại phản hồi dạng Audio</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể phát lại nội dung âm thanh trong phản hồi của Chatbot.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Đã nhận được phản hồi dạng Audio từ Chatbot.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Play' trên trình phát audio của phản hồi Chatbot.</t>
+  </si>
+  <si>
+    <t>Hệ thống phát lại nội dung âm thanh của phản hồi. Nút 'Play' chuyển thành 'Pause'. Thanh tiến trình cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_005_PhatAudio</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_006</t>
+  </si>
+  <si>
+    <t>Tạm dừng/Tiếp tục phát lại Audio</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể tạm dừng và tiếp tục phát lại âm thanh.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Một phản hồi dạng Audio đang được phát.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Pause' trên trình phát audio.
+2. Nhấp vào nút 'Play' (hiện tại) trên trình phát audio.</t>
+  </si>
+  <si>
+    <t>Âm thanh tạm dừng. Nút 'Pause' chuyển thành 'Play'. Âm thanh tiếp tục phát từ vị trí đã tạm dừng.</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_006_TamDungTiepTuc</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_007</t>
+  </si>
+  <si>
+    <t>Thay đổi giọng đọc Chatbot (Voice)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chọn giọng đọc khác cho phản hồi dạng Audio.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Voice' trong phần 'Settings'.
+2. Chọn một giọng đọc khác giọng hiện tại (ví dụ: chọn 'Charon' nếu đang là 'Puck').
+3. Gửi một truy vấn mới.</t>
+  </si>
+  <si>
+    <t>Dropdown 'Voice' hiển thị giọng đã chọn. Phản hồi dạng Audio tiếp theo của Chatbot sẽ được đọc bằng giọng mới ('Charon').</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_007_ChonGiongDoc</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_008</t>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái kết nối 'Connected'</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị trạng thái kết nối thành công khi ở chế độ Live Stream.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Chế độ 'Live Stream' đang được chọn.</t>
+  </si>
+  <si>
+    <t>1. Quan sát khu vực thông báo trạng thái kết nối.</t>
+  </si>
+  <si>
+    <t>Trạng thái hiển thị 'Connected' với màu xanh lá cây, kèm theo thông tin thời gian kết nối (ví dụ: 'Connected for 00:19 / 10:00').</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_008_TrangThaiConnected</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_009</t>
+  </si>
+  <si>
+    <t>Xử lý khi mất kết nối</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo và xử lý khi kết nối bị mất đột ngột.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Chế độ 'Live Stream' đang được chọn.
+Kết nối mạng bị ngắt hoặc server bot gặp sự cố.</t>
+  </si>
+  <si>
+    <t>1. Gây mất kết nối mạng (ví dụ: tắt wifi/ethernet).
+2. Quan sát khu vực trạng thái kết nối và khu vực chat.</t>
+  </si>
+  <si>
+    <t>Trạng thái kết nối thay đổi sang trạng thái lỗi (ví dụ: 'Connection lost!'). Một thông báo lỗi xuất hiện trong khu vực chat (ví dụ: 'Connection lost unexpectedly'). Có thể các nút chức năng bị vô hiệu hóa.</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_009_MatKetNoi</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_LS_010</t>
+  </si>
+  <si>
+    <t>Chuyển ngôn ngữ ở chế độ Live Stream + Audio Output</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot trả lời bằng âm thanh theo ngôn ngữ đã chọn.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Chatbot Live Chat (URL: /chatbot/livechat).
+Chế độ 'Live Stream' đang được chọn.
+Output Format đang chọn 'Audio'.
+Hệ thống hỗ trợ ngôn ngữ khác tiếng Anh (ví dụ: Tiếng Việt, Tiếng Trung).</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Settings', nhấp vào dropdown 'Language' và chọn một ngôn ngữ (ví dụ: 'Tiếng Việt').
+2. Gửi một truy vấn (bằng giọng nói hoặc văn bản tùy quy định).</t>
+  </si>
+  <si>
+    <t>Chatbot trả lời bằng âm thanh sử dụng ngôn ngữ đã chọn ('Tiếng Việt').</t>
+  </si>
+  <si>
+    <t>YC_CB_LS_010_NgonNguAudio</t>
+  </si>
+  <si>
+    <t>TC_Support_Contact_001</t>
+  </si>
+  <si>
+    <t>Gửi form Contact Us thành công với dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể gửi form Contact Us khi điền đầy đủ và hợp lệ các trường bắt buộc và đồng ý với điều khoản.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Contact Us (URL: /support).
+Người dùng biết cách điền thông tin hợp lệ.</t>
+  </si>
+  <si>
+    <t>1. Nhập Subject hợp lệ vào trường 'Subject'.
+2. Chọn một loại yêu cầu từ dropdown 'Request type' (ví dụ: 'Contact').
+3. Nhập nội dung tin nhắn hợp lệ vào trường 'Your message'.
+4. Tích chọn checkbox 'I agree to the Terms &amp; Conditions and Privacy Policy'.
+5. Nhấp vào nút 'Send message'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo gửi thành công (ví dụ: 'Your message has been sent successfully'). Form có thể được làm trống hoặc chuyển hướng đến trang khác.</t>
+  </si>
+  <si>
+    <t>YC_HT_001_GuiContactUs</t>
+  </si>
+  <si>
+    <t>TC_Support_Contact_002</t>
+  </si>
+  <si>
+    <t>Gửi form Contact Us thất bại khi để trống trường bắt buộc</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo lỗi khi một trong các trường bắt buộc bị bỏ trống.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Contact Us (URL: /support).</t>
+  </si>
+  <si>
+    <t>1. Để trống trường 'Subject'.
+2. Chọn một loại yêu cầu từ dropdown 'Request type' (ví dụ: 'Contact').
+3. Nhập nội dung tin nhắn hợp lệ vào trường 'Your message'.
+4. Tích chọn checkbox 'I agree to the Terms &amp; Conditions and Privacy Policy'.
+5. Nhấp vào nút 'Send message'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation dưới trường 'Subject'. Form không được gửi.</t>
+  </si>
+  <si>
+    <t>YC_HT_002_DeTrongTruong</t>
+  </si>
+  <si>
+    <t>TC_Support_Contact_003</t>
+  </si>
+  <si>
+    <t>Gửi form Contact Us thất bại khi chưa tích chọn đồng ý điều khoản</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo lỗi khi người dùng chưa tích chọn checkbox đồng ý điều khoản.</t>
+  </si>
+  <si>
+    <t>1. Nhập Subject hợp lệ vào trường 'Subject'.
+2. Chọn một loại yêu cầu từ dropdown 'Request type' (ví dụ: 'Report').
+3. Nhập nội dung tin nhắn hợp lệ vào trường 'Your message'.
+4. Để trống checkbox 'I agree to the Terms &amp; Conditions and Privacy Policy' (chưa tích chọn).
+5. Nhấp vào nút 'Send message'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation yêu cầu tích chọn checkbox. Form không được gửi.</t>
+  </si>
+  <si>
+    <t>YC_HT_003_ChuaDongYDK</t>
+  </si>
+  <si>
+    <t>TC_Support_Contact_004</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Terms &amp; Conditions' hoạt động và mở trang/modal chứa điều khoản.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Terms &amp; Conditions'.</t>
+  </si>
+  <si>
+    <t>Hệ thống mở một trang hoặc modal mới hiển thị nội dung về Điều khoản và Điều kiện sử dụng.</t>
+  </si>
+  <si>
+    <t>YC_HT_004_LienKetDK</t>
+  </si>
+  <si>
+    <t>TC_Support_Contact_005</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết Privacy Policy</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Privacy Policy' hoạt động và mở trang/modal chứa chính sách bảo mật.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Privacy Policy'.</t>
+  </si>
+  <si>
+    <t>Hệ thống mở một trang hoặc modal mới hiển thị nội dung về Chính sách bảo mật.</t>
+  </si>
+  <si>
+    <t>YC_HT_005_LienKetCSBM</t>
+  </si>
+  <si>
+    <t>TC_Support_FAQ_001</t>
+  </si>
+  <si>
+    <t>Tìm kiếm trong FAQ với từ khóa tồn tại</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm hiển thị các câu hỏi FAQ chứa từ khóa đã nhập.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Support (URL: /support).
+Trang hiển thị phần FAQ.</t>
+  </si>
+  <si>
+    <t>1. Nhập một từ khóa hợp lệ (ví dụ: 'account') vào trường tìm kiếm 'How can we help you?'.</t>
+  </si>
+  <si>
+    <t>Danh sách các câu hỏi FAQ được lọc, chỉ hiển thị những câu chứa từ khóa đã nhập. Các mục FAQ không chứa từ khóa bị ẩn.</t>
+  </si>
+  <si>
+    <t>YC_HT_006_TimKiemFAQ</t>
+  </si>
+  <si>
+    <t>TC_Support_FAQ_002</t>
+  </si>
+  <si>
+    <t>Tìm kiếm trong FAQ với từ khóa không tồn tại</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm hiển thị thông báo khi không có câu hỏi FAQ nào chứa từ khóa.</t>
+  </si>
+  <si>
+    <t>1. Nhập một từ khóa không tồn tại (ví dụ: 'randomtext123') vào trường tìm kiếm 'How can we help you?'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo không có kết quả. Danh sách FAQ trống.</t>
+  </si>
+  <si>
+    <t>YC_HT_007_TimKiemFAQNoResult</t>
+  </si>
+  <si>
+    <t>TC_Support_FAQ_003</t>
+  </si>
+  <si>
+    <t>Lọc FAQ theo danh mục</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào một danh mục ở sidebar, danh sách FAQ được lọc theo danh mục đó.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Support (URL: /support).
+Trang hiển thị phần FAQ với sidebar danh mục.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào một danh mục ở sidebar bên trái (ví dụ: 'Account').</t>
+  </si>
+  <si>
+    <t>Danh sách các câu hỏi FAQ được lọc, chỉ hiển thị những câu thuộc danh mục đã chọn.</t>
+  </si>
+  <si>
+    <t>YC_HT_008_LocFAQTheoDanhMuc</t>
+  </si>
+  <si>
+    <t>TC_Support_FAQ_004</t>
+  </si>
+  <si>
+    <t>Mở/Đóng nội dung FAQ</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào tiêu đề một câu hỏi FAQ, nội dung chi tiết của câu hỏi đó hiển thị hoặc ẩn đi.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào tiêu đề của một câu hỏi FAQ (ví dụ: 'What is this website?').</t>
+  </si>
+  <si>
+    <t>Phần nội dung chi tiết dưới tiêu đề câu hỏi xuất hiện (hiển thị). Biểu tượng bên cạnh tiêu đề có thể thay đổi (từ mũi tên xuống thành mũi tên lên).</t>
+  </si>
+  <si>
+    <t>YC_HT_009_MoDongFAQ</t>
+  </si>
+  <si>
+    <t>TC_Support_FAQ_005</t>
+  </si>
+  <si>
+    <t>Mở/Đóng nội dung FAQ lần thứ hai (Toggle)</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp lại vào tiêu đề câu hỏi FAQ đã mở, nội dung chi tiết sẽ ẩn đi.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Support (URL: /support).
+Trang hiển thị phần FAQ.
+Một câu hỏi FAQ đang hiển thị nội dung (đã được mở).</t>
+  </si>
+  <si>
+    <t>1. Nhấp lại vào tiêu đề của câu hỏi FAQ đang mở.</t>
+  </si>
+  <si>
+    <t>Phần nội dung chi tiết dưới tiêu đề câu hỏi ẩn đi. Biểu tượng bên cạnh tiêu đề có thể thay đổi (từ mũi tên lên thành mũi tên xuống).</t>
+  </si>
+  <si>
+    <t>YC_HT_010_ToggleFAQ</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_001</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo từ khóa/tiêu đề</t>
+  </si>
+  <si>
+    <t>Kiểm tra kết quả tìm kiếm hiển thị đúng các journal chứa từ khóa/tiêu đề đã nhập.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).</t>
+  </si>
+  <si>
+    <t>1. Nhập một từ khóa/tiêu đề hợp lệ (ví dụ: 'admin') vào trường tìm kiếm chính 'Enter Keyword Title/Journal Name'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có chứa từ khóa/tiêu đề đã nhập (ví dụ: Results (76)). Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_001_TimTheoKeyword</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_002</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals với từ khóa không tồn tại</t>
+  </si>
+  <si>
+    <t>1. Nhập một từ khóa không tồn tại (ví dụ: 'nonexistentjournal123') vào trường tìm kiếm chính.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_002_KhongCoKetQua</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_003</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journal với trường trống</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các trường tìm kiếm đều trống.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị lại danh sách đầy đủ tất cả các journal.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_003_TimKiemTrong</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_004</t>
+  </si>
+  <si>
+    <t>Sử dụng nút Clear trên trang Journals Search</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Đã nhập dữ liệu vào ít nhất một trường tìm kiếm.</t>
+  </si>
+  <si>
+    <t>1. Nhập từ khóa (ví dụ: 'test').
+2. Nhấp vào nút 'Search'.
+3. Nhấp vào nút 'Clear'.</t>
+  </si>
+  <si>
+    <t>Tất cả các trường tìm kiếm (từ khóa, nâng cao) được làm trống. Trang hiển thị lại danh sách đầy đủ tất cả các journal.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_004_XoaBoLoc</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_005</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả tìm kiếm Journals theo Tiêu đề</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp kết quả theo tiêu chí 'Title'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Có danh sách kết quả được hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort By'.
+2. Chọn tùy chọn 'Title'.</t>
+  </si>
+  <si>
+    <t>Danh sách các journal được sắp xếp lại theo Tiêu đề (theo thứ tự bảng chữ cái A-Z).</t>
+  </si>
+  <si>
+    <t>YC_TKJ_005_SapXepTheoTieuDe</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_006</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang chi tiết Journal từ danh sách</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp vào một journal card, người dùng được đưa đến trang chi tiết của journal đó.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Có ít nhất một journal hiển thị trong danh sách.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Details' trên bất kỳ journal card nào trong danh sách kết quả (ví dụ: Journal '@GRH').</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang chi tiết của journal đã nhấp (URL: /journals/detail?id=...).</t>
+  </si>
+  <si>
+    <t>YC_TKJ_006_XemChiTietTuList</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_007</t>
+  </si>
+  <si>
+    <t>Sử dụng phân trang để xem các kết quả Journals tiếp theo</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Tổng số kết quả lớn hơn số lượng kết quả trên một trang.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị các journal của trang tiếp theo. URL có thể thay đổi tham số trang.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_007_PhanTrang</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_008</t>
+  </si>
+  <si>
+    <t>Hiển thị các tùy chọn tìm kiếm Journals nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Hide advanced search options' hiển thị các trường lọc bổ sung.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang bị ẩn (chữ 'Hide advanced search options' được hiển thị).</t>
+  </si>
+  <si>
+    <t>Các trường 'Subject Areas', 'Quartile', 'ISSN', 'Open Access Types', 'Publisher', 'Language', 'Metrics' xuất hiện dưới thanh tìm kiếm chính. Liên kết đổi thành 'Hide advanced search options'.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_008_HienTimKiemNangCao</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_009</t>
+  </si>
+  <si>
+    <t>Ẩn các tùy chọn tìm kiếm Journals nâng cao</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị (chữ 'Hide advanced search options' được hiển thị).</t>
+  </si>
+  <si>
+    <t>Các trường 'Subject Areas', 'Quartile', 'ISSN', 'Open Access Types', 'Publisher', 'Language', 'Metrics' bị ẩn. Liên kết đổi thành 'Show advanced search options'.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_009_AnTimKiemNangCao</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_010</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo ISSN nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo ISSN trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhập một ISSN hợp lệ (ví dụ: '20349130') vào trường 'ISSN'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có ISSN tương ứng (ví dụ: Results (1)). Bộ lọc 'ISSN: 20349130' xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_010_TimTheoISSN</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_011</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Rank (Quartile) nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Quartile trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>1. Chọn một Quartile (ví dụ: 'Q1') từ dropdown 'Quartile'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Quartile tương ứng. Bộ lọc 'Quartile: Q1' xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_011_TimTheoQuartile</t>
+  </si>
+  <si>
+    <t>TC_JournalDetail_001</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết Journal</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang chi tiết hiển thị đầy đủ các thông tin chính của journal.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chi tiết của một journal cụ thể (URL: /journals/detail?id=...). Ví dụ: Journal '@GRH'.</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang chi tiết journal.
+2. Quan sát các thông tin hiển thị.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị các thông tin như Tiêu đề (@GRH), ISSN, Overall Rank, Impact Factor, H-index, SJR, Best Quartile, Coverage History, Publisher, Country, Areas, và các tab (Overview, Impact Factor,...).</t>
+  </si>
+  <si>
+    <t>YC_CTJ_001_HienThiThongTin</t>
+  </si>
+  <si>
+    <t>TC_JournalDetail_002</t>
+  </si>
+  <si>
+    <t>Chuyển đổi giữa các tab thông tin Journal</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chi tiết của một journal có nhiều tab thông tin.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào tab 'Impact Factor'.
+2. Quan sát nội dung bên dưới các tab.
+3. Nhấp vào tab 'SJR'.
+4. Quan sát nội dung bên dưới các tab.</t>
+  </si>
+  <si>
+    <t>YC_CTJ_002_ChuyenTab</t>
+  </si>
+  <si>
+    <t>TC_JournalDetail_003</t>
+  </si>
+  <si>
+    <t>Sử dụng nút 'Follow' Journal</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng 'Follow' journal.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập.
+Người dùng đang ở trang chi tiết của một journal.
+Journal hiện tại chưa được 'Follow'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Follow'.</t>
+  </si>
+  <si>
+    <t>Nút 'Follow' thay đổi trạng thái/màu sắc (ví dụ: thành 'Following'). Hệ thống hiển thị thông báo xác nhận.</t>
+  </si>
+  <si>
+    <t>YC_CTJ_003_Follow</t>
+  </si>
+  <si>
+    <t>TC_JournalDetail_004</t>
+  </si>
+  <si>
+    <t>Sử dụng nút 'Unfollow' Journal</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng 'Unfollow' journal.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập.
+Người dùng đang ở trang chi tiết của một journal.
+Journal hiện tại đang được 'Follow'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Follow' (đang ở trạng thái 'Following').</t>
+  </si>
+  <si>
+    <t>Nút 'Follow' thay đổi trạng thái/màu sắc trở lại ban đầu. Hệ thống có thể hiển thị thông báo xác nhận.</t>
+  </si>
+  <si>
+    <t>YC_CTJ_004_Unfollow</t>
+  </si>
+  <si>
+    <t>TC_JournalDetail_005</t>
+  </si>
+  <si>
+    <t>Sử dụng nút 'Journal Website'</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút 'Journal Website' mở trang web chính thức của journal.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chi tiết của một journal.
+Journal này có thông tin URL trang web chính thức.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Journal Website'.</t>
+  </si>
+  <si>
+    <t>Hệ thống mở một tab mới trên trình duyệt, điều hướng đến URL trang web chính thức của journal.</t>
+  </si>
+  <si>
+    <t>YC_CTJ_005_Website</t>
+  </si>
+  <si>
+    <t>TC_AddConference_001</t>
+  </si>
+  <si>
+    <t>Thêm Conference thành công với dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thêm conference mới khi điền đầy đủ và hợp lệ các trường bắt buộc, thêm các thông tin phụ (ngày quan trọng, topics, URL ảnh, mô tả), xem lại và đồng ý điều khoản.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập với vai trò/quyền hạn được phép thêm conference (implied by 'Publish' button).
+Người dùng đang ở trang Add New Conference (URL: /addConference).</t>
+  </si>
+  <si>
+    <t>1. Nhập 'Conference name' hợp lệ (ví dụ: 'Hội nghị thượng đỉnh').
+2. Nhập 'Acronym' hợp lệ (ví dụ: 'HNTD').
+3. Nhập 'Link' hợp lệ (ví dụ: 'https://www.facebook.com/').
+4. Chọn 'Type' (ví dụ: 'Offline').
+5. Trong phần Location, nhập 'Address' (ví dụ: '12').
+6. Trong phần Location, chọn 'Continent' (ví dụ: 'Asia').
+7. Trong phần Location, chọn 'Country' (ví dụ: 'Vietnam').
+8. Trong phần Location, chọn 'State/Province' (ví dụ: 'Yên Bái').
+9. Trong phần Important Dates, nhập 'Name' (ví dụ: 'Conference Date').
+10. Trong phần Important Dates, chọn 'Type' (ví dụ: 'Conference Dates').
+11. Trong phần Important Dates, nhập 'Start' date (ví dụ: '04/29/2025').
+12. Trong phần Important Dates, nhập 'End' date (ví dụ: '04/30/2025').
+13. Nhấp nút 'Add Date' để thêm ngày khác (tùy chọn, nếu có).
+14. Trong phần Topics, nhập một Topic (ví dụ: 'IT').
+15. Nhấp nút 'Add' bên cạnh trường Topic.
+16. Nhập một Topic khác (ví dụ: 'AI').
+17. Nhấp nút 'Add' bên cạnh trường Topic.
+18. Nhập 'Image URL' hợp lệ (tùy chọn, nếu có).
+19. Nhập 'Description' (tùy chọn, nếu có).
+20. Nhấp nút 'Next'.
+21. Tại trang 'Review Information', kiểm tra lại các thông tin đã nhập có hiển thị đúng không.
+22. Nhấp nút 'Next'.
+23. Tại trang 'Terms and Conditions', tích chọn checkbox 'I agree to the terms and conditions'.
+24. Nhấp nút 'Add Conference'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo thêm conference thành công. Conference mới được thêm vào danh sách các conference (cần chờ duyệt). Người dùng được chuyển hướng đến trang danh sách conference.</t>
+  </si>
+  <si>
+    <t>YC_AC_001_ThemThanhCong</t>
+  </si>
+  <si>
+    <t>TC_AddConference_002</t>
+  </si>
+  <si>
+    <t>Thêm Conference thất bại khi để trống trường bắt buộc (Bước 1)</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo lỗi validation khi một trong các trường bắt buộc ở bước 1 bị bỏ trống.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Add New Conference (URL: /addConference).</t>
+  </si>
+  <si>
+    <t>1. Nhập đầy đủ các trường bắt buộc khác, nhưng để trống một trường bắt buộc (ví dụ: 'Conference name').
+2. Điền hoặc bỏ trống các trường không bắt buộc khác.
+3. Nhấp nút 'Next'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation dưới trường bắt buộc bị bỏ trống. Người dùng vẫn ở bước 1 'Add Conference'.</t>
+  </si>
+  <si>
+    <t>YC_AC_002_DeTrongBatBuoc1</t>
+  </si>
+  <si>
+    <t>TC_AddConference_003</t>
+  </si>
+  <si>
+    <t>Thêm Conference thất bại với dữ liệu không hợp lệ (Ví dụ: Link)</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo lỗi validation khi nhập dữ liệu không đúng định dạng yêu cầu.</t>
+  </si>
+  <si>
+    <t>1. Nhập đầy đủ các trường bắt buộc khác với dữ liệu hợp lệ.
+2. Nhập dữ liệu không hợp lệ vào trường 'Link' (ví dụ: 'daykhongphailaurl').
+3. Điền hoặc bỏ trống các trường còn lại.
+4. Nhấp nút 'Next'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation dưới trường 'Link' (ví dụ: 'Invalid URL format'). Người dùng vẫn ở bước 1 'Add Conference'.</t>
+  </si>
+  <si>
+    <t>YC_AC_003_SaiDinhDangLink</t>
+  </si>
+  <si>
+    <t>TC_AddConference_004</t>
+  </si>
+  <si>
+    <t>Thêm Important Date thất bại với ngày không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo lỗi validation khi nhập ngày không đúng định dạng hoặc logic (ví dụ: End date trước Start date).</t>
+  </si>
+  <si>
+    <t>1. Trong phần Important Dates, nhập 'Name' và chọn 'Type'.
+2. Nhập ngày 'Start' sau ngày 'End' (ví dụ: Start: 04/30/2025, End: 04/29/2025).
+3. Nhấp nút 'Add Date'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation liên quan đến ngày. Date entry không được thêm vào danh sách.</t>
+  </si>
+  <si>
+    <t>YC_AC_004_NgayKhongHopLe</t>
+  </si>
+  <si>
+    <t>TC_AddConference_005</t>
+  </si>
+  <si>
+    <t>Thêm Topic thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thêm topic vào danh sách.</t>
+  </si>
+  <si>
+    <t>1. Trong phần Topics, nhập một từ khóa vào trường 'Add a topic'.
+2. Nhấp nút 'Add'.</t>
+  </si>
+  <si>
+    <t>Từ khóa đã nhập xuất hiện dưới dạng một thẻ (tag/chip) bên dưới trường nhập liệu Topics. Trường nhập liệu Topics được làm trống.</t>
+  </si>
+  <si>
+    <t>YC_AC_005_ThemTopic</t>
+  </si>
+  <si>
+    <t>TC_AddConference_006</t>
+  </si>
+  <si>
+    <t>Xóa Topic đã thêm</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể xóa topic đã thêm.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Add New Conference (URL: /addConference).
+Đã có ít nhất một topic được thêm.</t>
+  </si>
+  <si>
+    <t>1. Thêm một hoặc nhiều topic.
+2. Nhấp vào biểu tượng 'x' trên thẻ topic muốn xóa.</t>
+  </si>
+  <si>
+    <t>Thẻ topic đã chọn bị xóa khỏi danh sách.</t>
+  </si>
+  <si>
+    <t>YC_AC_006_XoaTopic</t>
+  </si>
+  <si>
+    <t>TC_AddConference_007</t>
+  </si>
+  <si>
+    <t>Kiểm tra sự phụ thuộc giữa Continent, Country, State/Province</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách Country phụ thuộc vào Continent được chọn và danh sách State/Province phụ thuộc vào Country được chọn.</t>
+  </si>
+  <si>
+    <t>1. Trong phần Location, nhấp vào dropdown 'Continent'.
+2. Quan sát danh sách các châu lục.
+3. Chọn một 'Continent' (ví dụ: 'Asia').
+4. Nhấp vào dropdown 'Country'.
+5. Quan sát danh sách các quốc gia. Xác nhận danh sách chỉ bao gồm các quốc gia thuộc châu lục đã chọn.
+6. Chọn một 'Country' (ví dụ: 'Vietnam').
+7. Nhấp vào dropdown 'State/Province'.
+8. Quan sát danh sách các tỉnh/thành phố. Xác nhận danh sách chỉ bao gồm các tỉnh/thành phố của quốc gia đã chọn.</t>
+  </si>
+  <si>
+    <t>Danh sách các quốc gia trong dropdown 'Country' thay đổi sau khi chọn 'Continent'. Danh sách các tỉnh/thành phố trong dropdown 'State/Province' thay đổi sau khi chọn 'Country'.</t>
+  </si>
+  <si>
+    <t>YC_AC_007_DependentDropdowns</t>
+  </si>
+  <si>
+    <t>TC_AddConference_008</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút 'Back' tại trang Review</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp nút 'Back' tại trang Review, người dùng quay về bước 1 với dữ liệu đã nhập còn nguyên.</t>
+  </si>
+  <si>
+    <t>Người dùng đã điền đầy đủ dữ liệu ở bước 1 và đang ở trang 'Review Information'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp nút 'Back'.</t>
+  </si>
+  <si>
+    <t>Hệ thống quay trở lại trang 'Add Conference' (Bước 1). Tất cả dữ liệu đã nhập trước đó vẫn hiển thị trong các trường.</t>
+  </si>
+  <si>
+    <t>YC_AC_008_BackTuReview</t>
+  </si>
+  <si>
+    <t>TC_AddConference_009</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút 'Back' tại trang Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấp nút 'Back' tại trang Terms and Conditions, người dùng quay về trang Review.</t>
+  </si>
+  <si>
+    <t>Người dùng đã hoàn thành bước 1, bước 2 và đang ở trang 'Terms and Conditions'.</t>
+  </si>
+  <si>
+    <t>Hệ thống quay trở lại trang 'Review Information' (Bước 2).</t>
+  </si>
+  <si>
+    <t>YC_AC_009_BackTuTerms</t>
+  </si>
+  <si>
+    <t>TC_AddConference_010</t>
+  </si>
+  <si>
+    <t>Thêm Conference thất bại khi chưa đồng ý điều khoản</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống hiển thị thông báo lỗi khi cố gắng hoàn thành quy trình mà chưa tích chọn checkbox 'I agree to the terms and conditions' ở bước cuối.</t>
+  </si>
+  <si>
+    <t>Người dùng đã hoàn thành bước 1, bước 2 và đang ở trang 'Terms and Conditions'.
+Checkbox 'I agree to the terms and conditions' chưa được tích chọn.</t>
+  </si>
+  <si>
+    <t>1. Nhấp nút 'Add Conference'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation yêu cầu tích chọn checkbox. Người dùng vẫn ở trang 'Terms and Conditions'.</t>
+  </si>
+  <si>
+    <t>YC_AC_010_ChuaDongYDieuKhoan</t>
+  </si>
+  <si>
+    <t>TC_AddConference_011</t>
+  </si>
+  <si>
+    <t>Kiểm tra dữ liệu hiển thị chính xác tại trang Review</t>
+  </si>
+  <si>
+    <t>Kiểm tra các thông tin hiển thị trên trang Review có khớp với dữ liệu đã nhập ở bước 1 hay không.</t>
+  </si>
+  <si>
+    <t>Người dùng đã điền đầy đủ dữ liệu (bao gồm cả tùy chọn) ở bước 1 và đang ở trang 'Review Information'.</t>
+  </si>
+  <si>
+    <t>1. Quan sát và so sánh tất cả các thông tin hiển thị trên trang Review (Conference name, Acronym, Link, Type, Location, Important Dates, Topics, Description) với dữ liệu đã nhập ở bước 1.</t>
+  </si>
+  <si>
+    <t>Tất cả các thông tin hiển thị trên trang Review phải chính xác và khớp với dữ liệu người dùng đã nhập/chọn ở bước 1.</t>
+  </si>
+  <si>
+    <t>YC_AC_011_ReviewDataAccuracy</t>
+  </si>
+  <si>
+    <t>TC_AddConference_012</t>
+  </si>
+  <si>
+    <t>Thêm Conference với các trường tùy chọn bị bỏ trống</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống có thể xử lý thành công việc thêm conference ngay cả khi các trường không bắt buộc (Image URL, Description) bị bỏ trống.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập với vai trò/quyền hạn được phép thêm conference.
+Người dùng đang ở trang Add New Conference (URL: /addConference).</t>
+  </si>
+  <si>
+    <t>1. Nhập đầy đủ các trường bắt buộc với dữ liệu hợp lệ.
+2. Để trống các trường tùy chọn như 'Image URL', 'Description'.
+3. Thêm ít nhất một Important Date và một Topic (hoặc bỏ trống nếu logic cho phép).
+4. Nhấp nút 'Next'.
+5. Tại trang 'Review Information', kiểm tra các trường tùy chọn bị bỏ trống có hiển thị đúng không (ví dụ: 'No description provided').
+6. Nhấp nút 'Next'.
+7. Tại trang 'Terms and Conditions', tích chọn checkbox 'I agree to the terms and conditions'.
+8. Nhấp nút 'Add Conference'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo thêm conference thành công. Conference mới được thêm vào hệ thống mà không cần các thông tin tùy chọn.</t>
+  </si>
+  <si>
+    <t>YC_AC_012_BoTrongTuyChon</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Sort_002</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả tìm kiếm Journals theo Publisher</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp kết quả theo tiêu chí 'Publisher'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Có danh sách kết quả được hiển thị.
+Tùy chọn 'Publisher' tồn tại trong dropdown 'Sort By'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort By'.
+2. Chọn tùy chọn 'Publisher'.</t>
+  </si>
+  <si>
+    <t>Danh sách các journal được sắp xếp lại theo tên Publisher (theo thứ tự bảng chữ cái A-Z hoặc Z-A).</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Sort_001</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Sort_003</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả tìm kiếm Journals theo Impact Factor</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp kết quả theo tiêu chí 'Impact Factor'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Có danh sách kết quả được hiển thị.
+Tùy chọn 'Impact Factor' tồn tại trong dropdown 'Sort By'.
+Có dữ liệu Impact Factor cho các journal.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort By'.
+2. Chọn tùy chọn 'Impact Factor'.</t>
+  </si>
+  <si>
+    <t>Danh sách các journal được sắp xếp lại theo giá trị Impact Factor.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Sort_002</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Sort_004</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả tìm kiếm Journals theo H-index</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp kết quả theo tiêu chí 'H-index'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Có danh sách kết quả được hiển thị.
+Tùy chọn 'H-index' tồn tại trong dropdown 'Sort By'.
+Có dữ liệu H-index cho các journal.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort By'.
+2. Chọn tùy chọn 'H-index'.</t>
+  </si>
+  <si>
+    <t>Danh sách các journal được sắp xếp lại theo giá trị H-index.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Sort_003</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Sort_005</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả tìm kiếm Journals theo SJR</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp kết quả theo tiêu chí 'SJR'.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Có danh sách kết quả được hiển thị.
+Tùy chọn 'SJR' tồn tại trong dropdown 'Sort By'.
+Có dữ liệu SJR cho các journal.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort By'.
+2. Chọn tùy chọn 'SJR'.</t>
+  </si>
+  <si>
+    <t>Danh sách các journal được sắp xếp lại theo giá trị SJR.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Sort_004</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_001</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Subject Areas nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Subject Areas trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal với Subject Areas mong muốn.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập hoặc chọn một Subject Area hợp lệ vào trường 'Subject Areas' (ví dụ: 'Business, Management and Accounting').
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Subject Areas tương ứng. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_001</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_002</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Open Access Types nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Open Access Types trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal với Open Access Types mong muốn.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập hoặc chọn một Open Access Type hợp lệ vào trường 'Open Access Types'.
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Open Access Types tương ứng. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_002</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_003</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Publisher nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Publisher trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal với Publisher mong muốn.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập hoặc chọn một Publisher hợp lệ vào trường 'Publisher'.
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Publisher tương ứng. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_003</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_004</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Language nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Language trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal với Language mong muốn.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Chọn một Language hợp lệ từ dropdown 'Language'.
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Language tương ứng. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_004</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_005</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Impact Factor &gt;= X nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Impact Factor lớn hơn hoặc bằng một giá trị trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal thỏa mãn điều kiện Impact Factor.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập một giá trị (ví dụ: '10') vào trường 'Impact Factor' (e.g., &gt;10).
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Impact Factor lớn hơn hoặc bằng 10 (hoặc logic tương ứng với placeholder). Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_005</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_006</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo H-index &gt;= X nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo H-index lớn hơn hoặc bằng một giá trị trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal thỏa mãn điều kiện H-index.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập một giá trị (ví dụ: '50') vào trường 'H-index' (e.g., &gt;50).
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có H-index lớn hơn hoặc bằng 50 (hoặc logic tương ứng với placeholder). Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_006</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_007</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo CiteScore &gt;= X nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo CiteScore lớn hơn hoặc bằng một giá trị trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal thỏa mãn điều kiện CiteScore.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập một giá trị (ví dụ: '5') vào trường 'CiteScore' (e.g., &gt;5).
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có CiteScore lớn hơn hoặc bằng 5 (hoặc logic tương ứng với placeholder). Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_007</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_008</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo SJR &gt;= X nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo SJR lớn hơn hoặc bằng một giá trị trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal thỏa mãn điều kiện SJR.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập một giá trị (ví dụ: '1') vào trường 'SJR' (e.g., &gt;1).
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có SJR lớn hơn hoặc bằng 1 (hoặc logic tương ứng với placeholder). Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_008</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_009</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals theo Overall Rank &lt;= X nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả theo Overall Rank nhỏ hơn hoặc bằng một giá trị trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal thỏa mãn điều kiện Overall Rank.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập một giá trị (ví dụ: '1000') vào trường 'Overall Rank' (e.g., &lt;1000).
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal có Overall Rank nhỏ hơn hoặc bằng 1000 (hoặc logic tương ứng với placeholder). Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_009</t>
+  </si>
+  <si>
+    <t>TC_JournalsSearch_Filter_010</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Journals kết hợp nhiều bộ lọc nâng cao</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý tìm kiếm khi áp dụng nhiều bộ lọc nâng cao cùng lúc.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Journals Search (URL: /journals).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị.
+Hệ thống có journal thỏa mãn TẤT CẢ các điều kiện lọc kết hợp.</t>
+  </si>
+  <si>
+    <t>1. Đảm bảo các tùy chọn tìm kiếm nâng cao đang hiển thị.
+2. Nhập từ khóa vào trường tìm kiếm chính.
+3. Nhập hoặc chọn giá trị cho ít nhất hai bộ lọc nâng cao khác nhau (ví dụ: 'Subject Areas' và 'Impact Factor').
+4. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các journal thỏa mãn TẤT CẢ các tiêu chí đã lọc. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TKJ_Filter_010</t>
+  </si>
+  <si>
+    <t>TC_Search_017</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo Khoảng ngày Submission Date (Nâng cao)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả conference theo khoảng ngày submission date trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Conferences Search (URL: /conferences).
+Các tùy chọn tìm kiếm nâng cao đang được hiển thị ('Hide advanced search options').</t>
+  </si>
+  <si>
+    <t>1. Nhập ngày bắt đầu (ví dụ: '01/01/2025') vào trường 'Submission Date'.
+2. Nhập ngày kết thúc (ví dụ: '03/31/2025') vào trường 'Submission Date'.
+3. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các conference có submission date nằm trong hoặc bằng khoảng ngày đã nhập. Bộ lọc tương ứng xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TK_017_TimTheoSubmissionDate</t>
+  </si>
+  <si>
+    <t>TC_Search_018</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo Publisher (Nâng cao)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả conference theo tên Publisher trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>1. Nhập tên Publisher hợp lệ (ví dụ: 'ACM') vào trường 'Publisher'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các conference của Publisher đã nhập. Bộ lọc 'Publisher: ACM' xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TK_018_TimTheoPublisher</t>
+  </si>
+  <si>
+    <t>TC_Search_019</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo Source (Nâng cao)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả conference theo Source trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>1. Nhập Source vào trường 'Source'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các conference có Source đã nhập. Bộ lọc tương ứng xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TK_019_TimTheoSource</t>
+  </si>
+  <si>
+    <t>TC_Search_020</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo Avg. Score (1-5) (Nâng cao)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả conference theo Avg. Score trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>1. Nhập Avg. Score hợp lệ (ví dụ: '4') vào trường 'Avg. Score (1-5)'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các conference có Avg. Score đã nhập (hoặc trong khoảng điểm nếu ô nhập hỗ trợ). Bộ lọc tương ứng xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TK_020_TimTheoAvgScore</t>
+  </si>
+  <si>
+    <t>TC_Search_021</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo Field of Research (Nâng cao)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lọc kết quả conference theo Field of Research trong tùy chọn nâng cao.</t>
+  </si>
+  <si>
+    <t>1. Nhập Field of Research (ví dụ: 'Human Computer Interaction') vào trường 'Field of Research'.
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các conference có Field of Research đã nhập. Bộ lọc tương ứng xuất hiện phía trên danh sách. Số lượng kết quả cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_TK_021_TimTheoFieldOfResearch</t>
+  </si>
+  <si>
+    <t>TC_Search_022</t>
+  </si>
+  <si>
+    <t>Tìm kiếm nâng cao với dữ liệu không hợp lệ/không tồn tại</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi nhập dữ liệu không hợp lệ hoặc không tồn tại vào các trường tìm kiếm nâng cao.</t>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu không hợp lệ vào một hoặc nhiều trường tìm kiếm nâng cao (ví dụ: Publisher không tồn tại, Avg. Score '6', định dạng ngày sai, Topic không tồn tại).
+2. Nhấp vào nút 'Search'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi validation gần các trường không hợp lệ HOẶC hiển thị thông báo 'No results found'. Danh sách kết quả trống.</t>
+  </si>
+  <si>
+    <t>YC_TK_022_TimKiemNangCaoInvalid</t>
+  </si>
+  <si>
+    <t>TC_Theme_001</t>
+  </si>
+  <si>
+    <t>Chuyển sang chế độ Dark Mode</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống chuyển sang giao diện tối khi chọn Dark Mode từ menu Theme.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở bất kỳ trang nào có hiển thị header.
+Hệ thống đang ở chế độ Light Mode hoặc chế độ mặc định.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Theme' trên header.
+2. Chọn tùy chọn 'Dark'.</t>
+  </si>
+  <si>
+    <t>Giao diện của trang hiện tại (bao gồm nền, chữ, các thành phần UI) chuyển sang tông màu tối.</t>
+  </si>
+  <si>
+    <t>YC_Theme_001_Dark</t>
+  </si>
+  <si>
+    <t>TC_Theme_002</t>
+  </si>
+  <si>
+    <t>Chuyển sang chế độ Light Mode</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống chuyển sang giao diện sáng khi chọn Light Mode từ menu Theme.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở bất kỳ trang nào có hiển thị header.
+Hệ thống đang ở chế độ Dark Mode.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Theme' trên header.
+2. Chọn tùy chọn 'Light'.</t>
+  </si>
+  <si>
+    <t>Giao diện của trang hiện tại (bao gồm nền, chữ, các thành phần UI) chuyển sang tông màu sáng.</t>
+  </si>
+  <si>
+    <t>YC_Theme_002_Light</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>26/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
   </si>
 </sst>
 </file>
@@ -2544,14 +4412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
     <col min="2" max="2" width="45.296875" customWidth="1"/>
     <col min="3" max="3" width="11.296875" customWidth="1"/>
     <col min="4" max="4" width="13.796875" customWidth="1"/>
@@ -2629,6 +4498,12 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
+      <c r="K2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2658,6 +4533,12 @@
       <c r="J3" t="s">
         <v>25</v>
       </c>
+      <c r="K3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2687,6 +4568,12 @@
       <c r="J4" t="s">
         <v>32</v>
       </c>
+      <c r="K4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2716,6 +4603,12 @@
       <c r="J5" t="s">
         <v>38</v>
       </c>
+      <c r="K5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2745,6 +4638,12 @@
       <c r="J6" t="s">
         <v>45</v>
       </c>
+      <c r="K6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2774,6 +4673,12 @@
       <c r="J7" t="s">
         <v>51</v>
       </c>
+      <c r="K7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2803,6 +4708,12 @@
       <c r="J8" t="s">
         <v>57</v>
       </c>
+      <c r="K8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2832,6 +4743,12 @@
       <c r="J9" t="s">
         <v>64</v>
       </c>
+      <c r="K9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2861,6 +4778,12 @@
       <c r="J10" t="s">
         <v>71</v>
       </c>
+      <c r="K10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2890,6 +4813,12 @@
       <c r="J11" t="s">
         <v>78</v>
       </c>
+      <c r="K11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2919,6 +4848,12 @@
       <c r="J12" t="s">
         <v>84</v>
       </c>
+      <c r="K12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2948,6 +4883,12 @@
       <c r="J13" t="s">
         <v>90</v>
       </c>
+      <c r="K13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2977,6 +4918,12 @@
       <c r="J14" t="s">
         <v>84</v>
       </c>
+      <c r="K14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3006,6 +4953,12 @@
       <c r="J15" t="s">
         <v>84</v>
       </c>
+      <c r="K15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3035,8 +4988,14 @@
       <c r="J16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -3064,8 +5023,14 @@
       <c r="J17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -3093,8 +5058,14 @@
       <c r="J18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -3122,8 +5093,14 @@
       <c r="J19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -3151,8 +5128,14 @@
       <c r="J20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -3180,8 +5163,14 @@
       <c r="J21" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -3209,8 +5198,14 @@
       <c r="J22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -3238,8 +5233,14 @@
       <c r="J23" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -3267,8 +5268,14 @@
       <c r="J24" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -3296,8 +5303,14 @@
       <c r="J25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -3325,8 +5338,14 @@
       <c r="J26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -3354,8 +5373,14 @@
       <c r="J27" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -3383,8 +5408,14 @@
       <c r="J28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -3412,8 +5443,14 @@
       <c r="J29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -3441,8 +5478,14 @@
       <c r="J30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -3470,8 +5513,14 @@
       <c r="J31" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -3499,8 +5548,14 @@
       <c r="J32" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -3528,8 +5583,14 @@
       <c r="J33" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -3557,8 +5618,14 @@
       <c r="J34" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -3586,8 +5653,14 @@
       <c r="J35" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -3615,8 +5688,14 @@
       <c r="J36" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -3644,8 +5723,14 @@
       <c r="J37" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -3673,8 +5758,14 @@
       <c r="J38" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -3702,8 +5793,14 @@
       <c r="J39" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>257</v>
       </c>
@@ -3731,8 +5828,14 @@
       <c r="J40" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>264</v>
       </c>
@@ -3760,8 +5863,14 @@
       <c r="J41" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>271</v>
       </c>
@@ -3789,8 +5898,14 @@
       <c r="J42" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -3818,8 +5933,14 @@
       <c r="J43" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>285</v>
       </c>
@@ -3847,8 +5968,14 @@
       <c r="J44" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>292</v>
       </c>
@@ -3876,8 +6003,14 @@
       <c r="J45" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -3905,8 +6038,14 @@
       <c r="J46" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>306</v>
       </c>
@@ -3934,8 +6073,14 @@
       <c r="J47" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>313</v>
       </c>
@@ -3963,8 +6108,14 @@
       <c r="J48" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -3992,8 +6143,14 @@
       <c r="J49" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -4021,8 +6178,14 @@
       <c r="J50" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>334</v>
       </c>
@@ -4050,8 +6213,14 @@
       <c r="J51" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -4079,8 +6248,14 @@
       <c r="J52" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>347</v>
       </c>
@@ -4108,8 +6283,14 @@
       <c r="J53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -4137,8 +6318,14 @@
       <c r="J54" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>361</v>
       </c>
@@ -4166,8 +6353,14 @@
       <c r="J55" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>368</v>
       </c>
@@ -4195,8 +6388,14 @@
       <c r="J56" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -4224,8 +6423,14 @@
       <c r="J57" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>278</v>
       </c>
@@ -4253,8 +6458,14 @@
       <c r="J58" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>285</v>
       </c>
@@ -4282,8 +6493,14 @@
       <c r="J59" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>388</v>
       </c>
@@ -4311,8 +6528,14 @@
       <c r="J60" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>395</v>
       </c>
@@ -4340,8 +6563,14 @@
       <c r="J61" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>402</v>
       </c>
@@ -4369,8 +6598,14 @@
       <c r="J62" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>409</v>
       </c>
@@ -4398,8 +6633,14 @@
       <c r="J63" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>415</v>
       </c>
@@ -4427,8 +6668,14 @@
       <c r="J64" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>421</v>
       </c>
@@ -4456,8 +6703,14 @@
       <c r="J65" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>427</v>
       </c>
@@ -4485,8 +6738,14 @@
       <c r="J66" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>433</v>
       </c>
@@ -4514,8 +6773,14 @@
       <c r="J67" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>439</v>
       </c>
@@ -4543,8 +6808,14 @@
       <c r="J68" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>445</v>
       </c>
@@ -4572,8 +6843,14 @@
       <c r="J69" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>451</v>
       </c>
@@ -4601,8 +6878,14 @@
       <c r="J70" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>457</v>
       </c>
@@ -4630,8 +6913,14 @@
       <c r="J71" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>464</v>
       </c>
@@ -4659,8 +6948,14 @@
       <c r="J72" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -4688,8 +6983,14 @@
       <c r="J73" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>478</v>
       </c>
@@ -4717,8 +7018,14 @@
       <c r="J74" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>485</v>
       </c>
@@ -4746,8 +7053,14 @@
       <c r="J75" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>491</v>
       </c>
@@ -4775,8 +7088,14 @@
       <c r="J76" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>498</v>
       </c>
@@ -4804,8 +7123,14 @@
       <c r="J77" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>505</v>
       </c>
@@ -4833,8 +7158,14 @@
       <c r="J78" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>511</v>
       </c>
@@ -4862,8 +7193,14 @@
       <c r="J79" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>518</v>
       </c>
@@ -4891,8 +7228,14 @@
       <c r="J80" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>524</v>
       </c>
@@ -4920,8 +7263,14 @@
       <c r="J81" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>529</v>
       </c>
@@ -4949,8 +7298,14 @@
       <c r="J82" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>536</v>
       </c>
@@ -4978,8 +7333,14 @@
       <c r="J83" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>543</v>
       </c>
@@ -5007,8 +7368,14 @@
       <c r="J84" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>549</v>
       </c>
@@ -5036,8 +7403,14 @@
       <c r="J85" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>556</v>
       </c>
@@ -5065,8 +7438,14 @@
       <c r="J86" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>563</v>
       </c>
@@ -5094,8 +7473,14 @@
       <c r="J87" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>570</v>
       </c>
@@ -5123,8 +7508,14 @@
       <c r="J88" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>577</v>
       </c>
@@ -5152,8 +7543,14 @@
       <c r="J89" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>584</v>
       </c>
@@ -5181,8 +7578,14 @@
       <c r="J90" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>591</v>
       </c>
@@ -5210,8 +7613,14 @@
       <c r="J91" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -5239,8 +7648,14 @@
       <c r="J92" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>604</v>
       </c>
@@ -5268,8 +7683,14 @@
       <c r="J93" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>611</v>
       </c>
@@ -5297,8 +7718,14 @@
       <c r="J94" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>617</v>
       </c>
@@ -5326,8 +7753,14 @@
       <c r="J95" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>624</v>
       </c>
@@ -5355,8 +7788,14 @@
       <c r="J96" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>630</v>
       </c>
@@ -5384,8 +7823,14 @@
       <c r="J97" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>636</v>
       </c>
@@ -5413,8 +7858,14 @@
       <c r="J98" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>643</v>
       </c>
@@ -5442,8 +7893,14 @@
       <c r="J99" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>649</v>
       </c>
@@ -5462,11 +7919,2960 @@
       <c r="F100" t="s">
         <v>653</v>
       </c>
+      <c r="H100" s="3" t="s">
+        <v>657</v>
+      </c>
       <c r="I100" t="s">
         <v>654</v>
       </c>
       <c r="J100" t="s">
         <v>655</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>659</v>
+      </c>
+      <c r="B101" t="s">
+        <v>660</v>
+      </c>
+      <c r="C101" t="s">
+        <v>661</v>
+      </c>
+      <c r="D101" t="s">
+        <v>662</v>
+      </c>
+      <c r="E101" t="s">
+        <v>663</v>
+      </c>
+      <c r="F101" t="s">
+        <v>664</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>665</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>666</v>
+      </c>
+      <c r="B102" t="s">
+        <v>667</v>
+      </c>
+      <c r="C102" t="s">
+        <v>668</v>
+      </c>
+      <c r="D102" t="s">
+        <v>669</v>
+      </c>
+      <c r="E102" t="s">
+        <v>670</v>
+      </c>
+      <c r="F102" t="s">
+        <v>671</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s">
+        <v>672</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>673</v>
+      </c>
+      <c r="B103" t="s">
+        <v>674</v>
+      </c>
+      <c r="C103" t="s">
+        <v>675</v>
+      </c>
+      <c r="D103" t="s">
+        <v>669</v>
+      </c>
+      <c r="E103" t="s">
+        <v>676</v>
+      </c>
+      <c r="F103" t="s">
+        <v>677</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
+        <v>678</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>679</v>
+      </c>
+      <c r="B104" t="s">
+        <v>680</v>
+      </c>
+      <c r="C104" t="s">
+        <v>681</v>
+      </c>
+      <c r="D104" t="s">
+        <v>682</v>
+      </c>
+      <c r="E104" t="s">
+        <v>683</v>
+      </c>
+      <c r="F104" t="s">
+        <v>684</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>685</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>686</v>
+      </c>
+      <c r="B105" t="s">
+        <v>687</v>
+      </c>
+      <c r="C105" t="s">
+        <v>688</v>
+      </c>
+      <c r="D105" t="s">
+        <v>682</v>
+      </c>
+      <c r="E105" t="s">
+        <v>689</v>
+      </c>
+      <c r="F105" t="s">
+        <v>690</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>691</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>692</v>
+      </c>
+      <c r="B106" t="s">
+        <v>693</v>
+      </c>
+      <c r="C106" t="s">
+        <v>694</v>
+      </c>
+      <c r="D106" t="s">
+        <v>695</v>
+      </c>
+      <c r="E106" t="s">
+        <v>696</v>
+      </c>
+      <c r="F106" t="s">
+        <v>697</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s">
+        <v>698</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>699</v>
+      </c>
+      <c r="B107" t="s">
+        <v>700</v>
+      </c>
+      <c r="C107" t="s">
+        <v>701</v>
+      </c>
+      <c r="D107" t="s">
+        <v>702</v>
+      </c>
+      <c r="E107" t="s">
+        <v>703</v>
+      </c>
+      <c r="F107" t="s">
+        <v>704</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>705</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>706</v>
+      </c>
+      <c r="B108" t="s">
+        <v>707</v>
+      </c>
+      <c r="C108" t="s">
+        <v>708</v>
+      </c>
+      <c r="D108" t="s">
+        <v>709</v>
+      </c>
+      <c r="E108" t="s">
+        <v>710</v>
+      </c>
+      <c r="F108" t="s">
+        <v>711</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I108" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108" t="s">
+        <v>712</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L108" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>713</v>
+      </c>
+      <c r="B109" t="s">
+        <v>714</v>
+      </c>
+      <c r="C109" t="s">
+        <v>715</v>
+      </c>
+      <c r="D109" t="s">
+        <v>716</v>
+      </c>
+      <c r="E109" t="s">
+        <v>717</v>
+      </c>
+      <c r="F109" t="s">
+        <v>718</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>719</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>720</v>
+      </c>
+      <c r="B110" t="s">
+        <v>721</v>
+      </c>
+      <c r="C110" t="s">
+        <v>722</v>
+      </c>
+      <c r="D110" t="s">
+        <v>669</v>
+      </c>
+      <c r="E110" t="s">
+        <v>723</v>
+      </c>
+      <c r="F110" t="s">
+        <v>724</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>725</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>726</v>
+      </c>
+      <c r="B111" t="s">
+        <v>727</v>
+      </c>
+      <c r="C111" t="s">
+        <v>728</v>
+      </c>
+      <c r="D111" t="s">
+        <v>729</v>
+      </c>
+      <c r="E111" t="s">
+        <v>730</v>
+      </c>
+      <c r="F111" t="s">
+        <v>731</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I111" t="s">
+        <v>44</v>
+      </c>
+      <c r="J111" t="s">
+        <v>732</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>733</v>
+      </c>
+      <c r="B112" t="s">
+        <v>734</v>
+      </c>
+      <c r="C112" t="s">
+        <v>735</v>
+      </c>
+      <c r="D112" t="s">
+        <v>729</v>
+      </c>
+      <c r="E112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F112" t="s">
+        <v>737</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I112" t="s">
+        <v>44</v>
+      </c>
+      <c r="J112" t="s">
+        <v>738</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>739</v>
+      </c>
+      <c r="B113" t="s">
+        <v>740</v>
+      </c>
+      <c r="C113" t="s">
+        <v>741</v>
+      </c>
+      <c r="D113" t="s">
+        <v>742</v>
+      </c>
+      <c r="E113" t="s">
+        <v>743</v>
+      </c>
+      <c r="F113" t="s">
+        <v>744</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I113" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s">
+        <v>745</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>746</v>
+      </c>
+      <c r="B114" t="s">
+        <v>747</v>
+      </c>
+      <c r="C114" t="s">
+        <v>748</v>
+      </c>
+      <c r="D114" t="s">
+        <v>749</v>
+      </c>
+      <c r="E114" t="s">
+        <v>750</v>
+      </c>
+      <c r="F114" t="s">
+        <v>751</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I114" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s">
+        <v>752</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>753</v>
+      </c>
+      <c r="B115" t="s">
+        <v>754</v>
+      </c>
+      <c r="C115" t="s">
+        <v>755</v>
+      </c>
+      <c r="D115" t="s">
+        <v>756</v>
+      </c>
+      <c r="E115" t="s">
+        <v>757</v>
+      </c>
+      <c r="F115" t="s">
+        <v>758</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I115" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>759</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>760</v>
+      </c>
+      <c r="B116" t="s">
+        <v>761</v>
+      </c>
+      <c r="C116" t="s">
+        <v>762</v>
+      </c>
+      <c r="D116" t="s">
+        <v>763</v>
+      </c>
+      <c r="E116" t="s">
+        <v>764</v>
+      </c>
+      <c r="F116" t="s">
+        <v>765</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s">
+        <v>766</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>767</v>
+      </c>
+      <c r="B117" t="s">
+        <v>768</v>
+      </c>
+      <c r="C117" t="s">
+        <v>769</v>
+      </c>
+      <c r="D117" t="s">
+        <v>770</v>
+      </c>
+      <c r="E117" t="s">
+        <v>771</v>
+      </c>
+      <c r="F117" t="s">
+        <v>772</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I117" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s">
+        <v>773</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>774</v>
+      </c>
+      <c r="B118" t="s">
+        <v>775</v>
+      </c>
+      <c r="C118" t="s">
+        <v>776</v>
+      </c>
+      <c r="D118" t="s">
+        <v>777</v>
+      </c>
+      <c r="E118" t="s">
+        <v>778</v>
+      </c>
+      <c r="F118" t="s">
+        <v>779</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I118" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s">
+        <v>780</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>781</v>
+      </c>
+      <c r="B119" t="s">
+        <v>782</v>
+      </c>
+      <c r="C119" t="s">
+        <v>783</v>
+      </c>
+      <c r="D119" t="s">
+        <v>784</v>
+      </c>
+      <c r="E119" t="s">
+        <v>785</v>
+      </c>
+      <c r="F119" t="s">
+        <v>786</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I119" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s">
+        <v>787</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>788</v>
+      </c>
+      <c r="B120" t="s">
+        <v>789</v>
+      </c>
+      <c r="C120" t="s">
+        <v>790</v>
+      </c>
+      <c r="D120" t="s">
+        <v>791</v>
+      </c>
+      <c r="E120" t="s">
+        <v>792</v>
+      </c>
+      <c r="F120" t="s">
+        <v>793</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I120" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" t="s">
+        <v>794</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>795</v>
+      </c>
+      <c r="B121" t="s">
+        <v>796</v>
+      </c>
+      <c r="C121" t="s">
+        <v>797</v>
+      </c>
+      <c r="D121" t="s">
+        <v>777</v>
+      </c>
+      <c r="E121" t="s">
+        <v>798</v>
+      </c>
+      <c r="F121" t="s">
+        <v>799</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I121" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s">
+        <v>800</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>801</v>
+      </c>
+      <c r="B122" t="s">
+        <v>802</v>
+      </c>
+      <c r="C122" t="s">
+        <v>803</v>
+      </c>
+      <c r="D122" t="s">
+        <v>804</v>
+      </c>
+      <c r="E122" t="s">
+        <v>805</v>
+      </c>
+      <c r="F122" t="s">
+        <v>806</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I122" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s">
+        <v>807</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L122" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>808</v>
+      </c>
+      <c r="B123" t="s">
+        <v>809</v>
+      </c>
+      <c r="C123" t="s">
+        <v>810</v>
+      </c>
+      <c r="D123" t="s">
+        <v>811</v>
+      </c>
+      <c r="E123" t="s">
+        <v>812</v>
+      </c>
+      <c r="F123" t="s">
+        <v>813</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I123" t="s">
+        <v>654</v>
+      </c>
+      <c r="J123" t="s">
+        <v>814</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L123" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>815</v>
+      </c>
+      <c r="B124" t="s">
+        <v>816</v>
+      </c>
+      <c r="C124" t="s">
+        <v>817</v>
+      </c>
+      <c r="D124" t="s">
+        <v>818</v>
+      </c>
+      <c r="E124" t="s">
+        <v>819</v>
+      </c>
+      <c r="F124" t="s">
+        <v>820</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s">
+        <v>821</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>822</v>
+      </c>
+      <c r="B125" t="s">
+        <v>823</v>
+      </c>
+      <c r="C125" t="s">
+        <v>824</v>
+      </c>
+      <c r="D125" t="s">
+        <v>825</v>
+      </c>
+      <c r="E125" t="s">
+        <v>826</v>
+      </c>
+      <c r="F125" t="s">
+        <v>827</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I125" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s">
+        <v>828</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>829</v>
+      </c>
+      <c r="B126" t="s">
+        <v>830</v>
+      </c>
+      <c r="C126" t="s">
+        <v>831</v>
+      </c>
+      <c r="D126" t="s">
+        <v>832</v>
+      </c>
+      <c r="E126" t="s">
+        <v>833</v>
+      </c>
+      <c r="F126" t="s">
+        <v>834</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I126" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s">
+        <v>835</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>836</v>
+      </c>
+      <c r="B127" t="s">
+        <v>837</v>
+      </c>
+      <c r="C127" t="s">
+        <v>838</v>
+      </c>
+      <c r="D127" t="s">
+        <v>832</v>
+      </c>
+      <c r="E127" t="s">
+        <v>839</v>
+      </c>
+      <c r="F127" t="s">
+        <v>840</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I127" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>841</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>842</v>
+      </c>
+      <c r="B128" t="s">
+        <v>843</v>
+      </c>
+      <c r="C128" t="s">
+        <v>844</v>
+      </c>
+      <c r="D128" t="s">
+        <v>832</v>
+      </c>
+      <c r="E128" t="s">
+        <v>845</v>
+      </c>
+      <c r="F128" t="s">
+        <v>846</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I128" t="s">
+        <v>44</v>
+      </c>
+      <c r="J128" t="s">
+        <v>847</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>848</v>
+      </c>
+      <c r="B129" t="s">
+        <v>849</v>
+      </c>
+      <c r="C129" t="s">
+        <v>850</v>
+      </c>
+      <c r="D129" t="s">
+        <v>832</v>
+      </c>
+      <c r="E129" t="s">
+        <v>851</v>
+      </c>
+      <c r="F129" t="s">
+        <v>852</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I129" t="s">
+        <v>44</v>
+      </c>
+      <c r="J129" t="s">
+        <v>853</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>854</v>
+      </c>
+      <c r="B130" t="s">
+        <v>855</v>
+      </c>
+      <c r="C130" t="s">
+        <v>856</v>
+      </c>
+      <c r="D130" t="s">
+        <v>857</v>
+      </c>
+      <c r="E130" t="s">
+        <v>858</v>
+      </c>
+      <c r="F130" t="s">
+        <v>859</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s">
+        <v>860</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>861</v>
+      </c>
+      <c r="B131" t="s">
+        <v>862</v>
+      </c>
+      <c r="C131" t="s">
+        <v>863</v>
+      </c>
+      <c r="D131" t="s">
+        <v>857</v>
+      </c>
+      <c r="E131" t="s">
+        <v>864</v>
+      </c>
+      <c r="F131" t="s">
+        <v>865</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I131" t="s">
+        <v>44</v>
+      </c>
+      <c r="J131" t="s">
+        <v>866</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>867</v>
+      </c>
+      <c r="B132" t="s">
+        <v>868</v>
+      </c>
+      <c r="C132" t="s">
+        <v>869</v>
+      </c>
+      <c r="D132" t="s">
+        <v>870</v>
+      </c>
+      <c r="E132" t="s">
+        <v>871</v>
+      </c>
+      <c r="F132" t="s">
+        <v>872</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s">
+        <v>873</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L132" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>874</v>
+      </c>
+      <c r="B133" t="s">
+        <v>875</v>
+      </c>
+      <c r="C133" t="s">
+        <v>876</v>
+      </c>
+      <c r="D133" t="s">
+        <v>857</v>
+      </c>
+      <c r="E133" t="s">
+        <v>877</v>
+      </c>
+      <c r="F133" t="s">
+        <v>878</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I133" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s">
+        <v>879</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>880</v>
+      </c>
+      <c r="B134" t="s">
+        <v>881</v>
+      </c>
+      <c r="C134" t="s">
+        <v>882</v>
+      </c>
+      <c r="D134" t="s">
+        <v>883</v>
+      </c>
+      <c r="E134" t="s">
+        <v>884</v>
+      </c>
+      <c r="F134" t="s">
+        <v>885</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I134" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s">
+        <v>886</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>887</v>
+      </c>
+      <c r="B135" t="s">
+        <v>888</v>
+      </c>
+      <c r="C135" t="s">
+        <v>889</v>
+      </c>
+      <c r="D135" t="s">
+        <v>890</v>
+      </c>
+      <c r="E135" t="s">
+        <v>891</v>
+      </c>
+      <c r="F135" t="s">
+        <v>892</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s">
+        <v>893</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>894</v>
+      </c>
+      <c r="B136" t="s">
+        <v>895</v>
+      </c>
+      <c r="C136" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" t="s">
+        <v>890</v>
+      </c>
+      <c r="E136" t="s">
+        <v>896</v>
+      </c>
+      <c r="F136" t="s">
+        <v>120</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I136" t="s">
+        <v>44</v>
+      </c>
+      <c r="J136" t="s">
+        <v>897</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>898</v>
+      </c>
+      <c r="B137" t="s">
+        <v>899</v>
+      </c>
+      <c r="C137" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137" t="s">
+        <v>900</v>
+      </c>
+      <c r="E137" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137" t="s">
+        <v>901</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I137" t="s">
+        <v>44</v>
+      </c>
+      <c r="J137" t="s">
+        <v>902</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>903</v>
+      </c>
+      <c r="B138" t="s">
+        <v>904</v>
+      </c>
+      <c r="C138" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>905</v>
+      </c>
+      <c r="E138" t="s">
+        <v>906</v>
+      </c>
+      <c r="F138" t="s">
+        <v>907</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I138" t="s">
+        <v>44</v>
+      </c>
+      <c r="J138" t="s">
+        <v>908</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>909</v>
+      </c>
+      <c r="B139" t="s">
+        <v>910</v>
+      </c>
+      <c r="C139" t="s">
+        <v>911</v>
+      </c>
+      <c r="D139" t="s">
+        <v>912</v>
+      </c>
+      <c r="E139" t="s">
+        <v>913</v>
+      </c>
+      <c r="F139" t="s">
+        <v>914</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I139" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139" t="s">
+        <v>915</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>916</v>
+      </c>
+      <c r="B140" t="s">
+        <v>917</v>
+      </c>
+      <c r="C140" t="s">
+        <v>918</v>
+      </c>
+      <c r="D140" t="s">
+        <v>919</v>
+      </c>
+      <c r="E140" t="s">
+        <v>920</v>
+      </c>
+      <c r="F140" t="s">
+        <v>921</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>922</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L140" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>923</v>
+      </c>
+      <c r="B141" t="s">
+        <v>924</v>
+      </c>
+      <c r="C141" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" t="s">
+        <v>925</v>
+      </c>
+      <c r="E141" t="s">
+        <v>182</v>
+      </c>
+      <c r="F141" t="s">
+        <v>926</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I141" t="s">
+        <v>44</v>
+      </c>
+      <c r="J141" t="s">
+        <v>927</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>928</v>
+      </c>
+      <c r="B142" t="s">
+        <v>929</v>
+      </c>
+      <c r="C142" t="s">
+        <v>930</v>
+      </c>
+      <c r="D142" t="s">
+        <v>931</v>
+      </c>
+      <c r="E142" t="s">
+        <v>196</v>
+      </c>
+      <c r="F142" t="s">
+        <v>932</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I142" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142" t="s">
+        <v>933</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>934</v>
+      </c>
+      <c r="B143" t="s">
+        <v>935</v>
+      </c>
+      <c r="C143" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" t="s">
+        <v>936</v>
+      </c>
+      <c r="E143" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" t="s">
+        <v>937</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I143" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" t="s">
+        <v>938</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>939</v>
+      </c>
+      <c r="B144" t="s">
+        <v>940</v>
+      </c>
+      <c r="C144" t="s">
+        <v>941</v>
+      </c>
+      <c r="D144" t="s">
+        <v>942</v>
+      </c>
+      <c r="E144" t="s">
+        <v>943</v>
+      </c>
+      <c r="F144" t="s">
+        <v>944</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>945</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>946</v>
+      </c>
+      <c r="B145" t="s">
+        <v>947</v>
+      </c>
+      <c r="C145" t="s">
+        <v>948</v>
+      </c>
+      <c r="D145" t="s">
+        <v>942</v>
+      </c>
+      <c r="E145" t="s">
+        <v>949</v>
+      </c>
+      <c r="F145" t="s">
+        <v>950</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I145" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s">
+        <v>951</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>952</v>
+      </c>
+      <c r="B146" t="s">
+        <v>953</v>
+      </c>
+      <c r="C146" t="s">
+        <v>954</v>
+      </c>
+      <c r="D146" t="s">
+        <v>955</v>
+      </c>
+      <c r="E146" t="s">
+        <v>956</v>
+      </c>
+      <c r="F146" t="s">
+        <v>957</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s">
+        <v>958</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>959</v>
+      </c>
+      <c r="B147" t="s">
+        <v>960</v>
+      </c>
+      <c r="C147" t="s">
+        <v>245</v>
+      </c>
+      <c r="D147" t="s">
+        <v>961</v>
+      </c>
+      <c r="E147" t="s">
+        <v>962</v>
+      </c>
+      <c r="F147" t="s">
+        <v>248</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I147" t="s">
+        <v>44</v>
+      </c>
+      <c r="J147" t="s">
+        <v>963</v>
+      </c>
+      <c r="K147" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>964</v>
+      </c>
+      <c r="B148" t="s">
+        <v>965</v>
+      </c>
+      <c r="C148" t="s">
+        <v>966</v>
+      </c>
+      <c r="D148" t="s">
+        <v>967</v>
+      </c>
+      <c r="E148" t="s">
+        <v>968</v>
+      </c>
+      <c r="F148" t="s">
+        <v>969</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s">
+        <v>970</v>
+      </c>
+      <c r="K148" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L148" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>971</v>
+      </c>
+      <c r="B149" t="s">
+        <v>972</v>
+      </c>
+      <c r="C149" t="s">
+        <v>973</v>
+      </c>
+      <c r="D149" t="s">
+        <v>974</v>
+      </c>
+      <c r="E149" t="s">
+        <v>975</v>
+      </c>
+      <c r="F149" t="s">
+        <v>976</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I149" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s">
+        <v>977</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L149" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>978</v>
+      </c>
+      <c r="B150" t="s">
+        <v>979</v>
+      </c>
+      <c r="C150" t="s">
+        <v>980</v>
+      </c>
+      <c r="D150" t="s">
+        <v>981</v>
+      </c>
+      <c r="E150" t="s">
+        <v>982</v>
+      </c>
+      <c r="F150" t="s">
+        <v>983</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I150" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s">
+        <v>984</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>985</v>
+      </c>
+      <c r="B151" t="s">
+        <v>986</v>
+      </c>
+      <c r="C151" t="s">
+        <v>987</v>
+      </c>
+      <c r="D151" t="s">
+        <v>988</v>
+      </c>
+      <c r="E151" t="s">
+        <v>989</v>
+      </c>
+      <c r="F151" t="s">
+        <v>990</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s">
+        <v>991</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L151" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>992</v>
+      </c>
+      <c r="B152" t="s">
+        <v>993</v>
+      </c>
+      <c r="C152" t="s">
+        <v>994</v>
+      </c>
+      <c r="D152" t="s">
+        <v>995</v>
+      </c>
+      <c r="E152" t="s">
+        <v>996</v>
+      </c>
+      <c r="F152" t="s">
+        <v>997</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s">
+        <v>998</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L152" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>999</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D153" t="s">
+        <v>995</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I153" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K153" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D154" t="s">
+        <v>995</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="I154" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D155" t="s">
+        <v>995</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I155" t="s">
+        <v>18</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I156" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L156" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D157" t="s">
+        <v>995</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K157" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L157" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I158" t="s">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I159" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L159" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I160" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L160" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I161" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I162" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L162" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I163" t="s">
+        <v>44</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L163" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I164" t="s">
+        <v>44</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I165" t="s">
+        <v>44</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I166" t="s">
+        <v>44</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I167" t="s">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L167" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I168" t="s">
+        <v>44</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I169" t="s">
+        <v>18</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K169" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L169" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I170" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K170" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L170" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I171" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K171" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L171" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I172" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L172" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I173" t="s">
+        <v>18</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L173" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I174" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L174" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I175" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I176" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L176" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I177" t="s">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D178" t="s">
+        <v>195</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I178" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D179" t="s">
+        <v>195</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I179" t="s">
+        <v>18</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K179" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L179" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D180" t="s">
+        <v>195</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I180" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L180" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D181" t="s">
+        <v>195</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I181" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L181" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D182" t="s">
+        <v>195</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I182" t="s">
+        <v>44</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I183" t="s">
+        <v>44</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K183" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I184" t="s">
+        <v>44</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>

--- a/src/app/__tests__/testcase.xlsx
+++ b/src/app/__tests__/testcase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1294">
   <si>
     <t>testCaseId</t>
   </si>
@@ -1258,26 +1258,6 @@
   </si>
   <si>
     <t>YC_FB_007_KhongCoReview</t>
-  </si>
-  <si>
-    <t>Một bảng/popup thông báo xuất hiện dưới biểu tượng chuông, hiển thị danh sách các thông báo gần đây.</t>
-  </si>
-  <si>
-    <t>Xem nội dung và trạng thái thông báo</t>
-  </si>
-  <si>
-    <t>Kiểm tra thông báo hiển thị đúng nội dung và trạng thái (mới/đã đọc).</t>
-  </si>
-  <si>
-    <t>Người dùng đã đăng nhập.
-Có các thông báo mới và cũ trong hệ thống.
-Bảng thông báo đang mở.</t>
-  </si>
-  <si>
-    <t>1. Quan sát danh sách thông báo trong bảng.</t>
-  </si>
-  <si>
-    <t>Các thông báo được hiển thị với nội dung phù hợp (ví dụ: 'You have added...', 'You have followed...', 'You have unfollowed...', 'You have removed...', 'You have feedback about...'). Các thông báo mới được đánh dấu (ví dụ: chữ 'NEW' hoặc màu nền khác).</t>
   </si>
   <si>
     <t>TC_Navigation_004</t>
@@ -4005,6 +3985,270 @@
   </si>
   <si>
     <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang Conference từ Header</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang Publish từ Header</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang Chatbot từ Header</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang Visualize từ Header</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang Support từ Header</t>
+  </si>
+  <si>
+    <t>TC_Navigation_006</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Conference' trên header hoạt động.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Conference' trên header.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang Conference.</t>
+  </si>
+  <si>
+    <t>TC_Navigation_007</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Publish' trên header hoạt động.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Publish' trên header.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang Publish.</t>
+  </si>
+  <si>
+    <t>TC_Navigation_008</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Chatbot' trên header hoạt động.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Chatbot' trên header.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang Chatbot.</t>
+  </si>
+  <si>
+    <t>TC_Navigation_009</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Visualize' trên header hoạt động.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Visualize' trên header.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang Visualize.</t>
+  </si>
+  <si>
+    <t>TC_Navigation_010</t>
+  </si>
+  <si>
+    <t>Kiểm tra liên kết 'Support' trên header hoạt động.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Support' trên header.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang Support.</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_015</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hội nghị theo địa điểm (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể tìm kiếm và trả lời các câu hỏi về hội nghị theo địa điểm yêu cầu.</t>
+  </si>
+  <si>
+    <t>Chatbot đang ở chế độ REGULAR CHAT và có thể truy cập/hiển thị.
+Có dữ liệu về các hội nghị và địa điểm liên quan trong hệ thống.</t>
+  </si>
+  <si>
+    <t>1. Nhập câu hỏi vào khung chat của Chatbot, ví dụ: 'list some conference in Vietnam'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot hiển thị danh sách (hoặc liên kết đến danh sách) các hội nghị liên quan đến địa điểm được hỏi (ví dụ: Vietnam), hoặc thông báo không tìm thấy nếu không có dữ liệu phù hợp.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_015_SearchLocation</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_016</t>
+  </si>
+  <si>
+    <t>Cung cấp chi tiết hội nghị cụ thể (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể cung cấp chi tiết về một hội nghị cụ thể khi được hỏi tên/mã.</t>
+  </si>
+  <si>
+    <t>Chatbot đang ở chế độ REGULAR CHAT và có thể truy cập/hiển thị.
+Hội nghị được hỏi (ví dụ: MEDES) tồn tại trong hệ thống và có thông tin chi tiết.</t>
+  </si>
+  <si>
+    <t>1. Nhập câu hỏi vào khung chat của Chatbot, ví dụ: 'can you give details of MEDES'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot cung cấp thông tin chi tiết về hội nghị được hỏi (ví dụ: tên đầy đủ, ngày, địa điểm, chủ đề tóm tắt) và cung cấp liên kết đến trang chi tiết của hội nghị đó.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_016_GetDetails</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_017</t>
+  </si>
+  <si>
+    <t>Mở bản đồ địa chỉ hội nghị (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể xử lý yêu cầu mở bản đồ địa chỉ của một hội nghị cụ thể.</t>
+  </si>
+  <si>
+    <t>Chatbot đang ở chế độ REGULAR CHAT và có thể truy cập/hiển thị.
+Hội nghị được hỏi (ví dụ: SERA) tồn tại trong hệ thống và có thông tin địa chỉ hợp lệ.</t>
+  </si>
+  <si>
+    <t>1. Nhập yêu cầu vào khung chat của Chatbot, ví dụ: 'Can you open a map showing the address of conference SERA'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot phản hồi bản đồ Google Maps với địa chỉ của hội nghị được hỏi.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_017_OpenMap</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_018</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang chi tiết hội nghị (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể chuyển hướng người dùng đến trang chi tiết của một hội nghị cụ thể.</t>
+  </si>
+  <si>
+    <t>Chatbot đang ở chế độ REGULAR CHAT và có thể truy cập/hiển thị.
+Hội nghị được hỏi (ví dụ: SERA) tồn tại trong hệ thống và có trang chi tiết.</t>
+  </si>
+  <si>
+    <t>1. Nhập yêu cầu vào khung chat của Chatbot, ví dụ: 'Can you direct me to the SERA conference details page?'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot phản hồi và mở cửa sổ chuyển hướng người dùng đến trang chính thức của hội nghị được hỏi.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_018_RedirectDetails</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_019</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng tính năng Theo dõi (Follow) (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể cung cấp hướng dẫn về cách sử dụng tính năng Theo dõi hội nghị.</t>
+  </si>
+  <si>
+    <t>Chatbot đang ở chế độ REGULAR CHAT và có thể truy cập/hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhập câu hỏi/yêu cầu vào khung chat của Chatbot, ví dụ: 'can you help me how to use follow conference feature'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot trả về hướng dẫn chi tiết (bằng văn bản, hoặc kèm hình ảnh/video nếu có) về cách người dùng có thể sử dụng tính năng Theo dõi (Follow) hội nghị trên website.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_019_Instructions</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_020</t>
+  </si>
+  <si>
+    <t>Chatbot Theo dõi hội nghị (Follow) (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể giúp người dùng Theo dõi hội nghị.</t>
+  </si>
+  <si>
+    <t>1. Nhập câu hỏi/yêu cầu vào khung chat của Chatbot, ví dụ: 'can you help me follow HNTD conference'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot trả về đã theo dõi hội nghị thành công và cung cấp thông báo xác nhận.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_020_FollowConference</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_021</t>
+  </si>
+  <si>
+    <t>Chatbot Hủy theo dõi hội nghị (UnFollow) (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có thể giúp người dùng Hủy theo dõi hội nghị.</t>
+  </si>
+  <si>
+    <t>1. Nhập câu hỏi/yêu cầu vào khung chat của Chatbot, ví dụ: 'can you help me unfollow HNTD conference'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot trả về đã hủy theo dõi hội nghị thành công và cung cấp thông báo xác nhận.</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_021_UnFollowConference</t>
+  </si>
+  <si>
+    <t>TC_Chatbot_022</t>
+  </si>
+  <si>
+    <t>Xử lý câu hỏi không rõ ràng/ngoài phạm vi (REGULAR CHAT)</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot ở chế độ REGULAR CHAT có phản hồi phù hợp khi nhận câu hỏi không rõ ràng hoặc nằm ngoài phạm vi hỗ trợ.</t>
+  </si>
+  <si>
+    <t>1. Nhập một câu hỏi không liên quan đến hội nghị hoặc khó hiểu vào khung chat, ví dụ: 'What is the weather tomorrow?' hoặc 'Tell me a joke'.
+2. Nhấp vào biểu tượng gửi tin nhắn (mũi tên).</t>
+  </si>
+  <si>
+    <t>Chatbot phản hồi rằng nó không hiểu câu hỏi hoặc câu hỏi nằm ngoài phạm vi hỗ trợ, và có thể đề xuất các chủ đề mà nó có thể giúp (ví dụ: tìm kiếm hội nghị, chi tiết hội nghị...).</t>
+  </si>
+  <si>
+    <t>YC_Chatbot_022_OutOfScope</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>YC_Nav_006_Conference</t>
+  </si>
+  <si>
+    <t>YC_Nav_007_Publish</t>
+  </si>
+  <si>
+    <t>YC_Nav_008_Chatbot</t>
+  </si>
+  <si>
+    <t>YC_Nav_009_Visualize</t>
+  </si>
+  <si>
+    <t>YC_Nav_010_Support</t>
   </si>
 </sst>
 </file>
@@ -4412,15 +4656,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="45.296875" customWidth="1"/>
     <col min="3" max="3" width="11.296875" customWidth="1"/>
     <col min="4" max="4" width="13.796875" customWidth="1"/>
@@ -4490,7 +4734,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -4499,10 +4743,10 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4525,7 +4769,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -4534,10 +4778,10 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L3" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4560,7 +4804,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -4569,10 +4813,10 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L4" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4595,7 +4839,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -4604,10 +4848,10 @@
         <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L5" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4630,7 +4874,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
@@ -4639,10 +4883,10 @@
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L6" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4665,7 +4909,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -4674,10 +4918,10 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L7" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4700,7 +4944,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -4709,10 +4953,10 @@
         <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L8" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4735,7 +4979,7 @@
         <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -4744,10 +4988,10 @@
         <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L9" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4770,7 +5014,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -4779,10 +5023,10 @@
         <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L10" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4805,7 +5049,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -4814,10 +5058,10 @@
         <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L11" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4840,7 +5084,7 @@
         <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -4849,10 +5093,10 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L12" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4875,7 +5119,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -4884,10 +5128,10 @@
         <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L13" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4910,7 +5154,7 @@
         <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -4919,10 +5163,10 @@
         <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L14" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4945,7 +5189,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -4954,5925 +5198,6310 @@
         <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L15" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L16" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L17" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L18" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>387</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>388</v>
       </c>
       <c r="K19" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L19" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>389</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>392</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>393</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>394</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>395</v>
       </c>
       <c r="K20" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L20" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>1215</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>1210</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>1216</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>1217</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>1218</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I21" t="s">
         <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>1289</v>
       </c>
       <c r="K21" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L21" t="s">
-        <v>1214</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>1219</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>1211</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>1220</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>1221</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>1222</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I22" t="s">
         <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>1290</v>
       </c>
       <c r="K22" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L22" t="s">
-        <v>1214</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>1223</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>1212</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>1224</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>1225</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>1226</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>1291</v>
       </c>
       <c r="K23" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L23" t="s">
-        <v>1214</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>1227</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>1213</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>1228</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>1229</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>1230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>1292</v>
       </c>
       <c r="K24" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L24" t="s">
-        <v>1214</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>1231</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>1214</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>1232</v>
       </c>
       <c r="D25" t="s">
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>1233</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>1234</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>1293</v>
       </c>
       <c r="K25" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L25" t="s">
-        <v>1214</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L26" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L27" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L28" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L29" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I30" t="s">
         <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L30" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="K31" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L31" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L32" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="K33" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L33" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="K34" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L34" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L35" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="K36" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L36" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="K37" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L37" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L38" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="K39" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L39" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L40" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L41" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="F42" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="K42" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L42" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="K43" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L43" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>285</v>
+        <v>1156</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>1157</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>1158</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>1159</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>1160</v>
       </c>
       <c r="F44" t="s">
-        <v>290</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>656</v>
+        <v>1161</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>1162</v>
       </c>
       <c r="K44" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L44" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>1163</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>1164</v>
       </c>
       <c r="C45" t="s">
-        <v>294</v>
+        <v>1165</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>1166</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>656</v>
+        <v>1167</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>1168</v>
       </c>
       <c r="K45" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L45" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>1169</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>1170</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
+        <v>1171</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>1172</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
+        <v>1173</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>1174</v>
       </c>
       <c r="K46" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L46" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>1175</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>1176</v>
       </c>
       <c r="C47" t="s">
-        <v>308</v>
+        <v>1177</v>
       </c>
       <c r="D47" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>310</v>
+        <v>1178</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>656</v>
+        <v>1179</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>1180</v>
       </c>
       <c r="K47" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L47" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>1181</v>
       </c>
       <c r="B48" t="s">
-        <v>314</v>
+        <v>1182</v>
       </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>1183</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>1184</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>658</v>
+        <v>1185</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>319</v>
+        <v>1186</v>
       </c>
       <c r="K48" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L48" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>1187</v>
       </c>
       <c r="B49" t="s">
-        <v>321</v>
+        <v>1188</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>1189</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>1190</v>
       </c>
       <c r="F49" t="s">
-        <v>325</v>
+        <v>1191</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>326</v>
+        <v>1192</v>
       </c>
       <c r="K49" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L49" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="E50" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="K50" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L50" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="E51" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="F51" t="s">
-        <v>339</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>657</v>
+        <v>290</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="K51" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L51" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="K52" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L52" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="F53" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="K53" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L53" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="E54" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="K54" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L54" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
-        <v>363</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="F55" t="s">
-        <v>366</v>
+        <v>241</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>367</v>
+        <v>242</v>
       </c>
       <c r="K55" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L55" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>368</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="F56" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I56" t="s">
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="K56" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L56" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>255</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I57" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="K57" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L57" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F58" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="K58" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L58" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="F59" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K59" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L59" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>390</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>393</v>
+        <v>276</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>394</v>
+        <v>277</v>
       </c>
       <c r="K60" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L60" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="F61" t="s">
-        <v>400</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>656</v>
+        <v>318</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="K61" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L61" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="K62" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L62" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="C63" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="D63" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="E63" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="F63" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="K63" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L63" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>416</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="E64" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>656</v>
+        <v>339</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="K64" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L64" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="D65" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>424</v>
+        <v>344</v>
       </c>
       <c r="F65" t="s">
-        <v>425</v>
+        <v>345</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="K65" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L65" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="B66" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="C66" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="E66" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>432</v>
+        <v>353</v>
       </c>
       <c r="K66" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L66" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>433</v>
+        <v>354</v>
       </c>
       <c r="B67" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
       <c r="C67" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="E67" t="s">
-        <v>436</v>
+        <v>358</v>
       </c>
       <c r="F67" t="s">
-        <v>437</v>
+        <v>359</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="K67" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L67" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>439</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
-        <v>440</v>
+        <v>362</v>
       </c>
       <c r="C68" t="s">
-        <v>441</v>
+        <v>363</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="E68" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="F68" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="K68" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L68" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="D69" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="F69" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I69" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="K69" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L69" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
       <c r="B70" t="s">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="C70" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="D70" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="E70" t="s">
-        <v>454</v>
+        <v>351</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I70" t="s">
         <v>380</v>
       </c>
       <c r="J70" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="K70" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L70" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="C71" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="D71" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="E71" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>462</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>657</v>
+        <v>401</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="K71" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L71" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="C72" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="F72" t="s">
-        <v>469</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>657</v>
+        <v>407</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I72" t="s">
         <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="K72" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L72" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="B73" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="E73" t="s">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="F73" t="s">
-        <v>476</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>657</v>
+        <v>413</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I73" t="s">
         <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="K73" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L73" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="E74" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="F74" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I74" t="s">
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="K74" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L74" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="B75" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="C75" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="D75" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="F75" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I75" t="s">
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="K75" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L75" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="B76" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="C76" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="D76" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="E76" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="F76" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I76" t="s">
         <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="K76" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L76" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
-        <v>500</v>
+        <v>435</v>
       </c>
       <c r="D77" t="s">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="E77" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="K77" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L77" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="C78" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="E78" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="F78" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="K78" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L78" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="C79" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="D79" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="E79" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="F79" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I79" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="J79" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="K79" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L79" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="B80" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="C80" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="D80" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="E80" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="F80" t="s">
-        <v>503</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>656</v>
+        <v>456</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="K80" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L80" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="E81" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="F81" t="s">
-        <v>527</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>656</v>
+        <v>463</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="K81" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L81" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="D82" t="s">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>533</v>
+        <v>469</v>
       </c>
       <c r="F82" t="s">
-        <v>534</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>656</v>
+        <v>470</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>535</v>
+        <v>471</v>
       </c>
       <c r="K82" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L82" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>536</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="C83" t="s">
-        <v>538</v>
+        <v>474</v>
       </c>
       <c r="D83" t="s">
-        <v>539</v>
+        <v>475</v>
       </c>
       <c r="E83" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="F83" t="s">
-        <v>541</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>657</v>
+        <v>477</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I83" t="s">
         <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>542</v>
+        <v>478</v>
       </c>
       <c r="K83" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L83" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>543</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="C84" t="s">
-        <v>545</v>
+        <v>481</v>
       </c>
       <c r="D84" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
       <c r="F84" t="s">
-        <v>547</v>
+        <v>483</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I84" t="s">
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="K84" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L84" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>549</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>486</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>552</v>
+        <v>488</v>
       </c>
       <c r="E85" t="s">
-        <v>553</v>
+        <v>489</v>
       </c>
       <c r="F85" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I85" t="s">
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>555</v>
+        <v>491</v>
       </c>
       <c r="K85" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L85" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>556</v>
+        <v>492</v>
       </c>
       <c r="B86" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="C86" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="D86" t="s">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="E86" t="s">
-        <v>560</v>
+        <v>496</v>
       </c>
       <c r="F86" t="s">
-        <v>561</v>
+        <v>497</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="K86" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L86" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
-        <v>565</v>
+        <v>501</v>
       </c>
       <c r="D87" t="s">
-        <v>566</v>
+        <v>488</v>
       </c>
       <c r="E87" t="s">
-        <v>567</v>
+        <v>502</v>
       </c>
       <c r="F87" t="s">
-        <v>568</v>
+        <v>503</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I87" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>569</v>
+        <v>504</v>
       </c>
       <c r="K87" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L87" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>570</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s">
-        <v>571</v>
+        <v>506</v>
       </c>
       <c r="C88" t="s">
-        <v>572</v>
+        <v>507</v>
       </c>
       <c r="D88" t="s">
-        <v>573</v>
+        <v>508</v>
       </c>
       <c r="E88" t="s">
-        <v>574</v>
+        <v>509</v>
       </c>
       <c r="F88" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I88" t="s">
         <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>576</v>
+        <v>511</v>
       </c>
       <c r="K88" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L88" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="C89" t="s">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="D89" t="s">
-        <v>580</v>
+        <v>515</v>
       </c>
       <c r="E89" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
       <c r="F89" t="s">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J89" t="s">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="K89" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L89" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="C90" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="D90" t="s">
-        <v>587</v>
+        <v>508</v>
       </c>
       <c r="E90" t="s">
-        <v>588</v>
+        <v>502</v>
       </c>
       <c r="F90" t="s">
-        <v>589</v>
+        <v>521</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I90" t="s">
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="K90" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L90" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="B91" t="s">
-        <v>592</v>
+        <v>524</v>
       </c>
       <c r="C91" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="D91" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="F91" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I91" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="K91" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L91" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="B92" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
       <c r="C92" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="D92" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="E92" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="F92" t="s">
-        <v>602</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>656</v>
+        <v>535</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="K92" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L92" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="C93" t="s">
-        <v>606</v>
+        <v>539</v>
       </c>
       <c r="D93" t="s">
-        <v>607</v>
+        <v>526</v>
       </c>
       <c r="E93" t="s">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="F93" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I93" t="s">
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
       <c r="K93" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L93" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
       <c r="B94" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="C94" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="D94" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="E94" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="F94" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I94" t="s">
         <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="K94" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L94" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="B95" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
       <c r="C95" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="D95" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="E95" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
       <c r="F95" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I95" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="K95" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L95" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>624</v>
+        <v>557</v>
       </c>
       <c r="B96" t="s">
-        <v>625</v>
+        <v>558</v>
       </c>
       <c r="C96" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
       <c r="D96" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="E96" t="s">
-        <v>627</v>
+        <v>561</v>
       </c>
       <c r="F96" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="K96" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L96" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
       <c r="B97" t="s">
-        <v>631</v>
+        <v>565</v>
       </c>
       <c r="C97" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
       <c r="D97" t="s">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="E97" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="F97" t="s">
-        <v>634</v>
+        <v>569</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I97" t="s">
         <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="K97" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L97" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>636</v>
+        <v>571</v>
       </c>
       <c r="B98" t="s">
-        <v>637</v>
+        <v>572</v>
       </c>
       <c r="C98" t="s">
-        <v>638</v>
+        <v>573</v>
       </c>
       <c r="D98" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="E98" t="s">
-        <v>640</v>
+        <v>575</v>
       </c>
       <c r="F98" t="s">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I98" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="K98" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L98" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="B99" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="C99" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="D99" t="s">
-        <v>639</v>
+        <v>581</v>
       </c>
       <c r="E99" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="F99" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I99" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="K99" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L99" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="B100" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="C100" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="D100" t="s">
-        <v>639</v>
+        <v>581</v>
       </c>
       <c r="E100" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="F100" t="s">
-        <v>653</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>657</v>
+        <v>589</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I100" t="s">
-        <v>654</v>
+        <v>380</v>
       </c>
       <c r="J100" t="s">
-        <v>655</v>
+        <v>590</v>
       </c>
       <c r="K100" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L100" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="B101" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="C101" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
       <c r="D101" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="E101" t="s">
-        <v>663</v>
+        <v>595</v>
       </c>
       <c r="F101" t="s">
-        <v>664</v>
+        <v>596</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="K101" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L101" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="C102" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="D102" t="s">
-        <v>669</v>
+        <v>601</v>
       </c>
       <c r="E102" t="s">
-        <v>670</v>
+        <v>602</v>
       </c>
       <c r="F102" t="s">
-        <v>671</v>
+        <v>603</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I102" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>672</v>
+        <v>604</v>
       </c>
       <c r="K102" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L102" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>673</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s">
-        <v>674</v>
+        <v>606</v>
       </c>
       <c r="C103" t="s">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="D103" t="s">
-        <v>669</v>
+        <v>601</v>
       </c>
       <c r="E103" t="s">
-        <v>676</v>
+        <v>608</v>
       </c>
       <c r="F103" t="s">
-        <v>677</v>
+        <v>609</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I103" t="s">
         <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>678</v>
+        <v>610</v>
       </c>
       <c r="K103" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L103" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>679</v>
+        <v>611</v>
       </c>
       <c r="B104" t="s">
-        <v>680</v>
+        <v>612</v>
       </c>
       <c r="C104" t="s">
-        <v>681</v>
+        <v>613</v>
       </c>
       <c r="D104" t="s">
-        <v>682</v>
+        <v>614</v>
       </c>
       <c r="E104" t="s">
-        <v>683</v>
+        <v>615</v>
       </c>
       <c r="F104" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I104" t="s">
         <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>685</v>
+        <v>617</v>
       </c>
       <c r="K104" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L104" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>686</v>
+        <v>618</v>
       </c>
       <c r="B105" t="s">
-        <v>687</v>
+        <v>619</v>
       </c>
       <c r="C105" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="D105" t="s">
-        <v>682</v>
+        <v>614</v>
       </c>
       <c r="E105" t="s">
-        <v>689</v>
+        <v>621</v>
       </c>
       <c r="F105" t="s">
-        <v>690</v>
+        <v>622</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I105" t="s">
         <v>18</v>
       </c>
       <c r="J105" t="s">
-        <v>691</v>
+        <v>623</v>
       </c>
       <c r="K105" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L105" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="B106" t="s">
-        <v>693</v>
+        <v>625</v>
       </c>
       <c r="C106" t="s">
-        <v>694</v>
+        <v>626</v>
       </c>
       <c r="D106" t="s">
-        <v>695</v>
+        <v>614</v>
       </c>
       <c r="E106" t="s">
-        <v>696</v>
+        <v>627</v>
       </c>
       <c r="F106" t="s">
-        <v>697</v>
+        <v>628</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I106" t="s">
         <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>698</v>
+        <v>629</v>
       </c>
       <c r="K106" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L106" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>699</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s">
-        <v>700</v>
+        <v>631</v>
       </c>
       <c r="C107" t="s">
-        <v>701</v>
+        <v>632</v>
       </c>
       <c r="D107" t="s">
-        <v>702</v>
+        <v>633</v>
       </c>
       <c r="E107" t="s">
-        <v>703</v>
+        <v>634</v>
       </c>
       <c r="F107" t="s">
-        <v>704</v>
+        <v>635</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I107" t="s">
         <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>705</v>
+        <v>636</v>
       </c>
       <c r="K107" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L107" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>706</v>
+        <v>637</v>
       </c>
       <c r="B108" t="s">
-        <v>707</v>
+        <v>638</v>
       </c>
       <c r="C108" t="s">
-        <v>708</v>
+        <v>639</v>
       </c>
       <c r="D108" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
       <c r="E108" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="F108" t="s">
-        <v>711</v>
+        <v>641</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J108" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="K108" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L108" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>713</v>
+        <v>643</v>
       </c>
       <c r="B109" t="s">
-        <v>714</v>
+        <v>644</v>
       </c>
       <c r="C109" t="s">
-        <v>715</v>
+        <v>645</v>
       </c>
       <c r="D109" t="s">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="E109" t="s">
-        <v>717</v>
+        <v>646</v>
       </c>
       <c r="F109" t="s">
-        <v>718</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I109" t="s">
-        <v>18</v>
+        <v>648</v>
       </c>
       <c r="J109" t="s">
-        <v>719</v>
+        <v>649</v>
       </c>
       <c r="K109" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L109" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
       <c r="B110" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="C110" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="D110" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E110" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
       <c r="F110" t="s">
-        <v>724</v>
+        <v>658</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I110" t="s">
         <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>725</v>
+        <v>659</v>
       </c>
       <c r="K110" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L110" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>726</v>
+        <v>660</v>
       </c>
       <c r="B111" t="s">
-        <v>727</v>
+        <v>661</v>
       </c>
       <c r="C111" t="s">
-        <v>728</v>
+        <v>662</v>
       </c>
       <c r="D111" t="s">
-        <v>729</v>
+        <v>663</v>
       </c>
       <c r="E111" t="s">
-        <v>730</v>
+        <v>664</v>
       </c>
       <c r="F111" t="s">
-        <v>731</v>
+        <v>665</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
-        <v>732</v>
+        <v>666</v>
       </c>
       <c r="K111" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L111" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="B112" t="s">
-        <v>734</v>
+        <v>668</v>
       </c>
       <c r="C112" t="s">
-        <v>735</v>
+        <v>669</v>
       </c>
       <c r="D112" t="s">
-        <v>729</v>
+        <v>663</v>
       </c>
       <c r="E112" t="s">
-        <v>736</v>
+        <v>670</v>
       </c>
       <c r="F112" t="s">
-        <v>737</v>
+        <v>671</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J112" t="s">
-        <v>738</v>
+        <v>672</v>
       </c>
       <c r="K112" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L112" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>739</v>
+        <v>673</v>
       </c>
       <c r="B113" t="s">
-        <v>740</v>
+        <v>674</v>
       </c>
       <c r="C113" t="s">
-        <v>741</v>
+        <v>675</v>
       </c>
       <c r="D113" t="s">
-        <v>742</v>
+        <v>676</v>
       </c>
       <c r="E113" t="s">
-        <v>743</v>
+        <v>677</v>
       </c>
       <c r="F113" t="s">
-        <v>744</v>
+        <v>678</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>745</v>
+        <v>679</v>
       </c>
       <c r="K113" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L113" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>746</v>
+        <v>680</v>
       </c>
       <c r="B114" t="s">
-        <v>747</v>
+        <v>681</v>
       </c>
       <c r="C114" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
       <c r="D114" t="s">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="E114" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="F114" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I114" t="s">
         <v>18</v>
       </c>
       <c r="J114" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="K114" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L114" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
       <c r="B115" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="C115" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
       <c r="D115" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
       <c r="E115" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
       <c r="F115" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I115" t="s">
         <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
       <c r="K115" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L115" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
       <c r="B116" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="C116" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="D116" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
       <c r="E116" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
       <c r="F116" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I116" t="s">
         <v>18</v>
       </c>
       <c r="J116" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="K116" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L116" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
       <c r="B117" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="C117" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="D117" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="E117" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="F117" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I117" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J117" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="K117" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L117" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
       <c r="B118" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
       <c r="C118" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="D118" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
       <c r="E118" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="F118" t="s">
-        <v>779</v>
+        <v>712</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I118" t="s">
         <v>18</v>
       </c>
       <c r="J118" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="K118" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L118" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>781</v>
+        <v>714</v>
       </c>
       <c r="B119" t="s">
-        <v>782</v>
+        <v>715</v>
       </c>
       <c r="C119" t="s">
-        <v>783</v>
+        <v>716</v>
       </c>
       <c r="D119" t="s">
-        <v>784</v>
+        <v>663</v>
       </c>
       <c r="E119" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="F119" t="s">
-        <v>786</v>
+        <v>718</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I119" t="s">
         <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>787</v>
+        <v>719</v>
       </c>
       <c r="K119" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L119" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>788</v>
+        <v>720</v>
       </c>
       <c r="B120" t="s">
-        <v>789</v>
+        <v>721</v>
       </c>
       <c r="C120" t="s">
-        <v>790</v>
+        <v>722</v>
       </c>
       <c r="D120" t="s">
-        <v>791</v>
+        <v>723</v>
       </c>
       <c r="E120" t="s">
-        <v>792</v>
+        <v>724</v>
       </c>
       <c r="F120" t="s">
-        <v>793</v>
+        <v>725</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I120" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J120" t="s">
-        <v>794</v>
+        <v>726</v>
       </c>
       <c r="K120" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L120" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>795</v>
+        <v>727</v>
       </c>
       <c r="B121" t="s">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="C121" t="s">
-        <v>797</v>
+        <v>729</v>
       </c>
       <c r="D121" t="s">
-        <v>777</v>
+        <v>723</v>
       </c>
       <c r="E121" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="F121" t="s">
-        <v>799</v>
+        <v>731</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I121" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>800</v>
+        <v>732</v>
       </c>
       <c r="K121" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L121" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>801</v>
+        <v>733</v>
       </c>
       <c r="B122" t="s">
-        <v>802</v>
+        <v>734</v>
       </c>
       <c r="C122" t="s">
-        <v>803</v>
+        <v>735</v>
       </c>
       <c r="D122" t="s">
-        <v>804</v>
+        <v>736</v>
       </c>
       <c r="E122" t="s">
-        <v>805</v>
+        <v>737</v>
       </c>
       <c r="F122" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I122" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J122" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
       <c r="K122" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L122" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
       <c r="B123" t="s">
-        <v>809</v>
+        <v>741</v>
       </c>
       <c r="C123" t="s">
-        <v>810</v>
+        <v>742</v>
       </c>
       <c r="D123" t="s">
-        <v>811</v>
+        <v>743</v>
       </c>
       <c r="E123" t="s">
-        <v>812</v>
+        <v>744</v>
       </c>
       <c r="F123" t="s">
-        <v>813</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>657</v>
+        <v>745</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I123" t="s">
-        <v>654</v>
+        <v>18</v>
       </c>
       <c r="J123" t="s">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="K123" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L123" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>815</v>
+        <v>1235</v>
       </c>
       <c r="B124" t="s">
-        <v>816</v>
+        <v>1236</v>
       </c>
       <c r="C124" t="s">
-        <v>817</v>
+        <v>1237</v>
       </c>
       <c r="D124" t="s">
-        <v>818</v>
+        <v>1238</v>
       </c>
       <c r="E124" t="s">
-        <v>819</v>
+        <v>1239</v>
       </c>
       <c r="F124" t="s">
-        <v>820</v>
+        <v>1240</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I124" t="s">
         <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>821</v>
+        <v>1241</v>
       </c>
       <c r="K124" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L124" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>822</v>
+        <v>1242</v>
       </c>
       <c r="B125" t="s">
-        <v>823</v>
+        <v>1243</v>
       </c>
       <c r="C125" t="s">
-        <v>824</v>
+        <v>1244</v>
       </c>
       <c r="D125" t="s">
-        <v>825</v>
+        <v>1245</v>
       </c>
       <c r="E125" t="s">
-        <v>826</v>
+        <v>1246</v>
       </c>
       <c r="F125" t="s">
-        <v>827</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>657</v>
+        <v>1247</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I125" t="s">
         <v>18</v>
       </c>
       <c r="J125" t="s">
-        <v>828</v>
+        <v>1248</v>
       </c>
       <c r="K125" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L125" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>829</v>
+        <v>1249</v>
       </c>
       <c r="B126" t="s">
-        <v>830</v>
+        <v>1250</v>
       </c>
       <c r="C126" t="s">
-        <v>831</v>
+        <v>1251</v>
       </c>
       <c r="D126" t="s">
-        <v>832</v>
+        <v>1252</v>
       </c>
       <c r="E126" t="s">
-        <v>833</v>
+        <v>1253</v>
       </c>
       <c r="F126" t="s">
-        <v>834</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>657</v>
+        <v>1254</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I126" t="s">
         <v>18</v>
       </c>
       <c r="J126" t="s">
-        <v>835</v>
+        <v>1255</v>
       </c>
       <c r="K126" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L126" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>836</v>
+        <v>1256</v>
       </c>
       <c r="B127" t="s">
-        <v>837</v>
+        <v>1257</v>
       </c>
       <c r="C127" t="s">
-        <v>838</v>
+        <v>1258</v>
       </c>
       <c r="D127" t="s">
-        <v>832</v>
+        <v>1259</v>
       </c>
       <c r="E127" t="s">
-        <v>839</v>
+        <v>1260</v>
       </c>
       <c r="F127" t="s">
-        <v>840</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>657</v>
+        <v>1261</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I127" t="s">
         <v>18</v>
       </c>
       <c r="J127" t="s">
-        <v>841</v>
+        <v>1262</v>
       </c>
       <c r="K127" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L127" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>842</v>
+        <v>1263</v>
       </c>
       <c r="B128" t="s">
-        <v>843</v>
+        <v>1264</v>
       </c>
       <c r="C128" t="s">
-        <v>844</v>
+        <v>1265</v>
       </c>
       <c r="D128" t="s">
-        <v>832</v>
+        <v>1266</v>
       </c>
       <c r="E128" t="s">
-        <v>845</v>
+        <v>1267</v>
       </c>
       <c r="F128" t="s">
-        <v>846</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>657</v>
+        <v>1268</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I128" t="s">
         <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>847</v>
+        <v>1269</v>
       </c>
       <c r="K128" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L128" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>848</v>
+        <v>1270</v>
       </c>
       <c r="B129" t="s">
-        <v>849</v>
+        <v>1271</v>
       </c>
       <c r="C129" t="s">
-        <v>850</v>
+        <v>1272</v>
       </c>
       <c r="D129" t="s">
-        <v>832</v>
+        <v>1266</v>
       </c>
       <c r="E129" t="s">
-        <v>851</v>
+        <v>1273</v>
       </c>
       <c r="F129" t="s">
-        <v>852</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>657</v>
+        <v>1274</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I129" t="s">
         <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>853</v>
+        <v>1275</v>
       </c>
       <c r="K129" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L129" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>854</v>
+        <v>1276</v>
       </c>
       <c r="B130" t="s">
-        <v>855</v>
+        <v>1277</v>
       </c>
       <c r="C130" t="s">
-        <v>856</v>
+        <v>1278</v>
       </c>
       <c r="D130" t="s">
-        <v>857</v>
+        <v>1266</v>
       </c>
       <c r="E130" t="s">
-        <v>858</v>
+        <v>1279</v>
       </c>
       <c r="F130" t="s">
-        <v>859</v>
+        <v>1280</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I130" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>860</v>
+        <v>1281</v>
       </c>
       <c r="K130" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L130" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>861</v>
+        <v>1282</v>
       </c>
       <c r="B131" t="s">
-        <v>862</v>
+        <v>1283</v>
       </c>
       <c r="C131" t="s">
-        <v>863</v>
+        <v>1284</v>
       </c>
       <c r="D131" t="s">
-        <v>857</v>
+        <v>1266</v>
       </c>
       <c r="E131" t="s">
-        <v>864</v>
+        <v>1285</v>
       </c>
       <c r="F131" t="s">
-        <v>865</v>
+        <v>1286</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="J131" t="s">
-        <v>866</v>
+        <v>1287</v>
       </c>
       <c r="K131" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L131" t="s">
-        <v>1215</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="B132" t="s">
-        <v>868</v>
+        <v>748</v>
       </c>
       <c r="C132" t="s">
-        <v>869</v>
+        <v>749</v>
       </c>
       <c r="D132" t="s">
-        <v>870</v>
+        <v>750</v>
       </c>
       <c r="E132" t="s">
-        <v>871</v>
+        <v>751</v>
       </c>
       <c r="F132" t="s">
-        <v>872</v>
+        <v>752</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>873</v>
+        <v>753</v>
       </c>
       <c r="K132" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L132" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>874</v>
+        <v>754</v>
       </c>
       <c r="B133" t="s">
-        <v>875</v>
+        <v>755</v>
       </c>
       <c r="C133" t="s">
-        <v>876</v>
+        <v>756</v>
       </c>
       <c r="D133" t="s">
-        <v>857</v>
+        <v>757</v>
       </c>
       <c r="E133" t="s">
-        <v>877</v>
+        <v>758</v>
       </c>
       <c r="F133" t="s">
-        <v>878</v>
+        <v>759</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
       </c>
       <c r="J133" t="s">
-        <v>879</v>
+        <v>760</v>
       </c>
       <c r="K133" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L133" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>880</v>
+        <v>761</v>
       </c>
       <c r="B134" t="s">
-        <v>881</v>
+        <v>762</v>
       </c>
       <c r="C134" t="s">
-        <v>882</v>
+        <v>763</v>
       </c>
       <c r="D134" t="s">
-        <v>883</v>
+        <v>764</v>
       </c>
       <c r="E134" t="s">
-        <v>884</v>
+        <v>765</v>
       </c>
       <c r="F134" t="s">
-        <v>885</v>
+        <v>766</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I134" t="s">
         <v>18</v>
       </c>
       <c r="J134" t="s">
-        <v>886</v>
+        <v>767</v>
       </c>
       <c r="K134" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L134" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>887</v>
+        <v>768</v>
       </c>
       <c r="B135" t="s">
-        <v>888</v>
+        <v>769</v>
       </c>
       <c r="C135" t="s">
-        <v>889</v>
+        <v>770</v>
       </c>
       <c r="D135" t="s">
-        <v>890</v>
+        <v>771</v>
       </c>
       <c r="E135" t="s">
-        <v>891</v>
+        <v>772</v>
       </c>
       <c r="F135" t="s">
-        <v>892</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>657</v>
+        <v>773</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I135" t="s">
         <v>18</v>
       </c>
       <c r="J135" t="s">
-        <v>893</v>
+        <v>774</v>
       </c>
       <c r="K135" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L135" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>894</v>
+        <v>775</v>
       </c>
       <c r="B136" t="s">
-        <v>895</v>
+        <v>776</v>
       </c>
       <c r="C136" t="s">
-        <v>118</v>
+        <v>777</v>
       </c>
       <c r="D136" t="s">
-        <v>890</v>
+        <v>778</v>
       </c>
       <c r="E136" t="s">
-        <v>896</v>
+        <v>779</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>657</v>
+        <v>780</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J136" t="s">
-        <v>897</v>
+        <v>781</v>
       </c>
       <c r="K136" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L136" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>898</v>
+        <v>782</v>
       </c>
       <c r="B137" t="s">
-        <v>899</v>
+        <v>783</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>784</v>
       </c>
       <c r="D137" t="s">
-        <v>900</v>
+        <v>785</v>
       </c>
       <c r="E137" t="s">
-        <v>126</v>
+        <v>786</v>
       </c>
       <c r="F137" t="s">
-        <v>901</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>657</v>
+        <v>787</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J137" t="s">
-        <v>902</v>
+        <v>788</v>
       </c>
       <c r="K137" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L137" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>903</v>
+        <v>789</v>
       </c>
       <c r="B138" t="s">
-        <v>904</v>
+        <v>790</v>
       </c>
       <c r="C138" t="s">
-        <v>131</v>
+        <v>791</v>
       </c>
       <c r="D138" t="s">
-        <v>905</v>
+        <v>771</v>
       </c>
       <c r="E138" t="s">
-        <v>906</v>
+        <v>792</v>
       </c>
       <c r="F138" t="s">
-        <v>907</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>657</v>
+        <v>793</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J138" t="s">
-        <v>908</v>
+        <v>794</v>
       </c>
       <c r="K138" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L138" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>909</v>
+        <v>795</v>
       </c>
       <c r="B139" t="s">
-        <v>910</v>
+        <v>796</v>
       </c>
       <c r="C139" t="s">
-        <v>911</v>
+        <v>797</v>
       </c>
       <c r="D139" t="s">
-        <v>912</v>
+        <v>798</v>
       </c>
       <c r="E139" t="s">
-        <v>913</v>
+        <v>799</v>
       </c>
       <c r="F139" t="s">
-        <v>914</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>657</v>
+        <v>800</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J139" t="s">
-        <v>915</v>
+        <v>801</v>
       </c>
       <c r="K139" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L139" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>916</v>
+        <v>802</v>
       </c>
       <c r="B140" t="s">
-        <v>917</v>
+        <v>803</v>
       </c>
       <c r="C140" t="s">
-        <v>918</v>
+        <v>804</v>
       </c>
       <c r="D140" t="s">
-        <v>919</v>
+        <v>805</v>
       </c>
       <c r="E140" t="s">
-        <v>920</v>
+        <v>806</v>
       </c>
       <c r="F140" t="s">
-        <v>921</v>
+        <v>807</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I140" t="s">
-        <v>18</v>
+        <v>648</v>
       </c>
       <c r="J140" t="s">
-        <v>922</v>
+        <v>808</v>
       </c>
       <c r="K140" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L140" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>923</v>
+        <v>809</v>
       </c>
       <c r="B141" t="s">
-        <v>924</v>
+        <v>810</v>
       </c>
       <c r="C141" t="s">
-        <v>180</v>
+        <v>811</v>
       </c>
       <c r="D141" t="s">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="E141" t="s">
-        <v>182</v>
+        <v>813</v>
       </c>
       <c r="F141" t="s">
-        <v>926</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>657</v>
+        <v>814</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J141" t="s">
-        <v>927</v>
+        <v>815</v>
       </c>
       <c r="K141" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L141" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>928</v>
+        <v>816</v>
       </c>
       <c r="B142" t="s">
-        <v>929</v>
+        <v>817</v>
       </c>
       <c r="C142" t="s">
-        <v>930</v>
+        <v>818</v>
       </c>
       <c r="D142" t="s">
-        <v>931</v>
+        <v>819</v>
       </c>
       <c r="E142" t="s">
-        <v>196</v>
+        <v>820</v>
       </c>
       <c r="F142" t="s">
-        <v>932</v>
+        <v>821</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J142" t="s">
-        <v>933</v>
+        <v>822</v>
       </c>
       <c r="K142" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L142" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>934</v>
+        <v>823</v>
       </c>
       <c r="B143" t="s">
-        <v>935</v>
+        <v>824</v>
       </c>
       <c r="C143" t="s">
-        <v>194</v>
+        <v>825</v>
       </c>
       <c r="D143" t="s">
-        <v>936</v>
+        <v>826</v>
       </c>
       <c r="E143" t="s">
-        <v>196</v>
+        <v>827</v>
       </c>
       <c r="F143" t="s">
-        <v>937</v>
+        <v>828</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J143" t="s">
-        <v>938</v>
+        <v>829</v>
       </c>
       <c r="K143" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L143" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>939</v>
+        <v>830</v>
       </c>
       <c r="B144" t="s">
-        <v>940</v>
+        <v>831</v>
       </c>
       <c r="C144" t="s">
-        <v>941</v>
+        <v>832</v>
       </c>
       <c r="D144" t="s">
-        <v>942</v>
+        <v>826</v>
       </c>
       <c r="E144" t="s">
-        <v>943</v>
+        <v>833</v>
       </c>
       <c r="F144" t="s">
-        <v>944</v>
+        <v>834</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I144" t="s">
         <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>945</v>
+        <v>835</v>
       </c>
       <c r="K144" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L144" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>946</v>
+        <v>836</v>
       </c>
       <c r="B145" t="s">
-        <v>947</v>
+        <v>837</v>
       </c>
       <c r="C145" t="s">
-        <v>948</v>
+        <v>838</v>
       </c>
       <c r="D145" t="s">
-        <v>942</v>
+        <v>826</v>
       </c>
       <c r="E145" t="s">
-        <v>949</v>
+        <v>839</v>
       </c>
       <c r="F145" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I145" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J145" t="s">
-        <v>951</v>
+        <v>841</v>
       </c>
       <c r="K145" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L145" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>952</v>
+        <v>842</v>
       </c>
       <c r="B146" t="s">
-        <v>953</v>
+        <v>843</v>
       </c>
       <c r="C146" t="s">
-        <v>954</v>
+        <v>844</v>
       </c>
       <c r="D146" t="s">
-        <v>955</v>
+        <v>826</v>
       </c>
       <c r="E146" t="s">
-        <v>956</v>
+        <v>845</v>
       </c>
       <c r="F146" t="s">
-        <v>957</v>
+        <v>846</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I146" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J146" t="s">
-        <v>958</v>
+        <v>847</v>
       </c>
       <c r="K146" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L146" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>959</v>
+        <v>848</v>
       </c>
       <c r="B147" t="s">
-        <v>960</v>
+        <v>849</v>
       </c>
       <c r="C147" t="s">
-        <v>245</v>
+        <v>850</v>
       </c>
       <c r="D147" t="s">
-        <v>961</v>
+        <v>851</v>
       </c>
       <c r="E147" t="s">
-        <v>962</v>
+        <v>852</v>
       </c>
       <c r="F147" t="s">
-        <v>248</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>657</v>
+        <v>853</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J147" t="s">
-        <v>963</v>
+        <v>854</v>
       </c>
       <c r="K147" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L147" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>964</v>
+        <v>855</v>
       </c>
       <c r="B148" t="s">
-        <v>965</v>
+        <v>856</v>
       </c>
       <c r="C148" t="s">
-        <v>966</v>
+        <v>857</v>
       </c>
       <c r="D148" t="s">
-        <v>967</v>
+        <v>851</v>
       </c>
       <c r="E148" t="s">
-        <v>968</v>
+        <v>858</v>
       </c>
       <c r="F148" t="s">
-        <v>969</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>657</v>
+        <v>859</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I148" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J148" t="s">
-        <v>970</v>
+        <v>860</v>
       </c>
       <c r="K148" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L148" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>971</v>
+        <v>861</v>
       </c>
       <c r="B149" t="s">
-        <v>972</v>
+        <v>862</v>
       </c>
       <c r="C149" t="s">
-        <v>973</v>
+        <v>863</v>
       </c>
       <c r="D149" t="s">
-        <v>974</v>
+        <v>864</v>
       </c>
       <c r="E149" t="s">
-        <v>975</v>
+        <v>865</v>
       </c>
       <c r="F149" t="s">
-        <v>976</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>657</v>
+        <v>866</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I149" t="s">
         <v>18</v>
       </c>
       <c r="J149" t="s">
-        <v>977</v>
+        <v>867</v>
       </c>
       <c r="K149" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L149" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>978</v>
+        <v>868</v>
       </c>
       <c r="B150" t="s">
-        <v>979</v>
+        <v>869</v>
       </c>
       <c r="C150" t="s">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="D150" t="s">
-        <v>981</v>
+        <v>851</v>
       </c>
       <c r="E150" t="s">
-        <v>982</v>
+        <v>871</v>
       </c>
       <c r="F150" t="s">
-        <v>983</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>657</v>
+        <v>872</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I150" t="s">
         <v>18</v>
       </c>
       <c r="J150" t="s">
-        <v>984</v>
+        <v>873</v>
       </c>
       <c r="K150" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L150" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>985</v>
+        <v>874</v>
       </c>
       <c r="B151" t="s">
-        <v>986</v>
+        <v>875</v>
       </c>
       <c r="C151" t="s">
-        <v>987</v>
+        <v>876</v>
       </c>
       <c r="D151" t="s">
-        <v>988</v>
+        <v>877</v>
       </c>
       <c r="E151" t="s">
-        <v>989</v>
+        <v>878</v>
       </c>
       <c r="F151" t="s">
-        <v>990</v>
+        <v>879</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I151" t="s">
         <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>991</v>
+        <v>880</v>
       </c>
       <c r="K151" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L151" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>992</v>
+        <v>881</v>
       </c>
       <c r="B152" t="s">
-        <v>993</v>
+        <v>882</v>
       </c>
       <c r="C152" t="s">
-        <v>994</v>
+        <v>883</v>
       </c>
       <c r="D152" t="s">
-        <v>995</v>
+        <v>884</v>
       </c>
       <c r="E152" t="s">
-        <v>996</v>
+        <v>885</v>
       </c>
       <c r="F152" t="s">
-        <v>997</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>656</v>
+        <v>886</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
       </c>
       <c r="J152" t="s">
-        <v>998</v>
+        <v>887</v>
       </c>
       <c r="K152" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L152" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>999</v>
+        <v>888</v>
       </c>
       <c r="B153" t="s">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="C153" t="s">
-        <v>1001</v>
+        <v>118</v>
       </c>
       <c r="D153" t="s">
-        <v>995</v>
+        <v>884</v>
       </c>
       <c r="E153" t="s">
-        <v>1002</v>
+        <v>890</v>
       </c>
       <c r="F153" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>656</v>
+        <v>120</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I153" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J153" t="s">
-        <v>1004</v>
+        <v>891</v>
       </c>
       <c r="K153" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L153" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1005</v>
+        <v>892</v>
       </c>
       <c r="B154" t="s">
-        <v>1006</v>
+        <v>893</v>
       </c>
       <c r="C154" t="s">
-        <v>1007</v>
+        <v>124</v>
       </c>
       <c r="D154" t="s">
-        <v>995</v>
+        <v>894</v>
       </c>
       <c r="E154" t="s">
-        <v>1008</v>
+        <v>126</v>
       </c>
       <c r="F154" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>658</v>
+        <v>895</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I154" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J154" t="s">
-        <v>1010</v>
+        <v>896</v>
       </c>
       <c r="K154" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L154" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1011</v>
+        <v>897</v>
       </c>
       <c r="B155" t="s">
-        <v>1012</v>
+        <v>898</v>
       </c>
       <c r="C155" t="s">
-        <v>1013</v>
+        <v>131</v>
       </c>
       <c r="D155" t="s">
-        <v>995</v>
+        <v>899</v>
       </c>
       <c r="E155" t="s">
-        <v>1014</v>
+        <v>900</v>
       </c>
       <c r="F155" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>656</v>
+        <v>901</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I155" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J155" t="s">
-        <v>1016</v>
+        <v>902</v>
       </c>
       <c r="K155" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L155" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1017</v>
+        <v>903</v>
       </c>
       <c r="B156" t="s">
-        <v>1018</v>
+        <v>904</v>
       </c>
       <c r="C156" t="s">
-        <v>1019</v>
+        <v>905</v>
       </c>
       <c r="D156" t="s">
-        <v>1020</v>
+        <v>906</v>
       </c>
       <c r="E156" t="s">
-        <v>1021</v>
+        <v>907</v>
       </c>
       <c r="F156" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>656</v>
+        <v>908</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I156" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J156" t="s">
-        <v>1023</v>
+        <v>909</v>
       </c>
       <c r="K156" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L156" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1024</v>
+        <v>910</v>
       </c>
       <c r="B157" t="s">
-        <v>1025</v>
+        <v>911</v>
       </c>
       <c r="C157" t="s">
-        <v>1026</v>
+        <v>912</v>
       </c>
       <c r="D157" t="s">
-        <v>995</v>
+        <v>913</v>
       </c>
       <c r="E157" t="s">
-        <v>1027</v>
+        <v>914</v>
       </c>
       <c r="F157" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>656</v>
+        <v>915</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I157" t="s">
         <v>18</v>
       </c>
       <c r="J157" t="s">
-        <v>1029</v>
+        <v>916</v>
       </c>
       <c r="K157" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L157" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1030</v>
+        <v>917</v>
       </c>
       <c r="B158" t="s">
-        <v>1031</v>
+        <v>918</v>
       </c>
       <c r="C158" t="s">
-        <v>1032</v>
+        <v>180</v>
       </c>
       <c r="D158" t="s">
-        <v>1033</v>
+        <v>919</v>
       </c>
       <c r="E158" t="s">
-        <v>1034</v>
+        <v>182</v>
       </c>
       <c r="F158" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>656</v>
+        <v>920</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I158" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J158" t="s">
-        <v>1036</v>
+        <v>921</v>
       </c>
       <c r="K158" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L158" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1037</v>
+        <v>922</v>
       </c>
       <c r="B159" t="s">
-        <v>1038</v>
+        <v>923</v>
       </c>
       <c r="C159" t="s">
-        <v>1039</v>
+        <v>924</v>
       </c>
       <c r="D159" t="s">
-        <v>1040</v>
+        <v>925</v>
       </c>
       <c r="E159" t="s">
-        <v>1034</v>
+        <v>196</v>
       </c>
       <c r="F159" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>656</v>
+        <v>926</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I159" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J159" t="s">
-        <v>1042</v>
+        <v>927</v>
       </c>
       <c r="K159" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L159" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1043</v>
+        <v>928</v>
       </c>
       <c r="B160" t="s">
-        <v>1044</v>
+        <v>929</v>
       </c>
       <c r="C160" t="s">
-        <v>1045</v>
+        <v>194</v>
       </c>
       <c r="D160" t="s">
-        <v>1046</v>
+        <v>930</v>
       </c>
       <c r="E160" t="s">
-        <v>1047</v>
+        <v>196</v>
       </c>
       <c r="F160" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>656</v>
+        <v>931</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I160" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J160" t="s">
-        <v>1049</v>
+        <v>932</v>
       </c>
       <c r="K160" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L160" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1050</v>
+        <v>933</v>
       </c>
       <c r="B161" t="s">
-        <v>1051</v>
+        <v>934</v>
       </c>
       <c r="C161" t="s">
-        <v>1052</v>
+        <v>935</v>
       </c>
       <c r="D161" t="s">
-        <v>1053</v>
+        <v>936</v>
       </c>
       <c r="E161" t="s">
-        <v>1054</v>
+        <v>937</v>
       </c>
       <c r="F161" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>656</v>
+        <v>938</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I161" t="s">
         <v>18</v>
       </c>
       <c r="J161" t="s">
-        <v>1056</v>
+        <v>939</v>
       </c>
       <c r="K161" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L161" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1057</v>
+        <v>940</v>
       </c>
       <c r="B162" t="s">
-        <v>1058</v>
+        <v>941</v>
       </c>
       <c r="C162" t="s">
-        <v>1059</v>
+        <v>942</v>
       </c>
       <c r="D162" t="s">
-        <v>1060</v>
+        <v>936</v>
       </c>
       <c r="E162" t="s">
-        <v>1061</v>
+        <v>943</v>
       </c>
       <c r="F162" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>656</v>
+        <v>944</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I162" t="s">
         <v>18</v>
       </c>
       <c r="J162" t="s">
-        <v>1063</v>
+        <v>945</v>
       </c>
       <c r="K162" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L162" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1064</v>
+        <v>946</v>
       </c>
       <c r="B163" t="s">
-        <v>1065</v>
+        <v>947</v>
       </c>
       <c r="C163" t="s">
-        <v>1066</v>
+        <v>948</v>
       </c>
       <c r="D163" t="s">
-        <v>1067</v>
+        <v>949</v>
       </c>
       <c r="E163" t="s">
-        <v>1068</v>
+        <v>950</v>
       </c>
       <c r="F163" t="s">
-        <v>1069</v>
+        <v>951</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J163" t="s">
-        <v>1070</v>
+        <v>952</v>
       </c>
       <c r="K163" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L163" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1071</v>
+        <v>953</v>
       </c>
       <c r="B164" t="s">
-        <v>1072</v>
+        <v>954</v>
       </c>
       <c r="C164" t="s">
-        <v>1073</v>
+        <v>245</v>
       </c>
       <c r="D164" t="s">
-        <v>1074</v>
+        <v>955</v>
       </c>
       <c r="E164" t="s">
-        <v>1075</v>
+        <v>956</v>
       </c>
       <c r="F164" t="s">
-        <v>1076</v>
+        <v>248</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I164" t="s">
         <v>44</v>
       </c>
       <c r="J164" t="s">
-        <v>1077</v>
+        <v>957</v>
       </c>
       <c r="K164" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L164" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1078</v>
+        <v>958</v>
       </c>
       <c r="B165" t="s">
-        <v>1079</v>
+        <v>959</v>
       </c>
       <c r="C165" t="s">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="D165" t="s">
-        <v>1081</v>
+        <v>961</v>
       </c>
       <c r="E165" t="s">
-        <v>1082</v>
+        <v>962</v>
       </c>
       <c r="F165" t="s">
-        <v>1083</v>
+        <v>963</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J165" t="s">
-        <v>1084</v>
+        <v>964</v>
       </c>
       <c r="K165" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L165" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1085</v>
+        <v>965</v>
       </c>
       <c r="B166" t="s">
-        <v>1086</v>
+        <v>966</v>
       </c>
       <c r="C166" t="s">
-        <v>1087</v>
+        <v>967</v>
       </c>
       <c r="D166" t="s">
-        <v>1088</v>
+        <v>968</v>
       </c>
       <c r="E166" t="s">
-        <v>1089</v>
+        <v>969</v>
       </c>
       <c r="F166" t="s">
-        <v>1090</v>
+        <v>970</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I166" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>1091</v>
+        <v>971</v>
       </c>
       <c r="K166" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L166" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1092</v>
+        <v>972</v>
       </c>
       <c r="B167" t="s">
-        <v>1093</v>
+        <v>973</v>
       </c>
       <c r="C167" t="s">
-        <v>1094</v>
+        <v>974</v>
       </c>
       <c r="D167" t="s">
-        <v>1095</v>
+        <v>975</v>
       </c>
       <c r="E167" t="s">
-        <v>1096</v>
+        <v>976</v>
       </c>
       <c r="F167" t="s">
-        <v>1097</v>
+        <v>977</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I167" t="s">
         <v>18</v>
       </c>
       <c r="J167" t="s">
-        <v>1098</v>
+        <v>978</v>
       </c>
       <c r="K167" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L167" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1099</v>
+        <v>979</v>
       </c>
       <c r="B168" t="s">
-        <v>1100</v>
+        <v>980</v>
       </c>
       <c r="C168" t="s">
-        <v>1101</v>
+        <v>981</v>
       </c>
       <c r="D168" t="s">
-        <v>1102</v>
+        <v>982</v>
       </c>
       <c r="E168" t="s">
-        <v>1103</v>
+        <v>983</v>
       </c>
       <c r="F168" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>657</v>
+        <v>984</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J168" t="s">
-        <v>1105</v>
+        <v>985</v>
       </c>
       <c r="K168" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L168" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1106</v>
+        <v>986</v>
       </c>
       <c r="B169" t="s">
-        <v>1107</v>
+        <v>987</v>
       </c>
       <c r="C169" t="s">
-        <v>1108</v>
+        <v>988</v>
       </c>
       <c r="D169" t="s">
-        <v>1109</v>
+        <v>989</v>
       </c>
       <c r="E169" t="s">
-        <v>1110</v>
+        <v>990</v>
       </c>
       <c r="F169" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>657</v>
+        <v>991</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I169" t="s">
         <v>18</v>
       </c>
       <c r="J169" t="s">
-        <v>1112</v>
+        <v>992</v>
       </c>
       <c r="K169" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L169" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1113</v>
+        <v>993</v>
       </c>
       <c r="B170" t="s">
-        <v>1114</v>
+        <v>994</v>
       </c>
       <c r="C170" t="s">
-        <v>1115</v>
+        <v>995</v>
       </c>
       <c r="D170" t="s">
-        <v>1116</v>
+        <v>989</v>
       </c>
       <c r="E170" t="s">
-        <v>1117</v>
+        <v>996</v>
       </c>
       <c r="F170" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>657</v>
+        <v>997</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I170" t="s">
         <v>18</v>
       </c>
       <c r="J170" t="s">
-        <v>1119</v>
+        <v>998</v>
       </c>
       <c r="K170" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L170" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1120</v>
+        <v>999</v>
       </c>
       <c r="B171" t="s">
-        <v>1121</v>
+        <v>1000</v>
       </c>
       <c r="C171" t="s">
-        <v>1122</v>
+        <v>1001</v>
       </c>
       <c r="D171" t="s">
-        <v>1123</v>
+        <v>989</v>
       </c>
       <c r="E171" t="s">
-        <v>1124</v>
+        <v>1002</v>
       </c>
       <c r="F171" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>657</v>
+        <v>1003</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="I171" t="s">
         <v>18</v>
       </c>
       <c r="J171" t="s">
-        <v>1126</v>
+        <v>1004</v>
       </c>
       <c r="K171" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L171" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1127</v>
+        <v>1005</v>
       </c>
       <c r="B172" t="s">
-        <v>1128</v>
+        <v>1006</v>
       </c>
       <c r="C172" t="s">
-        <v>1129</v>
+        <v>1007</v>
       </c>
       <c r="D172" t="s">
-        <v>1130</v>
+        <v>989</v>
       </c>
       <c r="E172" t="s">
-        <v>1131</v>
+        <v>1008</v>
       </c>
       <c r="F172" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>657</v>
+        <v>1009</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I172" t="s">
         <v>18</v>
       </c>
       <c r="J172" t="s">
-        <v>1133</v>
+        <v>1010</v>
       </c>
       <c r="K172" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L172" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1134</v>
+        <v>1011</v>
       </c>
       <c r="B173" t="s">
-        <v>1135</v>
+        <v>1012</v>
       </c>
       <c r="C173" t="s">
-        <v>1136</v>
+        <v>1013</v>
       </c>
       <c r="D173" t="s">
-        <v>1137</v>
+        <v>1014</v>
       </c>
       <c r="E173" t="s">
-        <v>1138</v>
+        <v>1015</v>
       </c>
       <c r="F173" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>657</v>
+        <v>1016</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I173" t="s">
         <v>18</v>
       </c>
       <c r="J173" t="s">
-        <v>1140</v>
+        <v>1017</v>
       </c>
       <c r="K173" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L173" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1141</v>
+        <v>1018</v>
       </c>
       <c r="B174" t="s">
-        <v>1142</v>
+        <v>1019</v>
       </c>
       <c r="C174" t="s">
-        <v>1143</v>
+        <v>1020</v>
       </c>
       <c r="D174" t="s">
-        <v>1144</v>
+        <v>989</v>
       </c>
       <c r="E174" t="s">
-        <v>1145</v>
+        <v>1021</v>
       </c>
       <c r="F174" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>657</v>
+        <v>1022</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I174" t="s">
         <v>18</v>
       </c>
       <c r="J174" t="s">
-        <v>1147</v>
+        <v>1023</v>
       </c>
       <c r="K174" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L174" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1148</v>
+        <v>1024</v>
       </c>
       <c r="B175" t="s">
-        <v>1149</v>
+        <v>1025</v>
       </c>
       <c r="C175" t="s">
-        <v>1150</v>
+        <v>1026</v>
       </c>
       <c r="D175" t="s">
-        <v>1151</v>
+        <v>1027</v>
       </c>
       <c r="E175" t="s">
-        <v>1152</v>
+        <v>1028</v>
       </c>
       <c r="F175" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>657</v>
+        <v>1029</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I175" t="s">
         <v>18</v>
       </c>
       <c r="J175" t="s">
-        <v>1154</v>
+        <v>1030</v>
       </c>
       <c r="K175" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L175" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1155</v>
+        <v>1031</v>
       </c>
       <c r="B176" t="s">
-        <v>1156</v>
+        <v>1032</v>
       </c>
       <c r="C176" t="s">
-        <v>1157</v>
+        <v>1033</v>
       </c>
       <c r="D176" t="s">
-        <v>1158</v>
+        <v>1034</v>
       </c>
       <c r="E176" t="s">
-        <v>1159</v>
+        <v>1028</v>
       </c>
       <c r="F176" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>657</v>
+        <v>1035</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I176" t="s">
         <v>18</v>
       </c>
       <c r="J176" t="s">
-        <v>1161</v>
+        <v>1036</v>
       </c>
       <c r="K176" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L176" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1162</v>
+        <v>1037</v>
       </c>
       <c r="B177" t="s">
-        <v>1163</v>
+        <v>1038</v>
       </c>
       <c r="C177" t="s">
-        <v>1164</v>
+        <v>1039</v>
       </c>
       <c r="D177" t="s">
-        <v>1165</v>
+        <v>1040</v>
       </c>
       <c r="E177" t="s">
-        <v>1166</v>
+        <v>1041</v>
       </c>
       <c r="F177" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>657</v>
+        <v>1042</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I177" t="s">
         <v>18</v>
       </c>
       <c r="J177" t="s">
-        <v>1168</v>
+        <v>1043</v>
       </c>
       <c r="K177" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L177" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1169</v>
+        <v>1044</v>
       </c>
       <c r="B178" t="s">
-        <v>1170</v>
+        <v>1045</v>
       </c>
       <c r="C178" t="s">
-        <v>1171</v>
+        <v>1046</v>
       </c>
       <c r="D178" t="s">
-        <v>195</v>
+        <v>1047</v>
       </c>
       <c r="E178" t="s">
-        <v>1172</v>
+        <v>1048</v>
       </c>
       <c r="F178" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>657</v>
+        <v>1049</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="I178" t="s">
         <v>18</v>
       </c>
       <c r="J178" t="s">
-        <v>1174</v>
+        <v>1050</v>
       </c>
       <c r="K178" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L178" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1175</v>
+        <v>1051</v>
       </c>
       <c r="B179" t="s">
-        <v>1176</v>
+        <v>1052</v>
       </c>
       <c r="C179" t="s">
-        <v>1177</v>
+        <v>1053</v>
       </c>
       <c r="D179" t="s">
-        <v>195</v>
+        <v>1054</v>
       </c>
       <c r="E179" t="s">
-        <v>1178</v>
+        <v>1055</v>
       </c>
       <c r="F179" t="s">
-        <v>1179</v>
+        <v>1056</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I179" t="s">
         <v>18</v>
       </c>
       <c r="J179" t="s">
-        <v>1180</v>
+        <v>1057</v>
       </c>
       <c r="K179" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L179" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1181</v>
+        <v>1058</v>
       </c>
       <c r="B180" t="s">
-        <v>1182</v>
+        <v>1059</v>
       </c>
       <c r="C180" t="s">
-        <v>1183</v>
+        <v>1060</v>
       </c>
       <c r="D180" t="s">
-        <v>195</v>
+        <v>1061</v>
       </c>
       <c r="E180" t="s">
-        <v>1184</v>
+        <v>1062</v>
       </c>
       <c r="F180" t="s">
-        <v>1185</v>
+        <v>1063</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I180" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J180" t="s">
-        <v>1186</v>
+        <v>1064</v>
       </c>
       <c r="K180" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L180" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1187</v>
+        <v>1065</v>
       </c>
       <c r="B181" t="s">
-        <v>1188</v>
+        <v>1066</v>
       </c>
       <c r="C181" t="s">
-        <v>1189</v>
+        <v>1067</v>
       </c>
       <c r="D181" t="s">
-        <v>195</v>
+        <v>1068</v>
       </c>
       <c r="E181" t="s">
-        <v>1190</v>
+        <v>1069</v>
       </c>
       <c r="F181" t="s">
-        <v>1191</v>
+        <v>1070</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I181" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J181" t="s">
-        <v>1192</v>
+        <v>1071</v>
       </c>
       <c r="K181" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L181" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="B182" t="s">
-        <v>1194</v>
+        <v>1073</v>
       </c>
       <c r="C182" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="D182" t="s">
-        <v>195</v>
+        <v>1075</v>
       </c>
       <c r="E182" t="s">
-        <v>1196</v>
+        <v>1076</v>
       </c>
       <c r="F182" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>656</v>
+        <v>1077</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I182" t="s">
         <v>44</v>
       </c>
       <c r="J182" t="s">
-        <v>1198</v>
+        <v>1078</v>
       </c>
       <c r="K182" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L182" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1199</v>
+        <v>1079</v>
       </c>
       <c r="B183" t="s">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="C183" t="s">
-        <v>1201</v>
+        <v>1081</v>
       </c>
       <c r="D183" t="s">
-        <v>1202</v>
+        <v>1082</v>
       </c>
       <c r="E183" t="s">
-        <v>1203</v>
+        <v>1083</v>
       </c>
       <c r="F183" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>656</v>
+        <v>1084</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="I183" t="s">
         <v>44</v>
       </c>
       <c r="J183" t="s">
-        <v>1205</v>
+        <v>1085</v>
       </c>
       <c r="K183" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="L183" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I184" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I185" t="s">
+        <v>44</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I186" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I187" t="s">
+        <v>18</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I188" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I189" t="s">
+        <v>18</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I190" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L190" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I191" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K191" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I192" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K192" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L192" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I193" t="s">
+        <v>18</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K193" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I194" t="s">
+        <v>44</v>
+      </c>
+      <c r="J194" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I195" t="s">
+        <v>44</v>
+      </c>
+      <c r="J195" t="s">
         <v>1206</v>
       </c>
-      <c r="B184" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="K195" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L195" t="s">
         <v>1209</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I184" t="s">
-        <v>44</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K184" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L184" t="s">
-        <v>1215</v>
       </c>
     </row>
   </sheetData>

--- a/src/app/__tests__/testcase.xlsx
+++ b/src/app/__tests__/testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam4ki1\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam4ki1\DATN\confhub2-fe-client-side\src\app\__tests__\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1385">
   <si>
     <t>testCaseId</t>
   </si>
@@ -4249,6 +4249,314 @@
   </si>
   <si>
     <t>YC_Nav_010_Support</t>
+  </si>
+  <si>
+    <t>TC_Viz_001</t>
+  </si>
+  <si>
+    <t>Hiển thị biểu đồ cột (Bar Chart) với cấu hình cơ bản</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống có thể hiển thị đúng biểu đồ cột khi người dùng chọn loại biểu đồ 'Bar Chart' và cấu hình các trường dữ liệu (ví dụ: Continent và Record Count).</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Visualization (URL: /en/visualization).
+Dữ liệu về Global Conferences đã được tải và hiển thị trong mục FIELDS.
+Các trường 'Continent' (Dimension) và 'Record Count' (Measure) khả dụng.</t>
+  </si>
+  <si>
+    <t>1. Trong mục 'Configuration', nhấp vào dropdown 'Chart Type' và chọn 'Bar Chart'.
+2. Từ mục 'FIELDS' bên trái, kéo trường 'Continent' thả vào vị trí 'X-Axis (Category/Dimension)' trong 'Configuration'.
+3. Từ mục 'FIELDS' bên trái, kéo trường 'Record Count' thả vào vị trí 'Y-Axis (Value/Measure)' trong 'Configuration'.</t>
+  </si>
+  <si>
+    <t>Khu vực trung tâm hiển thị biểu đồ cột. Trục X hiển thị các châu lục (Continent). Trục Y hiển thị 'Record Count'. Các cột biểu thị số lượng bản ghi theo từng châu lục với chiều cao tương ứng (như trong ảnh chụp Bar Chart).</t>
+  </si>
+  <si>
+    <t>YC_VB_001_HienThiBieuDo
+YC_VB_002_CauHinhBieuDo</t>
+  </si>
+  <si>
+    <t>TC_Viz_002</t>
+  </si>
+  <si>
+    <t>Hiển thị biểu đồ đường (Line Chart) với cấu hình nhiều dòng</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống có thể hiển thị đúng biểu đồ đường khi người dùng chọn loại biểu đồ 'Line Chart' và cấu hình các trường dữ liệu, bao gồm cả trường cho 'Color Group' (ví dụ: Continent, Record Count, và Country).</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Visualization.
+Dữ liệu đã được tải.
+Các trường 'Continent', 'Record Count', và 'Country' khả dụng.</t>
+  </si>
+  <si>
+    <t>1. Trong mục 'Configuration', nhấp vào dropdown 'Chart Type' và chọn 'Line Chart'.
+2. Từ mục 'FIELDS', kéo trường 'Continent' thả vào vị trí 'X-Axis (Category/Dimension)'.
+3. Từ mục 'FIELDS', kéo trường 'Record Count' thả vào vị trí 'Y-Axis (Value/Measure)'.
+4. Từ mục 'FIELDS', kéo trường 'Country' thả vào vị trí 'Color Group (Dimension)'.</t>
+  </si>
+  <si>
+    <t>Khu vực trung tâm hiển thị biểu đồ đường. Trục X hiển thị các châu lục. Trục Y hiển thị 'Record Count'. Nhiều đường khác màu được vẽ trên biểu đồ, mỗi đường biểu thị 'Record Count' của một quốc gia ('Country') theo các châu lục (như trong ảnh chụp Line Chart). Legend hiển thị danh sách các quốc gia tương ứng với màu đường.</t>
+  </si>
+  <si>
+    <t>TC_Viz_003</t>
+  </si>
+  <si>
+    <t>Hiển thị biểu đồ tròn (Pie Chart) với cấu hình</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống có thể hiển thị đúng biểu đồ tròn khi người dùng chọn loại biểu đồ 'Pie Chart' và cấu hình các trường dữ liệu (ví dụ: Record Count và Country).</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Visualization.
+Dữ liệu đã được tải.
+Các trường 'Record Count' (Measure) và 'Country' (Dimension) khả dụng.</t>
+  </si>
+  <si>
+    <t>1. Trong mục 'Configuration', nhấp vào dropdown 'Chart Type' và chọn 'Pie Chart'.
+2. Từ mục 'FIELDS', kéo trường 'Record Count' thả vào vị trí 'Value (Slice Size/Measure)'.
+3. Từ mục 'FIELDS', kéo trường 'Country' thả vào vị trí 'Slices Color (Dimension)'.</t>
+  </si>
+  <si>
+    <t>Khu vực trung tâm hiển thị biểu đồ tròn (hoặc dạng donut). Các lát cắt của biểu đồ biểu thị tỷ lệ của 'Record Count' theo từng quốc gia ('Country'). Mỗi quốc gia có một màu riêng. Legend hiển thị danh sách các quốc gia và màu tương ứng (như trong ảnh chụp Pie Chart), có thể có phân trang.</t>
+  </si>
+  <si>
+    <t>TC_Viz_004</t>
+  </si>
+  <si>
+    <t>Thay đổi tiêu đề biểu đồ</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi tiêu đề của biểu đồ thông qua trường nhập liệu trong mục Chart Options.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Visualization.
+Một biểu đồ bất kỳ đã được hiển thị trong khu vực trung tâm.</t>
+  </si>
+  <si>
+    <t>1. Trong mục 'Configuration', tìm đến phần 'Chart Options'.
+2. Nhấp vào trường nhập liệu bên cạnh nhãn 'Chart Title'.
+3. Nhập một tiêu đề mới (ví dụ: 'Bieu Do Thong Ke Hoi Nghi') vào trường 'Chart Title'.</t>
+  </si>
+  <si>
+    <t>Tiêu đề hiển thị phía trên biểu đồ ở khu vực trung tâm thay đổi thành tiêu đề mới đã nhập.</t>
+  </si>
+  <si>
+    <t>YC_VB_004_TuyChinhBieuDo</t>
+  </si>
+  <si>
+    <t>TC_Viz_005</t>
+  </si>
+  <si>
+    <t>Bật/Tắt hiển thị chú thích (Legend)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể ẩn hoặc hiển thị lại chú thích (Legend) của biểu đồ bằng cách sử dụng toggle switch trong Chart Options.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Visualization.
+Một biểu đồ có hiển thị chú thích (ví dụ: Pie Chart hoặc Line Chart có 'Color Group') đã được hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Trong mục 'Configuration', tìm đến phần 'Chart Options'.
+2. Nhấp vào icon toggle switch bên cạnh nhãn 'Show Legend' để tắt chú thích.
+3. Quan sát khu vực biểu đồ.
+4. Nhấp lại vào icon toggle switch bên cạnh nhãn 'Show Legend' để bật chú thích.
+5. Quan sát khu vực biểu đồ.</t>
+  </si>
+  <si>
+    <t>Sau bước 3, chú thích (Legend) của biểu đồ biến mất khỏi màn hình. Sau bước 5, chú thích (Legend) của biểu đồ xuất hiện trở lại.</t>
+  </si>
+  <si>
+    <t>TC_Viz_006</t>
+  </si>
+  <si>
+    <t>Bật/Tắt hiển thị hộp công cụ (Toolbox)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể ẩn hoặc hiển thị lại hộp công cụ (Toolbox) của biểu đồ bằng cách sử dụng toggle switch trong Chart Options.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang Visualization.
+Một biểu đồ có hiển thị hộp công cụ đã được hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Trong mục 'Configuration', tìm đến phần 'Chart Options'.
+2. Nhấp vào icon toggle switch bên cạnh nhãn 'Show Toolbox' để tắt chú thích.
+3. Quan sát khu vực biểu đồ.
+4. Nhấp lại vào icon toggle switch bên cạnh nhãn 'Show Toolbox' để bật chú thích.
+5. Quan sát khu vực biểu đồ.</t>
+  </si>
+  <si>
+    <t>Sau bước 3, hộp công cụ (Toolbox) của biểu đồ biến mất khỏi màn hình. Sau bước 5, hộp công cụ (Toolbox) của biểu đồ xuất hiện trở lại.</t>
+  </si>
+  <si>
+    <t>TC_Chat_023</t>
+  </si>
+  <si>
+    <t>Mở bong bóng Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể mở cửa sổ Chatbot bằng cách nhấp vào biểu tượng hình tròn gốc dưới bên phải của màn hình.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chủ (Homepage).</t>
+  </si>
+  <si>
+    <t>1. nhấp vào biểu tượng hình tròn gốc dưới bên phải của màn hình.</t>
+  </si>
+  <si>
+    <t>Cửa sổ pop-up 'Chat With Us' xuất hiện ở góc dưới bên phải màn hình. Cửa sổ hiển thị lời chào và các câu hỏi gợi ý ban đầu.</t>
+  </si>
+  <si>
+    <t>YC_Chat_023_MoChatbot</t>
+  </si>
+  <si>
+    <t>TC_Chat_024</t>
+  </si>
+  <si>
+    <t>Đóng cửa sổ Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể đóng cửa sổ Chatbot bằng cách nhấp vào nút 'X' trên tiêu đề cửa sổ.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chủ.
+Cửa sổ pop-up 'Chat With Us' đang mở.</t>
+  </si>
+  <si>
+    <t>1. Trong cửa sổ 'Chat With Us', nhấp vào biểu tượng 'X' ở góc trên bên phải.</t>
+  </si>
+  <si>
+    <t>Cửa sổ pop-up 'Chat With Us' biến mất khỏi màn hình.</t>
+  </si>
+  <si>
+    <t>YC_Chat_024_DongChatbot</t>
+  </si>
+  <si>
+    <t>TC_Chat_025</t>
+  </si>
+  <si>
+    <t>Nhập và gửi tin nhắn văn bản</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể nhập văn bản vào ô nhập liệu và gửi tin nhắn đi.</t>
+  </si>
+  <si>
+    <t>1. Trong cửa sổ 'Chat With Us', nhấp vào ô nhập liệu ở dưới cùng.
+2. Nhập một câu hỏi hoặc tin nhắn bất kỳ (ví dụ: 'Tìm hội nghị về AI').
+3. Nhấp vào biểu tượng 'Gửi' (hình máy bay giấy) ở bên phải ô nhập liệu.</t>
+  </si>
+  <si>
+    <t>Tin nhắn đã nhập xuất hiện trong lịch sử trò chuyện. Trạng thái 'Processing...' có thể xuất hiện (tùy thuộc vào trạng thái kết nối của bot).</t>
+  </si>
+  <si>
+    <t>YC_Chat_025_GuiTinNhan</t>
+  </si>
+  <si>
+    <t>TC_Chat_026</t>
+  </si>
+  <si>
+    <t>Sử dụng các câu hỏi gợi ý</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể sử dụng các câu hỏi gợi ý có sẵn trong cửa sổ Chatbot.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chủ.
+Cửa sổ pop-up 'Chat With Us' đang mở và hiển thị các câu hỏi gợi ý.</t>
+  </si>
+  <si>
+    <t>1. Trong cửa sổ 'Chat With Us', nhấp vào một trong các nút chứa câu hỏi gợi ý (ví dụ: 'Tìm các hội nghị về Big Data trong năm nay.').</t>
+  </si>
+  <si>
+    <t>Văn bản của câu hỏi gợi ý được điền vào ô nhập liệu ở dưới cùng, sẵn sàng để người dùng gửi đi.</t>
+  </si>
+  <si>
+    <t>YC_Chat_026_CauHoiGoiY</t>
+  </si>
+  <si>
+    <t>TC_Chat_027</t>
+  </si>
+  <si>
+    <t>Mở bảng cài đặt Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể mở bảng cài đặt của Chatbot.</t>
+  </si>
+  <si>
+    <t>1. Trong cửa sổ 'Chat With Us', nhấp vào biểu tượng 'Cài đặt' (hình bánh răng cưa).</t>
+  </si>
+  <si>
+    <t>Bảng cài đặt 'Chat Settings' xuất hiện, che phủ phần lịch sử trò chuyện của cửa sổ Chatbot và hiển thị các tùy chọn cài đặt như Stream Response, Hide Toolbar, Hide Thought Process, Language.</t>
+  </si>
+  <si>
+    <t>YC_Chat_027_MoCaiDat</t>
+  </si>
+  <si>
+    <t>TC_Chat_028</t>
+  </si>
+  <si>
+    <t>Đóng bảng cài đặt Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể đóng bảng cài đặt của Chatbot và trở về giao diện trò chuyện.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chủ.
+Bảng cài đặt 'Chat Settings' của Chatbot đang mở.</t>
+  </si>
+  <si>
+    <t>1. Trong bảng cài đặt 'Chat Settings', nhấp vào biểu tượng 'X' ở góc trên bên phải.</t>
+  </si>
+  <si>
+    <t>Bảng cài đặt 'Chat Settings' biến mất, giao diện lịch sử trò chuyện chính của Chatbot hiển thị trở lại.</t>
+  </si>
+  <si>
+    <t>YC_Chat_028_MoCaiDat</t>
+  </si>
+  <si>
+    <t>TC_Chat_029</t>
+  </si>
+  <si>
+    <t>Thay đổi ngôn ngữ trong cài đặt</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi ngôn ngữ hiển thị của Chatbot thông qua bảng cài đặt.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở trang chủ.
+Bảng cài đặt 'Chat Settings' của Chatbot đang mở.
+Tùy chọn ngôn ngữ khác 'Tiếng Việt' có sẵn trong dropdown 'Language'.</t>
+  </si>
+  <si>
+    <t>1. Trong bảng cài đặt 'Chat Settings', nhấp vào dropdown chọn ngôn ngữ (hiện đang là 'Tiếng Việt').
+2. Chọn một ngôn ngữ khác từ danh sách (ví dụ: 'English').</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ hiển thị trong giao diện Chatbot (lời chào, câu hỏi gợi ý, nhãn cài đặt) thay đổi sang ngôn ngữ đã chọn. Dropdown 'Language' hiển thị ngôn ngữ mới được chọn.</t>
+  </si>
+  <si>
+    <t>YC_Chat_029_ThayDoiNgonNgu</t>
+  </si>
+  <si>
+    <t>TC_Chat_030</t>
+  </si>
+  <si>
+    <t>Xem trạng thái kết nối của Chatbot</t>
+  </si>
+  <si>
+    <t>Kiểm tra Chatbot hiển thị đúng trạng thái kết nối của nó.</t>
+  </si>
+  <si>
+    <t>1. Quan sát dòng chữ nhỏ phía dưới tiêu đề 'Chat With Us'.</t>
+  </si>
+  <si>
+    <t>Dòng chữ nhỏ hiển thị trạng thái kết nối hiện tại</t>
+  </si>
+  <si>
+    <t>YC_Chat_030_HienThiTrangThai</t>
   </si>
 </sst>
 </file>
@@ -4656,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L196" sqref="L196"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11504,6 +11812,412 @@
         <v>1209</v>
       </c>
     </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I196" t="s">
+        <v>18</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I197" t="s">
+        <v>44</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I198" t="s">
+        <v>44</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I199" t="s">
+        <v>380</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I200" t="s">
+        <v>380</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I201" t="s">
+        <v>380</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I202" t="s">
+        <v>18</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I203" t="s">
+        <v>18</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I204" t="s">
+        <v>44</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I205" t="s">
+        <v>44</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I206" t="s">
+        <v>380</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I207" t="s">
+        <v>380</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I208" t="s">
+        <v>44</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I209" t="s">
+        <v>380</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/app/__tests__/testcase.xlsx
+++ b/src/app/__tests__/testcase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1769">
   <si>
     <t>testCaseId</t>
   </si>
@@ -4557,6 +4557,1290 @@
   </si>
   <si>
     <t>YC_Chat_030_HienThiTrangThai</t>
+  </si>
+  <si>
+    <t>Đăng nhập thất bại với thông tin không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi người dùng nhập sai Email hoặc Mật khẩu hoặc cả hai.</t>
+  </si>
+  <si>
+    <t>1. Nhập Email không hợp lệ (ví dụ: sai định dạng, không tồn tại) hoặc Email hợp lệ nhưng Mật khẩu sai vào trường 'Email'.
+2. Nhập Mật khẩu không hợp lệ hoặc Mật khẩu sai tương ứng với Email đã nhập vào trường 'Password'.
+3. Nhấp vào nút 'Sign In'.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi xác thực. Người dùng vẫn ở trang Đăng nhập.</t>
+  </si>
+  <si>
+    <t>YC_DN_002_DangNhapSai</t>
+  </si>
+  <si>
+    <t>Truy cập trang Moderation từ Sidebar</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể điều hướng đến trang quản lý Moderation thông qua menu Sidebar.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập thành công và đang ở bất kỳ trang nào có hiển thị Sidebar menu.
+Sidebar menu 'Moderation' hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Moderation' trong Sidebar menu.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang 'Conference Listing Moderation'. Tiêu đề trang hiển thị 'Conference Listing Moderation'. URL của trang kết thúc bằng '/moderation'.</t>
+  </si>
+  <si>
+    <t>YC_DN_001_DangNhap
+YC_MOD_001_XemDS</t>
+  </si>
+  <si>
+    <t>TC_Moderation_View_001</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách hội nghị chờ duyệt (mặc định)</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang Moderation hiển thị danh sách các hội nghị cần được duyệt theo trạng thái mặc định khi truy cập.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập thành công và đang ở trang Moderation (URL: /moderation).
+Có ít nhất một hội nghị trong hệ thống.</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang Moderation.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị danh sách các hội nghị. Mặc định, bộ lọc trạng thái (Filter by Status) hiển thị 'All' hoặc 'Pending'. Các hội nghị với thông tin chi tiết (Title, URL, Status, Dates, Location, User Message) được liệt kê.</t>
+  </si>
+  <si>
+    <t>YC_MOD_001_XemDS</t>
+  </si>
+  <si>
+    <t>TC_Filter_Status_001</t>
+  </si>
+  <si>
+    <t>Lọc danh sách theo trạng thái 'Pending'</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng lọc danh sách hội nghị theo trạng thái 'Pending'.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa hội nghị ở trạng thái 'Pending'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status'.
+2. Chọn tùy chọn 'Pending'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có trạng thái là 'Pending'. Dropdown 'Filter by Status' hiển thị 'Pending'.</t>
+  </si>
+  <si>
+    <t>YC_MOD_002_LocDS</t>
+  </si>
+  <si>
+    <t>TC_Filter_Status_002</t>
+  </si>
+  <si>
+    <t>Lọc danh sách theo trạng thái 'Approved'</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng lọc danh sách hội nghị theo trạng thái 'Approved'.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa hội nghị ở trạng thái 'Approved'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status'.
+2. Chọn tùy chọn 'Approved'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có trạng thái là 'Approved'. Dropdown 'Filter by Status' hiển thị 'Approved'.</t>
+  </si>
+  <si>
+    <t>TC_Filter_Status_003</t>
+  </si>
+  <si>
+    <t>Lọc danh sách theo trạng thái 'Rejected'</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng lọc danh sách hội nghị theo trạng thái 'Rejected'.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa hội nghị ở trạng thái 'Rejected'.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status'.
+2. Chọn tùy chọn 'Rejected'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có trạng thái là 'Rejected'. Dropdown 'Filter by Status' hiển thị 'Rejected'.</t>
+  </si>
+  <si>
+    <t>TC_Filter_Status_004</t>
+  </si>
+  <si>
+    <t>Bỏ lọc trạng thái (chọn 'All')</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng bỏ lọc trạng thái bằng cách chọn 'All'.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Đang có bộ lọc trạng thái khác 'All' được áp dụng.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status'.
+2. Chọn tùy chọn 'All'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật hiển thị tất cả các hội nghị bất kể trạng thái. Dropdown 'Filter by Status' hiển thị 'All'.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hội nghị theo tiêu đề (tìm thấy)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm hội nghị theo tiêu đề khi có kết quả khớp.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa ít nhất một hội nghị có tiêu đề trùng khớp với từ khóa tìm kiếm dự kiến.</t>
+  </si>
+  <si>
+    <t>1. Nhập một phần hoặc toàn bộ tiêu đề của một hội nghị đang hiển thị vào trường 'Search by Title'.
+2. Nhấn Enter hoặc nhấp vào biểu tượng tìm kiếm (nếu có).</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có tiêu đề chứa từ khóa đã nhập. Các hội nghị không khớp sẽ bị ẩn đi.</t>
+  </si>
+  <si>
+    <t>YC_MOD_003_TimKiem</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hội nghị theo tiêu đề (không tìm thấy)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm hội nghị theo tiêu đề khi không có kết quả khớp.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.</t>
+  </si>
+  <si>
+    <t>1. Nhập một chuỗi ký tự không có trong bất kỳ tiêu đề hội nghị nào vào trường 'Search by Title'.
+2. Nhấn Enter hoặc nhấp vào biểu tượng tìm kiếm (nếu có).</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị trống rỗng hoặc hiển thị thông báo 'No results found'.</t>
+  </si>
+  <si>
+    <t>TC_Sort_001</t>
+  </si>
+  <si>
+    <t>Sắp xếp danh sách theo Tiêu đề (A-Z)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp danh sách hội nghị theo thứ tự bảng chữ cái của tiêu đề.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa nhiều hội nghị với các tiêu đề khác nhau.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort by'.
+2. Chọn tùy chọn 'Title (A-Z)'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được sắp xếp lại theo thứ tự bảng chữ cái tăng dần (A-Z) dựa trên tiêu đề. Dropdown 'Sort by' hiển thị 'Title (A-Z)'.</t>
+  </si>
+  <si>
+    <t>YC_MOD_004_SapXep</t>
+  </si>
+  <si>
+    <t>TC_Sort_002</t>
+  </si>
+  <si>
+    <t>Sắp xếp danh sách theo Ngày thêm (Mới nhất)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp danh sách hội nghị theo ngày thêm gần nhất.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa nhiều hội nghị được thêm vào các ngày khác nhau.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort by'.
+2. Chọn tùy chọn 'Added Date (Newest First)'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được sắp xếp lại theo thứ tự giảm dần dựa trên 'Requested Date' (hoặc 'Added Date'), hội nghị mới nhất hiển thị đầu tiên. Dropdown 'Sort by' hiển thị 'Added Date (Newest First)'.</t>
+  </si>
+  <si>
+    <t>TC_Sort_003</t>
+  </si>
+  <si>
+    <t>Sắp xếp danh sách theo Ngày cập nhật (Mới nhất)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sắp xếp danh sách hội nghị theo ngày cập nhật gần nhất.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có chứa nhiều hội nghị được cập nhật vào các thời điểm khác nhau.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Sort by'.
+2. Chọn tùy chọn 'Updated Date (Newest First)'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được sắp xếp lại theo thứ tự giảm dần dựa trên 'Last Updated' date, hội nghị được cập nhật gần nhất hiển thị đầu tiên. Dropdown 'Sort by' hiển thị 'Updated Date (Newest First)'.</t>
+  </si>
+  <si>
+    <t>TC_Action_Approve_001</t>
+  </si>
+  <si>
+    <t>Duyệt hội nghị thành công (không nhập comment)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể duyệt một hội nghị ở trạng thái Pending sang Approved mà không cần nhập comment.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có ít nhất một hội nghị ở trạng thái 'Pending'.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Pending'.
+2. Nhấp vào nút 'Approve' cho hội nghị đó.
+3. Trong modal 'Approve Conference', để trống trường comment.
+4. Nhấp vào nút 'Approve' trong modal.</t>
+  </si>
+  <si>
+    <t>Modal 'Approve Conference' đóng lại. Trạng thái của hội nghị đó trong danh sách được cập nhật thành 'Approved'. Thời gian 'Last Updated' được cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_MOD_005_Duyet</t>
+  </si>
+  <si>
+    <t>TC_Action_Approve_002</t>
+  </si>
+  <si>
+    <t>Duyệt hội nghị thành công (nhập comment)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể duyệt một hội nghị ở trạng thái Pending sang Approved và nhập comment.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Pending'.
+2. Nhấp vào nút 'Approve' cho hội nghị đó.
+3. Trong modal 'Approve Conference', nhập comment vào trường nhập liệu.
+4. Nhấp vào nút 'Approve' trong modal.</t>
+  </si>
+  <si>
+    <t>Modal 'Approve Conference' đóng lại. Trạng thái của hội nghị đó trong danh sách được cập nhật thành 'Approved'. Comment được lưu lại (nếu hệ thống có chức năng lưu comment). Thời gian 'Last Updated' được cập nhật.</t>
+  </si>
+  <si>
+    <t>TC_Action_Approve_003</t>
+  </si>
+  <si>
+    <t>Hủy thao tác duyệt hội nghị</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể hủy bỏ thao tác duyệt hội nghị từ modal.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Pending'.
+2. Nhấp vào nút 'Approve' cho hội nghị đó.
+3. Trong modal 'Approve Conference', nhấp vào nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Modal 'Approve Conference' đóng lại. Trạng thái của hội nghị đó trong danh sách vẫn là 'Pending' (không thay đổi).</t>
+  </si>
+  <si>
+    <t>TC_Action_SetPending_001</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái hội nghị sang 'Pending' thành công (không nhập comment)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chuyển trạng thái một hội nghị từ 'Approved' hoặc 'Rejected' trở lại 'Pending' mà không cần nhập comment.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có ít nhất một hội nghị ở trạng thái 'Approved' hoặc 'Rejected'.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Approved' hoặc 'Rejected'.
+2. Nhấp vào nút 'Set to Pending' cho hội nghị đó.
+3. Trong modal 'Set Conference to Pending', để trống trường comment.
+4. Nhấp vào nút 'Set Pending' trong modal.</t>
+  </si>
+  <si>
+    <t>Modal 'Set Conference to Pending' đóng lại. Trạng thái của hội nghị đó trong danh sách được cập nhật thành 'Pending'. Thời gian 'Last Updated' được cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_MOD_006_SetPending</t>
+  </si>
+  <si>
+    <t>TC_Action_SetPending_002</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái hội nghị sang 'Pending' thành công (nhập comment)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chuyển trạng thái một hội nghị từ 'Approved' hoặc 'Rejected' trở lại 'Pending' và nhập comment.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Approved' hoặc 'Rejected'.
+2. Nhấp vào nút 'Set to Pending' cho hội nghị đó.
+3. Trong modal 'Set Conference to Pending', nhập comment vào trường nhập liệu.
+4. Nhấp vào nút 'Set Pending' trong modal.</t>
+  </si>
+  <si>
+    <t>Modal 'Set Conference to Pending' đóng lại. Trạng thái của hội nghị đó trong danh sách được cập nhật thành 'Pending'. Comment được lưu lại (nếu hệ thống có chức năng lưu comment). Thời gian 'Last Updated' được cập nhật.</t>
+  </si>
+  <si>
+    <t>TC_Action_SetPending_003</t>
+  </si>
+  <si>
+    <t>Hủy thao tác chuyển trạng thái sang 'Pending'</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể hủy bỏ thao tác chuyển trạng thái hội nghị sang 'Pending' từ modal.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Approved' hoặc 'Rejected'.
+2. Nhấp vào nút 'Set to Pending' cho hội nghị đó.
+3. Trong modal 'Set Conference to Pending', nhấp vào nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Modal 'Set Conference to Pending' đóng lại. Trạng thái của hội nghị đó trong danh sách vẫn giữ nguyên (không thay đổi).</t>
+  </si>
+  <si>
+    <t>TC_Action_Reject_001</t>
+  </si>
+  <si>
+    <t>Từ chối hội nghị thành công (nhập lý do)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể từ chối một hội nghị và cung cấp lý do.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có ít nhất một hội nghị ở trạng thái 'Pending' hoặc 'Approved'.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Pending'.
+2. Nhấp vào nút 'Reject' cho hội nghị đó.
+3. Trong modal 'Reject Conference', nhập lý do từ chối vào trường nhập liệu.
+4. Nhấp vào nút 'Reject' trong modal.</t>
+  </si>
+  <si>
+    <t>Modal 'Reject Conference' đóng lại. Trạng thái của hội nghị đó trong danh sách được cập nhật thành 'Rejected'. Lý do từ chối được lưu lại. Thời gian 'Last Updated' được cập nhật.</t>
+  </si>
+  <si>
+    <t>YC_MOD_007_TuChoi</t>
+  </si>
+  <si>
+    <t>TC_Action_Reject_002</t>
+  </si>
+  <si>
+    <t>Từ chối hội nghị (để trống lý do - bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống yêu cầu nhập lý do khi từ chối hội nghị.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Pending'.
+2. Nhấp vào nút 'Reject' cho hội nghị đó.
+3. Trong modal 'Reject Conference', để trống trường nhập liệu lý do.
+4. Nhấp vào nút 'Reject' trong modal.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi yêu cầu nhập lý do từ chối. Modal 'Reject Conference' không đóng lại. Trạng thái hội nghị không thay đổi.</t>
+  </si>
+  <si>
+    <t>TC_Action_Reject_003</t>
+  </si>
+  <si>
+    <t>Hủy thao tác từ chối hội nghị</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể hủy bỏ thao tác từ chối hội nghị từ modal.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị có trạng thái 'Pending'.
+2. Nhấp vào nút 'Reject' cho hội nghị đó.
+3. Trong modal 'Reject Conference', nhấp vào nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Modal 'Reject Conference' đóng lại. Trạng thái của hội nghị đó trong danh sách vẫn giữ nguyên (không thay đổi).</t>
+  </si>
+  <si>
+    <t>TC_Combined_001</t>
+  </si>
+  <si>
+    <t>Kết hợp Lọc theo Trạng thái ('Pending') và Tìm kiếm theo Tiêu đề</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng hiển thị danh sách các hội nghị có trạng thái 'Pending' VÀ tiêu đề chứa từ khóa tìm kiếm.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Hệ thống có ít nhất một hội nghị ở trạng thái 'Pending' với tiêu đề chứa từ khóa tìm kiếm dự kiến.
+Hệ thống có các hội nghị khác ở trạng thái 'Pending' NHƯNG không chứa từ khóa.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status' và chọn 'Pending'.
+2. Nhập từ khóa tìm kiếm vào trường 'Search by Title'.
+3. Nhấn Enter hoặc chờ kết quả tìm kiếm được lọc.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có trạng thái 'Pending' VÀ tiêu đề chứa từ khóa đã nhập. Các hội nghị khác (Pending không khớp từ khóa, hoặc trạng thái khác) bị ẩn đi.</t>
+  </si>
+  <si>
+    <t>YC_MOD_002_LocDS
+YC_MOD_003_TimKiem</t>
+  </si>
+  <si>
+    <t>TC_Combined_002</t>
+  </si>
+  <si>
+    <t>Kết hợp Lọc theo Trạng thái ('Approved') và Sắp xếp theo Ngày thêm</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng hiển thị danh sách các hội nghị có trạng thái 'Approved' và sắp xếp chúng theo ngày thêm gần nhất.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Hệ thống có ít nhất một số hội nghị ở trạng thái 'Approved' được thêm vào các ngày khác nhau.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status' và chọn 'Approved'.
+2. Nhấp vào dropdown 'Sort by' và chọn 'Added Date (Newest First)'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có trạng thái 'Approved'. Các hội nghị này được sắp xếp theo ngày 'Requested Date' (hoặc 'Added Date') giảm dần (mới nhất ở trên).</t>
+  </si>
+  <si>
+    <t>YC_MOD_002_LocDS
+YC_MOD_004_SapXep</t>
+  </si>
+  <si>
+    <t>TC_Combined_003</t>
+  </si>
+  <si>
+    <t>Kết hợp Tìm kiếm theo Tiêu đề và Sắp xếp theo Tiêu đề</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng tìm kiếm hội nghị theo tiêu đề và sau đó sắp xếp kết quả tìm kiếm theo thứ tự bảng chữ cái.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Hệ thống có ít nhất một số hội nghị có tiêu đề chứa từ khóa tìm kiếm dự kiến.</t>
+  </si>
+  <si>
+    <t>1. Nhập từ khóa tìm kiếm vào trường 'Search by Title'.
+2. Nhấn Enter hoặc chờ kết quả tìm kiếm được lọc.
+3. Nhấp vào dropdown 'Sort by' và chọn 'Title (A-Z)'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có tiêu đề chứa từ khóa đã nhập. Các hội nghị này được sắp xếp theo thứ tự bảng chữ cái tăng dần (A-Z) dựa trên tiêu đề.</t>
+  </si>
+  <si>
+    <t>YC_MOD_003_TimKiem
+YC_MOD_004_SapXep</t>
+  </si>
+  <si>
+    <t>TC_Combined_004</t>
+  </si>
+  <si>
+    <t>Kết hợp Lọc theo Trạng thái, Tìm kiếm theo Tiêu đề và Sắp xếp theo Ngày cập nhật</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng áp dụng đồng thời bộ lọc trạng thái, tìm kiếm theo tiêu đề và sắp xếp kết quả theo ngày cập nhật gần nhất.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Hệ thống có ít nhất một hội nghị ở trạng thái cụ thể, tiêu đề chứa từ khóa và được cập nhật vào các thời điểm khác nhau.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Filter by Status' và chọn một trạng thái bất kỳ (ví dụ: 'All').
+2. Nhập từ khóa tìm kiếm vào trường 'Search by Title'.
+3. Nhấn Enter hoặc chờ kết quả tìm kiếm được lọc.
+4. Nhấp vào dropdown 'Sort by' và chọn 'Updated Date (Newest First)'.</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị khớp với bộ lọc trạng thái và chứa từ khóa tìm kiếm. Các hội nghị này được sắp xếp theo ngày 'Last Updated' giảm dần (mới nhất ở trên).</t>
+  </si>
+  <si>
+    <t>YC_MOD_002_LocDS
+YC_MOD_003_TimKiem
+YC_MOD_004_SapXep</t>
+  </si>
+  <si>
+    <t>TC_Combined_005</t>
+  </si>
+  <si>
+    <t>Kết hợp Lọc theo Ngày thêm và Lọc theo Trạng thái</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng hiển thị các hội nghị được thêm trong một khoảng ngày cụ thể VÀ có một trạng thái nhất định.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Hệ thống có ít nhất một hội nghị ở trạng thái cụ thể, được thêm trong khoảng ngày tìm kiếm dự kiến.</t>
+  </si>
+  <si>
+    <t>1. Nhập khoảng ngày vào trường 'Added Date Range'.
+2. Nhấp vào dropdown 'Filter by Status' và chọn một trạng thái (ví dụ: 'Rejected').</t>
+  </si>
+  <si>
+    <t>Danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị được thêm trong khoảng ngày đã chọn VÀ có trạng thái là 'Rejected'.</t>
+  </si>
+  <si>
+    <t>YC_MOD_002_LocDS
+YC_MOD_005_LocTheoNgayThem</t>
+  </si>
+  <si>
+    <t>TC_Link_001</t>
+  </si>
+  <si>
+    <t>Nhấp vào liên kết URL của hội nghị</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể mở URL của hội nghị trong một tab mới.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có ít nhất một hội nghị với một URL hợp lệ được hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị trong danh sách và nhấp vào liên kết URL.</t>
+  </si>
+  <si>
+    <t>Một tab trình duyệt mới được mở ra và điều hướng đến địa chỉ URL đã nhấp. Trang Moderation hiện tại vẫn mở trong tab ban đầu.</t>
+  </si>
+  <si>
+    <t>YC_MOD_008_XemChiTietNhanh</t>
+  </si>
+  <si>
+    <t>TC_Link_002</t>
+  </si>
+  <si>
+    <t>Nhấp vào Tiêu đề của hội nghị</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể nhấp vào tiêu đề hội nghị để xem chi tiết hoặc thông tin liên quan.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Moderation.
+Danh sách hiển thị có ít nhất một hội nghị với tiêu đề là liên kết.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị trong danh sách và nhấp vào tiêu đề (ví dụ: hội nghị A (HNA)).</t>
+  </si>
+  <si>
+    <t>Hệ thống điều hướng người dùng đến một trang mới hiển thị thông tin chi tiết về hội nghị đó (ví dụ: trang chi tiết hội nghị trong admin panel).</t>
+  </si>
+  <si>
+    <t>YC_MOD_009_XemChiTietDayDu</t>
+  </si>
+  <si>
+    <t>TC_Language_001</t>
+  </si>
+  <si>
+    <t>Thay đổi ngôn ngữ giao diện (sang Tiếng Việt)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi ngôn ngữ hiển thị của giao diện.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập.
+Đang ở bất kỳ trang nào có hiển thị dropdown ngôn ngữ (ví dụ: trang Moderation).</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown chọn ngôn ngữ trên Header.
+2. Chọn tùy chọn 'Vi' (Tiếng Việt).</t>
+  </si>
+  <si>
+    <t>Giao diện người dùng (các nhãn, tiêu đề, nút, v.v.) trên trang hiện tại được cập nhật sang Tiếng Việt. Dropdown ngôn ngữ hiển thị cờ Việt Nam hoặc nhãn 'Vi'.</t>
+  </si>
+  <si>
+    <t>YC_UI_001_DaNgonNgu</t>
+  </si>
+  <si>
+    <t>Thay đổi giao diện chủ đề (sang Dark)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi giao diện chủ đề sang chế độ tối.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập.
+Đang ở bất kỳ trang nào có hiển thị dropdown Theme (ví dụ: trang Moderation).</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown chọn Theme trên Header.
+2. Chọn tùy chọn 'Dark'.</t>
+  </si>
+  <si>
+    <t>Giao diện người dùng (màu sắc nền, chữ, các thành phần khác) trên trang hiện tại được chuyển sang tông màu tối. Dropdown Theme hiển thị 'Dark'.</t>
+  </si>
+  <si>
+    <t>YC_UI_002_Theme</t>
+  </si>
+  <si>
+    <t>TC_Logout_001</t>
+  </si>
+  <si>
+    <t>Đăng xuất khỏi hệ thống</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể đăng xuất khỏi tài khoản hiện tại.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập thành công.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào biểu tượng profile/avatar người dùng trên Header.
+2. Trong dropdown menu, nhấp vào tùy chọn 'Logout'.</t>
+  </si>
+  <si>
+    <t>Hệ thống đăng xuất người dùng thành công. Người dùng được chuyển hướng trở lại trang Đăng nhập. Không thể truy cập các trang yêu cầu đăng nhập nếu không đăng nhập lại.</t>
+  </si>
+  <si>
+    <t>YC_DN_003_DangXuat</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_Navigation_001</t>
+  </si>
+  <si>
+    <t>Truy cập trang Conference Management từ Sidebar</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể điều hướng đến trang quản lý Hội nghị thông qua menu Sidebar.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập thành công và đang ở bất kỳ trang nào có hiển thị Sidebar menu.
+Sidebar menu 'Conferences' hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào liên kết 'Conferences' trong Sidebar menu.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến trang 'Conference Management'. Tiêu đề trang hiển thị 'Conference Management'. URL của trang kết thúc bằng '/conferences'.</t>
+  </si>
+  <si>
+    <t>YC_DN_001_DangNhap
+YC_CM_001_XemDS</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_View_001</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách hội nghị (mặc định)</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang Conference Management hiển thị danh sách các hội nghị theo cài đặt mặc định khi truy cập.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập thành công và đang ở trang Conference Management (URL: /conferences).
+Có ít nhất một hội nghị trong hệ thống.</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang Conference Management.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị bảng danh sách các hội nghị với các cột Title, Acronym, Sources, Research Fields, Ranks, Status, Actions. Mặc định, các bộ lọc (Status, Sources, Fields, Rank) hiển thị 'All...'. Phân trang hiển thị (ví dụ: '100 per page').</t>
+  </si>
+  <si>
+    <t>YC_CM_001_XemDS</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_Search_001</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hội nghị theo Tiêu đề hoặc Viết tắt (tìm thấy)</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm hội nghị theo tiêu đề hoặc viết tắt khi có kết quả khớp.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Danh sách hiển thị có chứa ít nhất một hội nghị có tiêu đề hoặc viết tắt trùng khớp với từ khóa tìm kiếm dự kiến.</t>
+  </si>
+  <si>
+    <t>1. Nhập một phần hoặc toàn bộ tiêu đề hoặc viết tắt của một hội nghị đang hiển thị vào trường 'Search by title or acronym'.
+2. Nhấn Enter hoặc chờ kết quả tìm kiếm được lọc.</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có tiêu đề hoặc viết tắt chứa từ khóa đã nhập. Các hội nghị không khớp sẽ bị ẩn đi.</t>
+  </si>
+  <si>
+    <t>YC_CM_002_TimKiem</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_Filter_Status_001</t>
+  </si>
+  <si>
+    <t>Lọc danh sách theo trạng thái cụ thể</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng lọc danh sách hội nghị theo một trạng thái cụ thể (ví dụ: 'DRAFT').</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Danh sách hiển thị có chứa hội nghị ở trạng thái 'DRAFT' và các trạng thái khác.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Status'.
+2. Chọn tùy chọn 'DRAFT'.</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có cột 'Status' là 'DRAFT'. Dropdown 'Status' hiển thị 'DRAFT'.</t>
+  </si>
+  <si>
+    <t>YC_CM_003_LocDS</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_Filter_Rank_001</t>
+  </si>
+  <si>
+    <t>Lọc danh sách theo xếp hạng cụ thể</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng lọc danh sách hội nghị theo một xếp hạng cụ thể (ví dụ: 'A*').</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Danh sách hiển thị có chứa hội nghị ở xếp hạng 'A*' và các xếp hạng khác.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Rank'.
+2. Chọn tùy chọn 'A*'.</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có cột 'Ranks' là 'A*'. Dropdown 'Rank' hiển thị 'A*'.</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_Pagination_001</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng mục hiển thị trên mỗi trang</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi số lượng hàng hiển thị trong bảng danh sách.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Danh sách có nhiều hơn số lượng mục hiển thị mặc định (ví dụ: &gt;100).</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown chọn số lượng mục trên mỗi trang ('100 per page').
+2. Chọn một tùy chọn khác (ví dụ: '10 per page').</t>
+  </si>
+  <si>
+    <t>Số lượng hàng trong bảng danh sách được cập nhật hiển thị đúng số lượng đã chọn (ví dụ: 10 hàng). Dropdown hiển thị số lượng đã chọn. Phân trang cập nhật tương ứng (ví dụ: '1 to 10 of ...').</t>
+  </si>
+  <si>
+    <t>YC_CM_004_PhanTrang</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_Pagination_002</t>
+  </si>
+  <si>
+    <t>Điều hướng đến trang kế tiếp</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chuyển sang trang dữ liệu kế tiếp trong danh sách.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Danh sách có nhiều hơn một trang dữ liệu.
+Đang ở trang đầu tiên hoặc một trang ở giữa.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Next'.</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hiển thị các mục của trang kế tiếp. Số trang hiện tại trong phân trang được cập nhật (ví dụ: từ 'Page 1' sang 'Page 2').</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_ResetFilters_001</t>
+  </si>
+  <si>
+    <t>Đặt lại tất cả bộ lọc</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng 'Reset Filters' đưa tất cả các bộ lọc về trạng thái mặc định.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Ít nhất một bộ lọc (Search, Status, Sources, Fields, Rank) đang được áp dụng (không phải 'All...' hoặc trống).</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Reset Filters'.</t>
+  </si>
+  <si>
+    <t>Trường 'Search by title or acronym' trở về trống. Tất cả các dropdown bộ lọc (Status, Sources, Research Fields, Rank) trở về tùy chọn mặc định ('All...'). Bảng danh sách hiển thị lại tất cả các mục (hoặc theo cài đặt phân trang mặc định) mà không áp dụng lọc/tìm kiếm.</t>
+  </si>
+  <si>
+    <t>YC_CM_005_DatLaiBoLoc</t>
+  </si>
+  <si>
+    <t>TC_Combined_ConfMgt_001</t>
+  </si>
+  <si>
+    <t>Kết hợp Tìm kiếm theo Tiêu đề/Viết tắt và Lọc theo Trạng thái</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng hiển thị danh sách các hội nghị khớp với từ khóa tìm kiếm VÀ có một trạng thái cụ thể.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Hệ thống có ít nhất một hội nghị ở trạng thái cụ thể với tiêu đề/viết tắt chứa từ khóa tìm kiếm dự kiến.</t>
+  </si>
+  <si>
+    <t>1. Nhập từ khóa tìm kiếm vào trường 'Search by title or acronym'.
+2. Nhấn Enter hoặc chờ kết quả tìm kiếm được lọc.
+3. Nhấp vào dropdown 'Status' và chọn một trạng thái (ví dụ: 'CRAWLED').</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có tiêu đề hoặc viết tắt chứa từ khóa ĐỒNG THỜI có trạng thái khớp với bộ lọc. Các hội nghị khác bị ẩn đi.</t>
+  </si>
+  <si>
+    <t>YC_CM_002_TimKiem
+YC_CM_003_LocDS</t>
+  </si>
+  <si>
+    <t>TC_Combined_ConfMgt_002</t>
+  </si>
+  <si>
+    <t>Kết hợp Lọc theo Xếp hạng và Sắp xếp theo Tiêu đề</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng hiển thị danh sách các hội nghị có xếp hạng cụ thể và sắp xếp chúng theo tiêu đề (A-Z).</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Hệ thống có ít nhất một số hội nghị ở xếp hạng cụ thể với các tiêu đề khác nhau.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào dropdown 'Rank' và chọn một xếp hạng (ví dụ: 'A').
+2. Nhấp vào tiêu đề cột 'Title' để sắp xếp theo A-Z (nếu chưa phải A-Z).</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị có cột 'Ranks' khớp với bộ lọc. Các hội nghị này được sắp xếp theo thứ tự bảng chữ cái tăng dần (A-Z) dựa trên tiêu đề.</t>
+  </si>
+  <si>
+    <t>YC_CM_003_LocDS
+YC_CM_006_SapXep</t>
+  </si>
+  <si>
+    <t>TC_Combined_ConfMgt_003</t>
+  </si>
+  <si>
+    <t>Kết hợp Tìm kiếm, Lọc theo trạng thái, Lọc theo Xếp hạng</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng áp dụng đồng thời tìm kiếm theo tiêu đề/viết tắt, lọc theo trạng thái và lọc theo xếp hạng.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Hệ thống có ít nhất một hội nghị khớp với tất cả các tiêu chí lọc/tìm kiếm dự kiến.</t>
+  </si>
+  <si>
+    <t>1. Nhập từ khóa tìm kiếm vào trường 'Search by title or acronym'.
+2. Nhấp vào dropdown 'Status' và chọn một trạng thái.
+3. Nhấp vào dropdown 'Rank' và chọn một xếp hạng.</t>
+  </si>
+  <si>
+    <t>Bảng danh sách hội nghị được cập nhật chỉ hiển thị các hội nghị khớp với từ khóa tìm kiếm ĐỒNG THỜI có trạng thái VÀ xếp hạng khớp với các bộ lọc đã chọn.</t>
+  </si>
+  <si>
+    <t>TC_ConfMgt_ViewHistory_001</t>
+  </si>
+  <si>
+    <t>Nhấp vào nút 'View History'</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể mở trang chi tiết lịch sử của một hội nghị.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang Conference Management.
+Danh sách hiển thị có ít nhất một hội nghị.</t>
+  </si>
+  <si>
+    <t>1. Tìm một hội nghị trong bảng danh sách.
+2. Nhấp vào nút 'View History' tương ứng với hội nghị đó.</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng người dùng đến một trang mới có tiêu đề 'Conference History - [Tên hội nghị]' hoặc tương tự, hiển thị thông tin chi tiết và lịch sử của hội nghị đó (Basic Information, Links, Locations, Topics, Dates). URL thay đổi sang định dạng '/edit/eclla/...'.</t>
+  </si>
+  <si>
+    <t>YC_CM_007_XemLichSu</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_View_001</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết lịch sử hội nghị</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang lịch sử hội nghị hiển thị đầy đủ các phần thông tin.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị (sau khi nhấp 'View History').</t>
+  </si>
+  <si>
+    <t>1. Quan sát các phần thông tin trên trang.</t>
+  </si>
+  <si>
+    <t>Trang hiển thị các phần: Basic Information, Links, Locations, Topics, Dates. Các thông tin chi tiết của hội nghị (Year, Access Type, Summary, Call for Papers, URL links, Locations, Topics, Dates) được hiển thị chính xác.</t>
+  </si>
+  <si>
+    <t>TC_Link_ConfHist_001</t>
+  </si>
+  <si>
+    <t>Nhấp vào liên kết URL trong phần 'Links'</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể mở các liên kết (Main Link, CFP Link, Important Link) trong phần 'Links' của lịch sử hội nghị.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Links' hiển thị với các URL hợp lệ.</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Links', nhấp vào liên kết 'Main Link'.
+2. Trong phần 'Links', nhấp vào liên kết 'CFP Link'.
+3. Trong phần 'Links', nhấp vào liên kết 'Important Link'.</t>
+  </si>
+  <si>
+    <t>Mỗi liên kết khi nhấp vào sẽ mở một tab trình duyệt mới và điều hướng đến địa chỉ URL tương ứng. Trang lịch sử hội nghị hiện tại vẫn mở trong tab ban đầu.</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditMode_001</t>
+  </si>
+  <si>
+    <t>Chuyển sang chế độ chỉnh sửa thông tin cơ bản</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chuyển phần Basic Information sang chế độ chỉnh sửa.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Basic Information', nhấp vào nút 'Edit'.</t>
+  </si>
+  <si>
+    <t>Các trường thông tin trong phần 'Basic Information' (Year, Access Type, Publisher, Summary, Call for Papers) chuyển sang trạng thái có thể chỉnh sửa (ví dụ: hiển thị input fields). Nút 'Edit' được thay thế bằng các nút 'Cancel' và 'Save'.</t>
+  </si>
+  <si>
+    <t>YC_CM_008_ChinhSuaLichSu</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditMode_002</t>
+  </si>
+  <si>
+    <t>Hủy bỏ chỉnh sửa thông tin cơ bản</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể hủy bỏ thao tác chỉnh sửa Basic Information.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Đang ở chế độ chỉnh sửa phần Basic Information.</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Basic Information' đang ở chế độ chỉnh sửa, nhấp vào nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Phần 'Basic Information' quay trở lại chế độ chỉ xem. Các trường thông tin hiển thị dữ liệu ban đầu (trước khi chỉnh sửa). Các nút 'Cancel' và 'Save' biến mất, nút 'Edit' hiển thị lại.</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_Delete_001</t>
+  </si>
+  <si>
+    <t>Nhấp vào nút 'Delete' lịch sử hội nghị</t>
+  </si>
+  <si>
+    <t>Kiểm tra việc nhấp vào nút Delete trên trang lịch sử hội nghị.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Delete' ở trên cùng của trang.</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị một hộp thoại xác nhận xóa (confirmation dialog/modal) hỏi người dùng có chắc chắn muốn xóa mục lịch sử này không.</t>
+  </si>
+  <si>
+    <t>YC_CM_009_XoaLichSu</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditBasic_003</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thành công Basic Information</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể sửa đổi thông tin cơ bản của hội nghị (Year, Access Type, Summary, Call for Papers) và lưu lại thành công.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Đang ở chế độ chỉnh sửa phần Basic Information (sau khi nhấp nút 'Edit').</t>
+  </si>
+  <si>
+    <t>1. Sửa đổi giá trị trong một hoặc nhiều trường nhập liệu của phần Basic Information (ví dụ: thay đổi 'Year' thành 2026, chỉnh sửa 'Summary').
+2. Nhấp vào nút 'Save'.</t>
+  </si>
+  <si>
+    <t>Các trường thông tin trong phần 'Basic Information' hiển thị dữ liệu mới đã lưu. Phần Basic Information quay trở lại chế độ chỉ xem. Hệ thống hiển thị thông báo lưu thành công (nếu có). Thời gian 'Last Updated' của hội nghị có thể được cập nhật.</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditLinks_001</t>
+  </si>
+  <si>
+    <t>Chuyển sang chế độ chỉnh sửa Links</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chuyển phần Links sang chế độ chỉnh sửa để cập nhật các liên kết.</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Links', nhấp vào nút 'Edit'.</t>
+  </si>
+  <si>
+    <t>Các liên kết trong phần 'Links' hiển thị dưới dạng các trường nhập liệu (Input fields) có thể chỉnh sửa (Main Link, CFP Link, Important Link). Nút 'Edit' được thay thế bằng  nút 'Cancel' .</t>
+  </si>
+  <si>
+    <t>YC_CM_010_ChinhSuaLinks</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditLinks_002</t>
+  </si>
+  <si>
+    <t>Hủy bỏ chỉnh sửa Links</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể hủy bỏ thao tác chỉnh sửa Links từ chế độ chỉnh sửa.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Đang ở chế độ chỉnh sửa phần Links (sau khi nhấp nút 'Edit').</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Links' đang ở chế độ chỉnh sửa, nhấp vào nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Phần 'Links' quay trở lại chế độ chỉ xem. Các liên kết hiển thị lại dữ liệu ban đầu (trước khi chỉnh sửa). Các nút 'Cancel' và 'Save' biến mất, nút 'Edit' hiển thị lại.</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditLinks_003</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thành công Links</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể sửa đổi các liên kết trong phần Links và lưu lại thành công.</t>
+  </si>
+  <si>
+    <t>1. Sửa đổi giá trị trong một hoặc nhiều trường liên kết của phần Links (ví dụ: thay đổi 'Main Link' thành một URL mới).
+2. Nhấp vào nút 'Save'.</t>
+  </si>
+  <si>
+    <t>Các liên kết trong phần 'Links' hiển thị dữ liệu mới đã lưu. Phần Links quay trở lại chế độ chỉ xem. Hệ thống hiển thị thông báo lưu thành công (nếu có).</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditLocations_001</t>
+  </si>
+  <si>
+    <t>Chuyển sang chế độ chỉnh sửa Locations</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chuyển phần Locations sang chế độ chỉnh sửa để cập nhật thông tin địa điểm.</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Locations', nhấp vào nút 'Edit'.</t>
+  </si>
+  <si>
+    <t>Thông tin địa điểm trong phần 'Locations' hiển thị dưới dạng các trường nhập liệu có thể chỉnh sửa (ví dụ: các trường cho Thành phố, Quốc gia, Khu vực, v.v.). Nút 'Edit' được thay thế bằng nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>YC_CM_011_ChinhSuaLocations</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditLocations_002</t>
+  </si>
+  <si>
+    <t>Hủy bỏ chỉnh sửa Locations</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể hủy bỏ thao tác chỉnh sửa Locations từ chế độ chỉnh sửa.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Đang ở chế độ chỉnh sửa phần Locations (sau khi nhấp nút 'Edit').</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Locations' đang ở chế độ chỉnh sửa, nhấp vào nút 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Phần 'Locations' quay trở lại chế độ chỉ xem. Thông tin địa điểm hiển thị lại dữ liệu ban đầu (trước khi chỉnh sửa). Các nút 'Cancel' và 'Save' biến mất, nút 'Edit' hiển thị lại.</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_EditLocations_003</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thành công Locations</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể sửa đổi thông tin địa điểm trong phần Locations và lưu lại thành công.</t>
+  </si>
+  <si>
+    <t>1. Sửa đổi giá trị trong một hoặc nhiều trường nhập liệu của phần Locations (ví dụ: thay đổi tên thành phố, quốc gia).
+2. Nhấp vào nút 'Save'.</t>
+  </si>
+  <si>
+    <t>Thông tin địa điểm trong phần 'Locations' hiển thị dữ liệu mới đã lưu. Phần Locations quay trở lại chế độ chỉ xem. Hệ thống hiển thị thông báo lưu thành công (nếu có).</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_AddTopic_001</t>
+  </si>
+  <si>
+    <t>Thêm Topic mới thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thêm một mục Topic mới vào danh sách.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Topics' hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Add Topic'.
+2. Một trường nhập liệu mới xuất hiện (thường ở cuối danh sách). Nhập tên topic mới vào trường này (ví dụ: 'New Research Area').
+3. Nhấp vào nút 'Save' ở cuối phần Topics.</t>
+  </si>
+  <si>
+    <t>Topic mới ('New Research Area') xuất hiện trong danh sách các Topics. Trường nhập liệu trống có thể biến mất hoặc được đặt lại. Hệ thống hiển thị thông báo lưu thành công (nếu có).</t>
+  </si>
+  <si>
+    <t>YC_CM_012_QuanLyTopics</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_RemoveTopic_001</t>
+  </si>
+  <si>
+    <t>Xóa Topic thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể xóa một mục Topic hiện có khỏi danh sách.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Topics' hiển thị và chứa ít nhất một mục có thể xóa.</t>
+  </si>
+  <si>
+    <t>1. Tìm một Topic trong danh sách muốn xóa (ví dụ: 'Privacy').
+2. Nhấp vào nút 'Remove' tương ứng với Topic đó.
+3. Nhấp vào nút 'Save' ở cuối phần Topics.</t>
+  </si>
+  <si>
+    <t>Topic đã chọn bị xóa khỏi danh sách các Topics. Hệ thống hiển thị thông báo lưu thành công (nếu có).</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_AddDate_001</t>
+  </si>
+  <si>
+    <t>Thêm mục Date mới thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thêm một mục Date mới (loại ngày, tên ngày, ngày bắt đầu, ngày kết thúc) vào danh sách.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Dates' hiển thị.</t>
+  </si>
+  <si>
+    <t>1. Nhấp vào nút 'Add Date'.
+2. Một hàng mới với các trường nhập liệu xuất hiện. Chọn 'Date Type', nhập 'Date Name', chọn 'Start Date' và 'End Date' hợp lệ.
+3. Nhấp vào nút 'Save' ở cuối phần Dates.</t>
+  </si>
+  <si>
+    <t>Mục Date mới với thông tin đã nhập xuất hiện trong danh sách các Dates. Hàng nhập liệu trống có thể biến mất hoặc được đặt lại. Hệ thống hiển thị thông báo lưu thành công (nếu có).</t>
+  </si>
+  <si>
+    <t>YC_CM_013_QuanLyDates</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_RemoveDate_001</t>
+  </si>
+  <si>
+    <t>Xóa mục Date thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể xóa một mục Date hiện có khỏi danh sách.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Dates' hiển thị và chứa ít nhất một mục có thể xóa.</t>
+  </si>
+  <si>
+    <t>1. Tìm một mục Date trong danh sách muốn xóa.
+2. Nhấp vào nút 'Remove' tương ứng với mục Date đó.
+3. Nhấp vào nút 'Save' ở cuối phần Dates.</t>
+  </si>
+  <si>
+    <t>Mục Date đã chọn bị xóa khỏi danh sách các Dates. Hệ thống hiển thị thông báo lưu thành công (nếu có).</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_DatesPagination_001</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng mục hiển thị trên mỗi trang (Dates)</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi số lượng hàng hiển thị trong bảng danh sách Dates.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Dates' hiển thị và chứa nhiều hơn số lượng mục hiển thị mặc định (ví dụ: &gt;10).</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Dates', nhấp vào dropdown chọn số lượng mục trên mỗi trang ('Page Size').
+2. Chọn một tùy chọn khác (ví dụ: '25 per page').</t>
+  </si>
+  <si>
+    <t>Số lượng hàng trong bảng Dates được cập nhật hiển thị đúng số lượng đã chọn. Dropdown 'Page Size' hiển thị số lượng đã chọn. Phân trang cập nhật tương ứng.</t>
+  </si>
+  <si>
+    <t>YC_CM_014_PhanTrangDates</t>
+  </si>
+  <si>
+    <t>TC_ConfHist_DatesPagination_002</t>
+  </si>
+  <si>
+    <t>Điều hướng phân trang trong phần Dates</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể điều hướng qua các trang dữ liệu trong danh sách Dates.</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và đang ở trang lịch sử chi tiết của một hội nghị.
+Phần 'Dates' hiển thị và chứa nhiều hơn một trang dữ liệu.</t>
+  </si>
+  <si>
+    <t>1. Trong phần 'Dates', nhấp vào nút 'Next'.
+2. Nhấp vào một số trang cụ thể (ví dụ: '2').
+3. Nhấp vào nút 'Last'.
+4. Nhấp vào nút 'Previous'.
+5. Nhấp vào nút 'First'.</t>
+  </si>
+  <si>
+    <t>Nội dung bảng Dates hiển thị các mục của trang tương ứng với nút điều hướng đã nhấp. Số trang hiện tại và trạng thái các nút điều hướng (enabled/disabled) cập nhật chính xác.</t>
   </si>
 </sst>
 </file>
@@ -4964,10 +6248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L209"/>
+  <dimension ref="A1:L270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M211" sqref="M211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12218,6 +13502,1592 @@
         <v>1384</v>
       </c>
     </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I210" t="s">
+        <v>18</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>157</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I211" t="s">
+        <v>44</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I212" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I213" t="s">
+        <v>18</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I214" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I215" t="s">
+        <v>18</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I216" t="s">
+        <v>18</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>101</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I217" t="s">
+        <v>18</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>116</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I218" t="s">
+        <v>18</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I219" t="s">
+        <v>18</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I220" t="s">
+        <v>18</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I221" t="s">
+        <v>18</v>
+      </c>
+      <c r="J221" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I222" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I223" t="s">
+        <v>18</v>
+      </c>
+      <c r="J223" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I224" t="s">
+        <v>44</v>
+      </c>
+      <c r="J224" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I225" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I226" t="s">
+        <v>18</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I227" t="s">
+        <v>44</v>
+      </c>
+      <c r="J227" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I228" t="s">
+        <v>18</v>
+      </c>
+      <c r="J228" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I229" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I230" t="s">
+        <v>44</v>
+      </c>
+      <c r="J230" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I231" t="s">
+        <v>18</v>
+      </c>
+      <c r="J231" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I232" t="s">
+        <v>18</v>
+      </c>
+      <c r="J232" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I233" t="s">
+        <v>18</v>
+      </c>
+      <c r="J233" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I234" t="s">
+        <v>18</v>
+      </c>
+      <c r="J234" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I235" t="s">
+        <v>18</v>
+      </c>
+      <c r="J235" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I236" t="s">
+        <v>44</v>
+      </c>
+      <c r="J236" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I237" t="s">
+        <v>44</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I238" t="s">
+        <v>44</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I239" t="s">
+        <v>44</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I240" t="s">
+        <v>18</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I241" t="s">
+        <v>44</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I242" t="s">
+        <v>18</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I243" t="s">
+        <v>18</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I244" t="s">
+        <v>18</v>
+      </c>
+      <c r="J244" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J245" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I246" t="s">
+        <v>44</v>
+      </c>
+      <c r="J246" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I247" t="s">
+        <v>44</v>
+      </c>
+      <c r="J247" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I248" t="s">
+        <v>18</v>
+      </c>
+      <c r="J248" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I249" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I250" t="s">
+        <v>18</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I251" t="s">
+        <v>18</v>
+      </c>
+      <c r="J251" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I252" t="s">
+        <v>18</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I253" t="s">
+        <v>18</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I254" t="s">
+        <v>18</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I255" t="s">
+        <v>44</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I256" t="s">
+        <v>44</v>
+      </c>
+      <c r="J256" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I257" t="s">
+        <v>18</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I258" t="s">
+        <v>18</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I259" t="s">
+        <v>44</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I260" t="s">
+        <v>44</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I261" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I262" t="s">
+        <v>44</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I263" t="s">
+        <v>44</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I264" t="s">
+        <v>18</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I265" t="s">
+        <v>18</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I266" t="s">
+        <v>18</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I267" t="s">
+        <v>18</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I268" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I269" t="s">
+        <v>44</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I270" t="s">
+        <v>44</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
